--- a/example/JSUB999999_jga_metadata.xlsx
+++ b/example/JSUB999999_jga_metadata.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{998A7706-16BA-40BA-A37E-B1AB56A1FE4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81646C8-7316-43E6-B490-F5352706E224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="12" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="865">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="877">
   <si>
     <t>E-mail</t>
     <phoneticPr fontId="1"/>
@@ -3471,72 +3471,6 @@
   </si>
   <si>
     <t>DOCUMENT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t># Sample の表現型とサンプル属性を 名前:値; 名前:値; … の組み合わせで記載します。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>解析に必須な情報は必ず記載してください。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
-例: age:37; smoke:yes; collection_date:2000-01-01</t>
-    </r>
-    <rPh sb="10" eb="13">
-      <t>ヒョウゲンケイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ゾクセイ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>カイセキ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>ヒッス</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="58" eb="59">
-      <t>カナラ</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="70" eb="71">
-      <t>レイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -4317,9 +4251,6 @@
     <t>no</t>
   </si>
   <si>
-    <t>age:37; collection_date:2015-03-05</t>
-  </si>
-  <si>
     <t>case-2-exome</t>
   </si>
   <si>
@@ -4332,9 +4263,6 @@
     <t>Blood sample of disease A patient case-2 for exome</t>
   </si>
   <si>
-    <t>age:40; collection_date:2015-06-07</t>
-  </si>
-  <si>
     <t>Sample-1</t>
   </si>
   <si>
@@ -4426,6 +4354,102 @@
   </si>
   <si>
     <t>exome2.fastq</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sample の記入例 (ウェブリンク)</t>
+    <rPh sb="8" eb="11">
+      <t>キニュウレイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>age</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>collection_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2015-03-05</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>material_type</t>
+  </si>
+  <si>
+    <t>genomic DNA</t>
+  </si>
+  <si>
+    <t>case-3-exome</t>
+  </si>
+  <si>
+    <t>case-3</t>
+  </si>
+  <si>
+    <t>Blood sample of disease A patient case-3 for exome</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># L列以降に属性を追加して Sample を十分に記載してください。
+属性名 (例 age) を二行目に、対応する値 (例 40) を三行目以降に記載します。</t>
+    <rPh sb="7" eb="9">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジュウブン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>ネ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>38</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AGD 統合</t>
+    <rPh sb="4" eb="6">
+      <t>トウゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リンク修正</t>
+    <rPh sb="3" eb="5">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sample 追加属性の記載形式を変更</t>
+    <rPh sb="7" eb="11">
+      <t>ツイカゾクセイ</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>キサイケイシキ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヘンコウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4433,7 +4457,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4489,8 +4513,24 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4530,6 +4570,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA9D975"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4587,7 +4633,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -4602,9 +4648,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4624,6 +4667,24 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4646,14 +4707,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FFA9D975"/>
+      <color rgb="FFA4D76B"/>
+      <color rgb="FF92D050"/>
+      <color rgb="FF0000FF"/>
+      <color rgb="FFBFE4FF"/>
       <color rgb="FF84919E"/>
-      <color rgb="FFBFE4FF"/>
       <color rgb="FFFFCA80"/>
       <color rgb="FFFDE9D9"/>
       <color rgb="FFDAEEF3"/>
       <color rgb="FF000000"/>
-      <color rgb="FFF2F2F2"/>
-      <color rgb="FF0000FF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -4668,9 +4731,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4708,9 +4771,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4743,26 +4806,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4795,26 +4841,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4988,99 +5017,99 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="17.5" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="126.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.08984375" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.90625" style="1"/>
+    <col min="1" max="1" width="126.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" s="6" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" s="6" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" s="6" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" s="6" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A6" s="14" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.6">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A6" s="13" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" s="6"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" s="1" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" s="3" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.6">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" s="1" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A16" s="15"/>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A16" s="14"/>
       <c r="B16" s="1" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A17" s="16"/>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A17" s="15"/>
       <c r="B17" s="1" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A18" s="17"/>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A18" s="16"/>
       <c r="B18" s="1" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A20" s="1">
         <v>1</v>
       </c>
@@ -5088,32 +5117,32 @@
         <v>407</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A21" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A22" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A24" s="1" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A25" s="7">
-        <v>44678</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.6">
+        <v>45794</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A27" s="1" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A28" s="1" t="s">
         <v>586</v>
       </c>
@@ -5121,7 +5150,7 @@
         <v>42285</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A29" s="1" t="s">
         <v>591</v>
       </c>
@@ -5129,7 +5158,7 @@
         <v>42429</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A30" s="1" t="s">
         <v>594</v>
       </c>
@@ -5137,7 +5166,7 @@
         <v>42430</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A31" s="1" t="s">
         <v>645</v>
       </c>
@@ -5145,7 +5174,7 @@
         <v>42486</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A32" s="1" t="s">
         <v>650</v>
       </c>
@@ -5153,7 +5182,7 @@
         <v>42760</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A33" s="1" t="s">
         <v>687</v>
       </c>
@@ -5161,7 +5190,7 @@
         <v>42935</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A34" s="1" t="s">
         <v>721</v>
       </c>
@@ -5169,36 +5198,60 @@
         <v>42935</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A35" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B35" s="7">
         <v>43227</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A36" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B36" s="7">
         <v>44103</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A37" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B37" s="7">
         <v>44622</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A38" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B38" s="7">
         <v>44678</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A39" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="B39" s="7">
+        <v>44918</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A40" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="B40" s="7">
+        <v>45321</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A41" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="B41" s="7">
+        <v>45794</v>
       </c>
     </row>
   </sheetData>
@@ -5220,80 +5273,78 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:P65"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="17.5" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="28.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="32" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="70" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="67.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.90625" style="1"/>
+    <col min="13" max="13" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="67.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.6">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.5">
+      <c r="A1" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>227</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="21" t="s">
         <v>226</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="21" t="s">
         <v>334</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="21" t="s">
         <v>361</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="21" t="s">
         <v>699</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="21" t="s">
         <v>334</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="21" t="s">
         <v>369</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="21" t="s">
         <v>334</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="N1" s="21" t="s">
         <v>634</v>
       </c>
-      <c r="O1" s="22" t="s">
+      <c r="O1" s="21" t="s">
+        <v>794</v>
+      </c>
+      <c r="P1" s="21" t="s">
         <v>795</v>
       </c>
-      <c r="P1" s="22" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.6">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -5319,7 +5370,7 @@
         <v>336</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>329</v>
@@ -5333,17 +5384,17 @@
       <c r="M2" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="N2" s="11" t="s">
         <v>608</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="P2" s="1" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
         <v>228</v>
       </c>
@@ -5375,7 +5426,7 @@
         <v>700</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>576</v>
@@ -5383,14 +5434,14 @@
       <c r="M3" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="N3" s="11" t="s">
         <v>609</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.6">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
         <v>229</v>
       </c>
@@ -5416,16 +5467,16 @@
         <v>701</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="N4" s="12" t="s">
+      <c r="N4" s="11" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
         <v>230</v>
       </c>
@@ -5456,11 +5507,11 @@
       <c r="L5" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="N5" s="12" t="s">
+      <c r="N5" s="11" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A6" s="1" t="s">
         <v>231</v>
       </c>
@@ -5488,11 +5539,11 @@
       <c r="L6" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="N6" s="12" t="s">
+      <c r="N6" s="11" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A7" s="1" t="s">
         <v>232</v>
       </c>
@@ -5520,11 +5571,11 @@
       <c r="L7" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="N7" s="12" t="s">
+      <c r="N7" s="11" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
         <v>233</v>
       </c>
@@ -5552,11 +5603,11 @@
       <c r="L8" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="N8" s="12" t="s">
+      <c r="N8" s="11" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
         <v>234</v>
       </c>
@@ -5581,11 +5632,11 @@
       <c r="L9" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="N9" s="12" t="s">
+      <c r="N9" s="11" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A10" s="1" t="s">
         <v>235</v>
       </c>
@@ -5599,7 +5650,7 @@
         <v>674</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>706</v>
@@ -5610,11 +5661,11 @@
       <c r="L10" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="N10" s="12" t="s">
+      <c r="N10" s="11" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A11" s="1" t="s">
         <v>236</v>
       </c>
@@ -5628,7 +5679,7 @@
         <v>307</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>328</v>
@@ -5639,11 +5690,11 @@
       <c r="L11" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="N11" s="12" t="s">
+      <c r="N11" s="11" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
         <v>237</v>
       </c>
@@ -5651,13 +5702,13 @@
         <v>651</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>308</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>707</v>
@@ -5668,11 +5719,11 @@
       <c r="L12" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="N12" s="12" t="s">
+      <c r="N12" s="11" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A13" s="1" t="s">
         <v>238</v>
       </c>
@@ -5680,7 +5731,7 @@
         <v>254</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>309</v>
@@ -5697,11 +5748,11 @@
       <c r="L13" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="N13" s="12" t="s">
+      <c r="N13" s="11" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A14" s="1" t="s">
         <v>239</v>
       </c>
@@ -5726,11 +5777,11 @@
       <c r="L14" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="N14" s="12" t="s">
+      <c r="N14" s="11" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
         <v>240</v>
       </c>
@@ -5744,19 +5795,19 @@
         <v>311</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="N15" s="12" t="s">
+      <c r="N15" s="11" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.5">
       <c r="A16" s="1" t="s">
         <v>241</v>
       </c>
@@ -5775,11 +5826,11 @@
       <c r="L16" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="N16" s="12" t="s">
+      <c r="N16" s="11" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A17" s="1" t="s">
         <v>242</v>
       </c>
@@ -5793,13 +5844,13 @@
         <v>313</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>774</v>
-      </c>
-      <c r="N17" s="12" t="s">
+        <v>773</v>
+      </c>
+      <c r="N17" s="11" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B18" s="1" t="s">
         <v>718</v>
       </c>
@@ -5810,13 +5861,13 @@
         <v>314</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>775</v>
-      </c>
-      <c r="N18" s="12" t="s">
+        <v>774</v>
+      </c>
+      <c r="N18" s="11" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B19" s="1" t="s">
         <v>257</v>
       </c>
@@ -5827,15 +5878,15 @@
         <v>315</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>776</v>
-      </c>
-      <c r="N19" s="12" t="s">
+        <v>775</v>
+      </c>
+      <c r="N19" s="11" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B20" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>290</v>
@@ -5844,15 +5895,15 @@
         <v>316</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>777</v>
-      </c>
-      <c r="N20" s="12" t="s">
+        <v>776</v>
+      </c>
+      <c r="N20" s="11" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B21" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>291</v>
@@ -5861,13 +5912,13 @@
         <v>675</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>778</v>
-      </c>
-      <c r="N21" s="12" t="s">
+        <v>777</v>
+      </c>
+      <c r="N21" s="11" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B22" s="1" t="s">
         <v>654</v>
       </c>
@@ -5880,11 +5931,11 @@
       <c r="K22" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="N22" s="12" t="s">
+      <c r="N22" s="11" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B23" s="1" t="s">
         <v>655</v>
       </c>
@@ -5897,11 +5948,11 @@
       <c r="K23" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="N23" s="12" t="s">
+      <c r="N23" s="11" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B24" s="1" t="s">
         <v>656</v>
       </c>
@@ -5914,11 +5965,11 @@
       <c r="K24" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="N24" s="12" t="s">
+      <c r="N24" s="11" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B25" s="1" t="s">
         <v>657</v>
       </c>
@@ -5931,13 +5982,13 @@
       <c r="K25" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="N25" s="12" t="s">
+      <c r="N25" s="11" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B26" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>295</v>
@@ -5946,15 +5997,15 @@
         <v>320</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>779</v>
-      </c>
-      <c r="N26" s="12" t="s">
+        <v>778</v>
+      </c>
+      <c r="N26" s="11" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B27" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>296</v>
@@ -5963,15 +6014,15 @@
         <v>321</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>780</v>
-      </c>
-      <c r="N27" s="12" t="s">
+        <v>779</v>
+      </c>
+      <c r="N27" s="11" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B28" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>297</v>
@@ -5980,12 +6031,12 @@
         <v>322</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.6">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B29" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>298</v>
@@ -5997,9 +6048,9 @@
         <v>385</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B30" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>299</v>
@@ -6011,9 +6062,9 @@
         <v>386</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B31" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>270</v>
@@ -6025,18 +6076,18 @@
         <v>387</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B32" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.6">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B33" s="1" t="s">
         <v>258</v>
       </c>
@@ -6047,7 +6098,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.6">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B34" s="1" t="s">
         <v>259</v>
       </c>
@@ -6058,7 +6109,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.6">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B35" s="1" t="s">
         <v>260</v>
       </c>
@@ -6069,7 +6120,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.6">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B36" s="1" t="s">
         <v>261</v>
       </c>
@@ -6080,7 +6131,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.6">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B37" s="1" t="s">
         <v>262</v>
       </c>
@@ -6091,7 +6142,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.6">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B38" s="1" t="s">
         <v>263</v>
       </c>
@@ -6102,7 +6153,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.6">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B39" s="1" t="s">
         <v>264</v>
       </c>
@@ -6110,7 +6161,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.6">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B40" s="1" t="s">
         <v>265</v>
       </c>
@@ -6118,7 +6169,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.6">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B41" s="1" t="s">
         <v>658</v>
       </c>
@@ -6126,7 +6177,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.6">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B42" s="1" t="s">
         <v>659</v>
       </c>
@@ -6134,7 +6185,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.6">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B43" s="1" t="s">
         <v>660</v>
       </c>
@@ -6142,7 +6193,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.6">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B44" s="1" t="s">
         <v>266</v>
       </c>
@@ -6150,31 +6201,31 @@
         <v>713</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.6">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B45" s="1" t="s">
         <v>661</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.6">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B46" s="1" t="s">
         <v>662</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.6">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B47" s="1" t="s">
         <v>663</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.6">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B48" s="1" t="s">
         <v>267</v>
       </c>
@@ -6182,7 +6233,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.6">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B49" s="1" t="s">
         <v>664</v>
       </c>
@@ -6190,7 +6241,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.6">
+    <row r="50" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B50" s="1" t="s">
         <v>665</v>
       </c>
@@ -6198,15 +6249,15 @@
         <v>716</v>
       </c>
     </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.6">
+    <row r="51" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B51" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="K51" s="1" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="52" spans="2:11" x14ac:dyDescent="0.6">
+    <row r="52" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B52" s="1" t="s">
         <v>268</v>
       </c>
@@ -6214,67 +6265,67 @@
         <v>299</v>
       </c>
     </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.6">
+    <row r="53" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B53" s="1" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.6">
+    <row r="54" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B54" s="1" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="55" spans="2:11" x14ac:dyDescent="0.6">
+    <row r="55" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B55" s="1" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="56" spans="2:11" x14ac:dyDescent="0.6">
+    <row r="56" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B56" s="1" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B57" s="1" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="57" spans="2:11" x14ac:dyDescent="0.6">
-      <c r="B57" s="1" t="s">
+    <row r="58" spans="2:11" x14ac:dyDescent="0.5">
+      <c r="B58" s="1" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="58" spans="2:11" x14ac:dyDescent="0.6">
-      <c r="B58" s="1" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="59" spans="2:11" x14ac:dyDescent="0.6">
+    <row r="59" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B59" s="1" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.6">
+    <row r="60" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B60" s="1" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="61" spans="2:11" x14ac:dyDescent="0.6">
+    <row r="61" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B61" s="1" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.6">
+    <row r="62" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B62" s="1" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.6">
+    <row r="63" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B63" s="1" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.6">
+    <row r="64" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B64" s="1" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.6">
+    <row r="65" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B65" s="1" t="s">
         <v>672</v>
       </c>
@@ -6295,162 +6346,160 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.6328125" defaultRowHeight="17.5" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="24.6640625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="27.36328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.36328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="1" customWidth="1"/>
-    <col min="4" max="4" width="43.08984375" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="24.6328125" style="1"/>
+    <col min="4" max="4" width="43.109375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="24.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A2" s="18" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A2" s="17" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A3" s="5" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A5" s="1" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A6" s="17" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A7" s="5" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A5" s="1" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A6" s="18" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A7" s="5" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A10" s="18" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A10" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="17" t="s">
         <v>556</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="17" t="s">
         <v>555</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="17" t="s">
         <v>410</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="17" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A11" s="21" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A11" s="20" t="s">
         <v>409</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>803</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>804</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>805</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A12" s="21">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>806</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A12" s="22">
-        <v>2</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>807</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="3" t="s">
         <v>808</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="F12" s="1" t="s">
         <v>809</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A13" s="22">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A13" s="21">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A14" s="22">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A14" s="21">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A15" s="22">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A15" s="21">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A16" s="22">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A16" s="21">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A17" s="22">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A17" s="21">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A18" s="22">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A18" s="21">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A19" s="22">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A19" s="21">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A20" s="22">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A20" s="21">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A22" s="1" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A23" s="18" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A23" s="17" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A24" s="7">
         <v>44909</v>
       </c>
@@ -6476,85 +6525,83 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="48.6328125" defaultRowHeight="17.5" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="48.6640625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="48.6328125" style="1"/>
-    <col min="2" max="2" width="61.6328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="34.36328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="27.6328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.453125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="48.6328125" style="1"/>
+    <col min="1" max="1" width="48.6640625" style="1"/>
+    <col min="2" max="2" width="61.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.44140625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="48.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A2" s="18" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A2" s="17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A3" s="4" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.6">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A6" s="18" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A6" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A7" s="22">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A7" s="21">
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A8" s="22">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A8" s="21">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A9" s="22">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A9" s="21">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A11" s="1" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A12" s="18" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A12" s="17" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A13" s="4" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.6">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
         <v>603</v>
       </c>
@@ -6568,281 +6615,281 @@
         <v>605</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A16" s="18" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A16" s="17" t="s">
         <v>598</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="17" t="s">
         <v>598</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="17" t="s">
         <v>600</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="17" t="s">
         <v>599</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A17" s="22">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A17" s="21">
         <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A18" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A19" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="87" x14ac:dyDescent="0.5">
+      <c r="A21" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A22" s="17" t="s">
+        <v>731</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A23" s="21">
+        <v>1</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>814</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>812</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A18" s="22">
+      <c r="C23" s="1" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A24" s="21">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A19" s="22">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A25" s="21">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="87.5" x14ac:dyDescent="0.6">
-      <c r="A21" s="1" t="s">
-        <v>730</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A22" s="18" t="s">
-        <v>732</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A23" s="22">
-        <v>1</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>815</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A24" s="22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A25" s="22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A27" s="1" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A28" s="19" t="s">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A28" s="18" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A29" s="4" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="52.2" x14ac:dyDescent="0.5">
+      <c r="A30" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A31" s="19" t="s">
+        <v>734</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>732</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A32" s="21">
+        <v>1</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="52.5" x14ac:dyDescent="0.6">
-      <c r="A30" s="1" t="s">
-        <v>728</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A31" s="20" t="s">
-        <v>735</v>
-      </c>
-      <c r="B31" s="20" t="s">
-        <v>733</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A32" s="22">
-        <v>1</v>
-      </c>
-      <c r="B32" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A33" s="22">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A33" s="21">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A34" s="22">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A34" s="21">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A36" s="1" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A37" s="20" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A37" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="19" t="s">
+      <c r="C37" s="18" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A38" s="22">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A38" s="21">
         <v>1</v>
       </c>
       <c r="B38" s="1">
         <v>25477381</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A39" s="22">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A39" s="21">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A40" s="22">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A40" s="21">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A42" s="1" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A43" s="19" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A43" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B43" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="C43" s="19" t="s">
+      <c r="B43" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D43" s="19" t="s">
+      <c r="D43" s="18" t="s">
         <v>376</v>
       </c>
-      <c r="E43" s="19" t="s">
+      <c r="E43" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A44" s="22">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A44" s="21">
         <v>1</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>819</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>820</v>
       </c>
       <c r="E44" s="1">
         <v>22129008</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A45" s="22">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A45" s="21">
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A46" s="22">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.5">
+      <c r="A46" s="21">
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A48" s="1" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A49" s="19" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A49" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B49" s="19" t="s">
+      <c r="B49" s="18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A50" s="22">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A50" s="21">
         <v>1</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A51" s="22">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A51" s="21">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A52" s="22">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A52" s="21">
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A54" s="1" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A55" s="19" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A55" s="18" t="s">
         <v>584</v>
       </c>
-      <c r="B55" s="19" t="s">
+      <c r="B55" s="18" t="s">
         <v>589</v>
       </c>
-      <c r="C55" s="19" t="s">
+      <c r="C55" s="18" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A56" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A57" s="22">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A56" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A57" s="21">
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.6">
-      <c r="A58" s="22">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.5">
+      <c r="A58" s="21">
         <v>3</v>
       </c>
     </row>
@@ -6878,778 +6925,1912 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:L102"/>
+  <dimension ref="A1:AD102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.90625" defaultRowHeight="17.5" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="24.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="24.90625" style="9"/>
-    <col min="2" max="2" width="24.90625" style="1"/>
-    <col min="3" max="4" width="24.90625" style="8"/>
-    <col min="5" max="6" width="24.90625" style="1"/>
-    <col min="7" max="7" width="49.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="24.90625" style="1"/>
+    <col min="1" max="1" width="24.88671875" style="9"/>
+    <col min="2" max="2" width="24.88671875" style="1"/>
+    <col min="3" max="4" width="24.88671875" style="8"/>
+    <col min="5" max="6" width="24.88671875" style="1"/>
+    <col min="7" max="7" width="49.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="24.88671875" style="1"/>
+    <col min="12" max="12" width="82.5546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="40.5546875" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="24.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="26.25" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:30" ht="34.799999999999997" x14ac:dyDescent="0.5">
+      <c r="A1" s="24" t="s">
         <v>439</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="24" t="s">
         <v>686</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="24" t="s">
         <v>438</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="24" t="s">
         <v>646</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="24" t="s">
         <v>566</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="24" t="s">
         <v>437</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="24" t="s">
         <v>644</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="24" t="s">
         <v>639</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="24" t="s">
         <v>642</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="24" t="s">
         <v>640</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="24" t="s">
         <v>641</v>
       </c>
-      <c r="L1" s="10" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A2" s="18" t="s">
+      <c r="L1" s="25" t="s">
+        <v>872</v>
+      </c>
+      <c r="M1" s="26" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.5">
+      <c r="A2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="27" t="s">
         <v>581</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="27" t="s">
         <v>582</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="27" t="s">
         <v>583</v>
       </c>
-      <c r="E2" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="18" t="s">
+      <c r="E2" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="27" t="s">
         <v>353</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="28" t="s">
         <v>643</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="28" t="s">
         <v>638</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="28" t="s">
         <v>637</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="28" t="s">
         <v>635</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="28" t="s">
         <v>636</v>
       </c>
-      <c r="L2" s="19" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A3" s="22" t="s">
+      <c r="L2" s="29" t="s">
+        <v>863</v>
+      </c>
+      <c r="M2" s="29" t="s">
+        <v>864</v>
+      </c>
+      <c r="N2" s="23" t="s">
+        <v>866</v>
+      </c>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="23"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.5">
+      <c r="A3" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="24" t="s">
+        <v>822</v>
+      </c>
+      <c r="C3" s="31" t="s">
         <v>823</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="D3" s="31" t="s">
         <v>824</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="E3" s="24" t="s">
         <v>825</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="24" t="s">
+        <v>825</v>
+      </c>
+      <c r="G3" s="24" t="s">
         <v>826</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="H3" s="24" t="s">
+        <v>827</v>
+      </c>
+      <c r="I3" s="24" t="s">
+        <v>828</v>
+      </c>
+      <c r="J3" s="24" t="s">
+        <v>829</v>
+      </c>
+      <c r="K3" s="24" t="s">
+        <v>830</v>
+      </c>
+      <c r="L3" s="24">
+        <v>37</v>
+      </c>
+      <c r="M3" s="24" t="s">
+        <v>865</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.5">
+      <c r="A4" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>831</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>832</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>833</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>834</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>834</v>
+      </c>
+      <c r="G4" s="24" t="s">
         <v>826</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H4" s="24" t="s">
         <v>827</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I4" s="24" t="s">
         <v>828</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J4" s="24" t="s">
         <v>829</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K4" s="24" t="s">
         <v>830</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>831</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A4" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="L4" s="24" t="s">
+        <v>873</v>
+      </c>
+      <c r="M4" s="24" t="s">
+        <v>865</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.5">
+      <c r="A5" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>868</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>869</v>
+      </c>
+      <c r="D5" s="31" t="s">
         <v>833</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>834</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>835</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>836</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>836</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="E5" s="24" t="s">
+        <v>870</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>870</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>826</v>
+      </c>
+      <c r="H5" s="24" t="s">
         <v>827</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I5" s="24" t="s">
         <v>828</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J5" s="24" t="s">
         <v>829</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K5" s="24" t="s">
         <v>830</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>831</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A5" s="22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A6" s="22" t="s">
+      <c r="L5" s="24" t="s">
+        <v>871</v>
+      </c>
+      <c r="M5" s="24" t="s">
+        <v>865</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.5">
+      <c r="A6" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A7" s="22" t="s">
+      <c r="B6" s="24"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.5">
+      <c r="A7" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A8" s="22" t="s">
+      <c r="B7" s="24"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.5">
+      <c r="A8" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A9" s="22" t="s">
+      <c r="B8" s="24"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.5">
+      <c r="A9" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A10" s="22" t="s">
+      <c r="B9" s="24"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.5">
+      <c r="A10" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A11" s="22" t="s">
+      <c r="B10" s="24"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.5">
+      <c r="A11" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A12" s="22" t="s">
+      <c r="B11" s="24"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.5">
+      <c r="A12" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A13" s="22" t="s">
+      <c r="B12" s="24"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.5">
+      <c r="A13" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A14" s="22" t="s">
+      <c r="B13" s="24"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.5">
+      <c r="A14" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A15" s="22" t="s">
+      <c r="B14" s="24"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.5">
+      <c r="A15" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.6">
-      <c r="A16" s="22" t="s">
+      <c r="B15" s="24"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.5">
+      <c r="A16" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A17" s="22" t="s">
+      <c r="B16" s="24"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A17" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A18" s="22" t="s">
+      <c r="B17" s="24"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A18" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A19" s="22" t="s">
+      <c r="B18" s="24"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A19" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A20" s="22" t="s">
+      <c r="B19" s="24"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A20" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A21" s="22" t="s">
+      <c r="B20" s="24"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A21" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A22" s="22" t="s">
+      <c r="B21" s="24"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A22" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A23" s="22" t="s">
+      <c r="B22" s="24"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A23" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A24" s="22" t="s">
+      <c r="B23" s="24"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A24" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A25" s="22" t="s">
+      <c r="B24" s="24"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A25" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A26" s="22" t="s">
+      <c r="B25" s="24"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A26" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A27" s="22" t="s">
+      <c r="B26" s="24"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A27" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A28" s="22" t="s">
+      <c r="B27" s="24"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A28" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A29" s="22" t="s">
+      <c r="B28" s="24"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A29" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A30" s="22" t="s">
+      <c r="B29" s="24"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A30" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A31" s="22" t="s">
+      <c r="B30" s="24"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A31" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A32" s="22" t="s">
+      <c r="B31" s="24"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="24"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A32" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A33" s="22" t="s">
+      <c r="B32" s="24"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="24"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A33" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A34" s="22" t="s">
+      <c r="B33" s="24"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="24"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A34" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A35" s="22" t="s">
+      <c r="B34" s="24"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="24"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A35" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A36" s="22" t="s">
+      <c r="B35" s="24"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="24"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A36" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A37" s="22" t="s">
+      <c r="B36" s="24"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="24"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A37" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A38" s="22" t="s">
+      <c r="B37" s="24"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="24"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A38" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A39" s="22" t="s">
+      <c r="B38" s="24"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="24"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A39" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A40" s="22" t="s">
+      <c r="B39" s="24"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="24"/>
+      <c r="M39" s="24"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A40" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A41" s="22" t="s">
+      <c r="B40" s="24"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="24"/>
+      <c r="M40" s="24"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A41" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A42" s="22" t="s">
+      <c r="B41" s="24"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="24"/>
+      <c r="J41" s="24"/>
+      <c r="K41" s="24"/>
+      <c r="L41" s="24"/>
+      <c r="M41" s="24"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A42" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A43" s="22" t="s">
+      <c r="B42" s="24"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="24"/>
+      <c r="J42" s="24"/>
+      <c r="K42" s="24"/>
+      <c r="L42" s="24"/>
+      <c r="M42" s="24"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A43" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A44" s="22" t="s">
+      <c r="B43" s="24"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="24"/>
+      <c r="M43" s="24"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A44" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A45" s="22" t="s">
+      <c r="B44" s="24"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="24"/>
+      <c r="K44" s="24"/>
+      <c r="L44" s="24"/>
+      <c r="M44" s="24"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A45" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A46" s="22" t="s">
+      <c r="B45" s="24"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="24"/>
+      <c r="J45" s="24"/>
+      <c r="K45" s="24"/>
+      <c r="L45" s="24"/>
+      <c r="M45" s="24"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A46" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A47" s="22" t="s">
+      <c r="B46" s="24"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="24"/>
+      <c r="J46" s="24"/>
+      <c r="K46" s="24"/>
+      <c r="L46" s="24"/>
+      <c r="M46" s="24"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A47" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A48" s="22" t="s">
+      <c r="B47" s="24"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="24"/>
+      <c r="J47" s="24"/>
+      <c r="K47" s="24"/>
+      <c r="L47" s="24"/>
+      <c r="M47" s="24"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A48" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A49" s="22" t="s">
+      <c r="B48" s="24"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="24"/>
+      <c r="J48" s="24"/>
+      <c r="K48" s="24"/>
+      <c r="L48" s="24"/>
+      <c r="M48" s="24"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A49" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A50" s="22" t="s">
+      <c r="B49" s="24"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="24"/>
+      <c r="J49" s="24"/>
+      <c r="K49" s="24"/>
+      <c r="L49" s="24"/>
+      <c r="M49" s="24"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A50" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A51" s="22" t="s">
+      <c r="B50" s="24"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="24"/>
+      <c r="I50" s="24"/>
+      <c r="J50" s="24"/>
+      <c r="K50" s="24"/>
+      <c r="L50" s="24"/>
+      <c r="M50" s="24"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A51" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A52" s="22" t="s">
+      <c r="B51" s="24"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="24"/>
+      <c r="J51" s="24"/>
+      <c r="K51" s="24"/>
+      <c r="L51" s="24"/>
+      <c r="M51" s="24"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A52" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A53" s="22" t="s">
+      <c r="B52" s="24"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="24"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="24"/>
+      <c r="J52" s="24"/>
+      <c r="K52" s="24"/>
+      <c r="L52" s="24"/>
+      <c r="M52" s="24"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A53" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A54" s="22" t="s">
+      <c r="B53" s="24"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="24"/>
+      <c r="H53" s="24"/>
+      <c r="I53" s="24"/>
+      <c r="J53" s="24"/>
+      <c r="K53" s="24"/>
+      <c r="L53" s="24"/>
+      <c r="M53" s="24"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A54" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A55" s="22" t="s">
+      <c r="B54" s="24"/>
+      <c r="C54" s="31"/>
+      <c r="D54" s="31"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="24"/>
+      <c r="H54" s="24"/>
+      <c r="I54" s="24"/>
+      <c r="J54" s="24"/>
+      <c r="K54" s="24"/>
+      <c r="L54" s="24"/>
+      <c r="M54" s="24"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A55" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A56" s="22" t="s">
+      <c r="B55" s="24"/>
+      <c r="C55" s="31"/>
+      <c r="D55" s="31"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="24"/>
+      <c r="H55" s="24"/>
+      <c r="I55" s="24"/>
+      <c r="J55" s="24"/>
+      <c r="K55" s="24"/>
+      <c r="L55" s="24"/>
+      <c r="M55" s="24"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A56" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A57" s="22" t="s">
+      <c r="B56" s="24"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="24"/>
+      <c r="H56" s="24"/>
+      <c r="I56" s="24"/>
+      <c r="J56" s="24"/>
+      <c r="K56" s="24"/>
+      <c r="L56" s="24"/>
+      <c r="M56" s="24"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A57" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A58" s="22" t="s">
+      <c r="B57" s="24"/>
+      <c r="C57" s="31"/>
+      <c r="D57" s="31"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="24"/>
+      <c r="H57" s="24"/>
+      <c r="I57" s="24"/>
+      <c r="J57" s="24"/>
+      <c r="K57" s="24"/>
+      <c r="L57" s="24"/>
+      <c r="M57" s="24"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A58" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A59" s="22" t="s">
+      <c r="B58" s="24"/>
+      <c r="C58" s="31"/>
+      <c r="D58" s="31"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="24"/>
+      <c r="G58" s="24"/>
+      <c r="H58" s="24"/>
+      <c r="I58" s="24"/>
+      <c r="J58" s="24"/>
+      <c r="K58" s="24"/>
+      <c r="L58" s="24"/>
+      <c r="M58" s="24"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A59" s="30" t="s">
         <v>72</v>
       </c>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A60" s="22" t="s">
+      <c r="B59" s="24"/>
+      <c r="C59" s="31"/>
+      <c r="D59" s="31"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="24"/>
+      <c r="G59" s="24"/>
+      <c r="H59" s="24"/>
+      <c r="I59" s="24"/>
+      <c r="J59" s="24"/>
+      <c r="K59" s="24"/>
+      <c r="L59" s="24"/>
+      <c r="M59" s="24"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A60" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A61" s="22" t="s">
+      <c r="B60" s="24"/>
+      <c r="C60" s="31"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="24"/>
+      <c r="F60" s="24"/>
+      <c r="G60" s="24"/>
+      <c r="H60" s="24"/>
+      <c r="I60" s="24"/>
+      <c r="J60" s="24"/>
+      <c r="K60" s="24"/>
+      <c r="L60" s="24"/>
+      <c r="M60" s="24"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A61" s="30" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A62" s="22" t="s">
+      <c r="B61" s="24"/>
+      <c r="C61" s="32"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="24"/>
+      <c r="F61" s="24"/>
+      <c r="G61" s="24"/>
+      <c r="H61" s="24"/>
+      <c r="I61" s="24"/>
+      <c r="J61" s="24"/>
+      <c r="K61" s="24"/>
+      <c r="L61" s="24"/>
+      <c r="M61" s="24"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A62" s="30" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A63" s="22" t="s">
+      <c r="B62" s="24"/>
+      <c r="C62" s="32"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="24"/>
+      <c r="G62" s="24"/>
+      <c r="H62" s="24"/>
+      <c r="I62" s="24"/>
+      <c r="J62" s="24"/>
+      <c r="K62" s="24"/>
+      <c r="L62" s="24"/>
+      <c r="M62" s="24"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A63" s="30" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.6">
-      <c r="A64" s="22" t="s">
+      <c r="B63" s="24"/>
+      <c r="C63" s="32"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="24"/>
+      <c r="F63" s="24"/>
+      <c r="G63" s="24"/>
+      <c r="H63" s="24"/>
+      <c r="I63" s="24"/>
+      <c r="J63" s="24"/>
+      <c r="K63" s="24"/>
+      <c r="L63" s="24"/>
+      <c r="M63" s="24"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A64" s="30" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A65" s="22" t="s">
+      <c r="B64" s="24"/>
+      <c r="C64" s="32"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="24"/>
+      <c r="F64" s="24"/>
+      <c r="G64" s="24"/>
+      <c r="H64" s="24"/>
+      <c r="I64" s="24"/>
+      <c r="J64" s="24"/>
+      <c r="K64" s="24"/>
+      <c r="L64" s="24"/>
+      <c r="M64" s="24"/>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A65" s="30" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A66" s="22" t="s">
+      <c r="B65" s="24"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="24"/>
+      <c r="F65" s="24"/>
+      <c r="G65" s="24"/>
+      <c r="H65" s="24"/>
+      <c r="I65" s="24"/>
+      <c r="J65" s="24"/>
+      <c r="K65" s="24"/>
+      <c r="L65" s="24"/>
+      <c r="M65" s="24"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A66" s="30" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A67" s="22" t="s">
+      <c r="B66" s="24"/>
+      <c r="C66" s="32"/>
+      <c r="D66" s="32"/>
+      <c r="E66" s="24"/>
+      <c r="F66" s="24"/>
+      <c r="G66" s="24"/>
+      <c r="H66" s="24"/>
+      <c r="I66" s="24"/>
+      <c r="J66" s="24"/>
+      <c r="K66" s="24"/>
+      <c r="L66" s="24"/>
+      <c r="M66" s="24"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A67" s="30" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A68" s="22" t="s">
+      <c r="B67" s="24"/>
+      <c r="C67" s="32"/>
+      <c r="D67" s="32"/>
+      <c r="E67" s="24"/>
+      <c r="F67" s="24"/>
+      <c r="G67" s="24"/>
+      <c r="H67" s="24"/>
+      <c r="I67" s="24"/>
+      <c r="J67" s="24"/>
+      <c r="K67" s="24"/>
+      <c r="L67" s="24"/>
+      <c r="M67" s="24"/>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A68" s="30" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A69" s="22" t="s">
+      <c r="B68" s="24"/>
+      <c r="C68" s="32"/>
+      <c r="D68" s="32"/>
+      <c r="E68" s="24"/>
+      <c r="F68" s="24"/>
+      <c r="G68" s="24"/>
+      <c r="H68" s="24"/>
+      <c r="I68" s="24"/>
+      <c r="J68" s="24"/>
+      <c r="K68" s="24"/>
+      <c r="L68" s="24"/>
+      <c r="M68" s="24"/>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A69" s="30" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A70" s="22" t="s">
+      <c r="B69" s="24"/>
+      <c r="C69" s="32"/>
+      <c r="D69" s="32"/>
+      <c r="E69" s="24"/>
+      <c r="F69" s="24"/>
+      <c r="G69" s="24"/>
+      <c r="H69" s="24"/>
+      <c r="I69" s="24"/>
+      <c r="J69" s="24"/>
+      <c r="K69" s="24"/>
+      <c r="L69" s="24"/>
+      <c r="M69" s="24"/>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A70" s="30" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A71" s="22" t="s">
+      <c r="B70" s="24"/>
+      <c r="C70" s="32"/>
+      <c r="D70" s="32"/>
+      <c r="E70" s="24"/>
+      <c r="F70" s="24"/>
+      <c r="G70" s="24"/>
+      <c r="H70" s="24"/>
+      <c r="I70" s="24"/>
+      <c r="J70" s="24"/>
+      <c r="K70" s="24"/>
+      <c r="L70" s="24"/>
+      <c r="M70" s="24"/>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A71" s="30" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A72" s="22" t="s">
+      <c r="B71" s="24"/>
+      <c r="C71" s="32"/>
+      <c r="D71" s="32"/>
+      <c r="E71" s="24"/>
+      <c r="F71" s="24"/>
+      <c r="G71" s="24"/>
+      <c r="H71" s="24"/>
+      <c r="I71" s="24"/>
+      <c r="J71" s="24"/>
+      <c r="K71" s="24"/>
+      <c r="L71" s="24"/>
+      <c r="M71" s="24"/>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A72" s="30" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A73" s="22" t="s">
+      <c r="B72" s="24"/>
+      <c r="C72" s="32"/>
+      <c r="D72" s="32"/>
+      <c r="E72" s="24"/>
+      <c r="F72" s="24"/>
+      <c r="G72" s="24"/>
+      <c r="H72" s="24"/>
+      <c r="I72" s="24"/>
+      <c r="J72" s="24"/>
+      <c r="K72" s="24"/>
+      <c r="L72" s="24"/>
+      <c r="M72" s="24"/>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A73" s="30" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A74" s="22" t="s">
+      <c r="B73" s="24"/>
+      <c r="C73" s="32"/>
+      <c r="D73" s="32"/>
+      <c r="E73" s="24"/>
+      <c r="F73" s="24"/>
+      <c r="G73" s="24"/>
+      <c r="H73" s="24"/>
+      <c r="I73" s="24"/>
+      <c r="J73" s="24"/>
+      <c r="K73" s="24"/>
+      <c r="L73" s="24"/>
+      <c r="M73" s="24"/>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A74" s="30" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A75" s="22" t="s">
+      <c r="B74" s="24"/>
+      <c r="C74" s="32"/>
+      <c r="D74" s="32"/>
+      <c r="E74" s="24"/>
+      <c r="F74" s="24"/>
+      <c r="G74" s="24"/>
+      <c r="H74" s="24"/>
+      <c r="I74" s="24"/>
+      <c r="J74" s="24"/>
+      <c r="K74" s="24"/>
+      <c r="L74" s="24"/>
+      <c r="M74" s="24"/>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A75" s="30" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A76" s="22" t="s">
+      <c r="B75" s="24"/>
+      <c r="C75" s="32"/>
+      <c r="D75" s="32"/>
+      <c r="E75" s="24"/>
+      <c r="F75" s="24"/>
+      <c r="G75" s="24"/>
+      <c r="H75" s="24"/>
+      <c r="I75" s="24"/>
+      <c r="J75" s="24"/>
+      <c r="K75" s="24"/>
+      <c r="L75" s="24"/>
+      <c r="M75" s="24"/>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A76" s="30" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A77" s="22" t="s">
+      <c r="B76" s="24"/>
+      <c r="C76" s="32"/>
+      <c r="D76" s="32"/>
+      <c r="E76" s="24"/>
+      <c r="F76" s="24"/>
+      <c r="G76" s="24"/>
+      <c r="H76" s="24"/>
+      <c r="I76" s="24"/>
+      <c r="J76" s="24"/>
+      <c r="K76" s="24"/>
+      <c r="L76" s="24"/>
+      <c r="M76" s="24"/>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A77" s="30" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A78" s="22" t="s">
+      <c r="B77" s="24"/>
+      <c r="C77" s="32"/>
+      <c r="D77" s="32"/>
+      <c r="E77" s="24"/>
+      <c r="F77" s="24"/>
+      <c r="G77" s="24"/>
+      <c r="H77" s="24"/>
+      <c r="I77" s="24"/>
+      <c r="J77" s="24"/>
+      <c r="K77" s="24"/>
+      <c r="L77" s="24"/>
+      <c r="M77" s="24"/>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A78" s="30" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A79" s="22" t="s">
+      <c r="B78" s="24"/>
+      <c r="C78" s="32"/>
+      <c r="D78" s="32"/>
+      <c r="E78" s="24"/>
+      <c r="F78" s="24"/>
+      <c r="G78" s="24"/>
+      <c r="H78" s="24"/>
+      <c r="I78" s="24"/>
+      <c r="J78" s="24"/>
+      <c r="K78" s="24"/>
+      <c r="L78" s="24"/>
+      <c r="M78" s="24"/>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A79" s="30" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A80" s="22" t="s">
+      <c r="B79" s="24"/>
+      <c r="C79" s="32"/>
+      <c r="D79" s="32"/>
+      <c r="E79" s="24"/>
+      <c r="F79" s="24"/>
+      <c r="G79" s="24"/>
+      <c r="H79" s="24"/>
+      <c r="I79" s="24"/>
+      <c r="J79" s="24"/>
+      <c r="K79" s="24"/>
+      <c r="L79" s="24"/>
+      <c r="M79" s="24"/>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A80" s="30" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A81" s="22" t="s">
+      <c r="B80" s="24"/>
+      <c r="C80" s="32"/>
+      <c r="D80" s="32"/>
+      <c r="E80" s="24"/>
+      <c r="F80" s="24"/>
+      <c r="G80" s="24"/>
+      <c r="H80" s="24"/>
+      <c r="I80" s="24"/>
+      <c r="J80" s="24"/>
+      <c r="K80" s="24"/>
+      <c r="L80" s="24"/>
+      <c r="M80" s="24"/>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A81" s="30" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A82" s="22" t="s">
+      <c r="B81" s="24"/>
+      <c r="C81" s="32"/>
+      <c r="D81" s="32"/>
+      <c r="E81" s="24"/>
+      <c r="F81" s="24"/>
+      <c r="G81" s="24"/>
+      <c r="H81" s="24"/>
+      <c r="I81" s="24"/>
+      <c r="J81" s="24"/>
+      <c r="K81" s="24"/>
+      <c r="L81" s="24"/>
+      <c r="M81" s="24"/>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A82" s="30" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A83" s="22" t="s">
+      <c r="B82" s="24"/>
+      <c r="C82" s="32"/>
+      <c r="D82" s="32"/>
+      <c r="E82" s="24"/>
+      <c r="F82" s="24"/>
+      <c r="G82" s="24"/>
+      <c r="H82" s="24"/>
+      <c r="I82" s="24"/>
+      <c r="J82" s="24"/>
+      <c r="K82" s="24"/>
+      <c r="L82" s="24"/>
+      <c r="M82" s="24"/>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A83" s="30" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A84" s="22" t="s">
+      <c r="B83" s="24"/>
+      <c r="C83" s="32"/>
+      <c r="D83" s="32"/>
+      <c r="E83" s="24"/>
+      <c r="F83" s="24"/>
+      <c r="G83" s="24"/>
+      <c r="H83" s="24"/>
+      <c r="I83" s="24"/>
+      <c r="J83" s="24"/>
+      <c r="K83" s="24"/>
+      <c r="L83" s="24"/>
+      <c r="M83" s="24"/>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A84" s="30" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A85" s="22" t="s">
+      <c r="B84" s="24"/>
+      <c r="C84" s="32"/>
+      <c r="D84" s="32"/>
+      <c r="E84" s="24"/>
+      <c r="F84" s="24"/>
+      <c r="G84" s="24"/>
+      <c r="H84" s="24"/>
+      <c r="I84" s="24"/>
+      <c r="J84" s="24"/>
+      <c r="K84" s="24"/>
+      <c r="L84" s="24"/>
+      <c r="M84" s="24"/>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A85" s="30" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A86" s="22" t="s">
+      <c r="B85" s="24"/>
+      <c r="C85" s="32"/>
+      <c r="D85" s="32"/>
+      <c r="E85" s="24"/>
+      <c r="F85" s="24"/>
+      <c r="G85" s="24"/>
+      <c r="H85" s="24"/>
+      <c r="I85" s="24"/>
+      <c r="J85" s="24"/>
+      <c r="K85" s="24"/>
+      <c r="L85" s="24"/>
+      <c r="M85" s="24"/>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A86" s="30" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A87" s="22" t="s">
+      <c r="B86" s="24"/>
+      <c r="C86" s="32"/>
+      <c r="D86" s="32"/>
+      <c r="E86" s="24"/>
+      <c r="F86" s="24"/>
+      <c r="G86" s="24"/>
+      <c r="H86" s="24"/>
+      <c r="I86" s="24"/>
+      <c r="J86" s="24"/>
+      <c r="K86" s="24"/>
+      <c r="L86" s="24"/>
+      <c r="M86" s="24"/>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A87" s="30" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A88" s="22" t="s">
+      <c r="B87" s="24"/>
+      <c r="C87" s="32"/>
+      <c r="D87" s="32"/>
+      <c r="E87" s="24"/>
+      <c r="F87" s="24"/>
+      <c r="G87" s="24"/>
+      <c r="H87" s="24"/>
+      <c r="I87" s="24"/>
+      <c r="J87" s="24"/>
+      <c r="K87" s="24"/>
+      <c r="L87" s="24"/>
+      <c r="M87" s="24"/>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A88" s="30" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A89" s="22" t="s">
+      <c r="B88" s="24"/>
+      <c r="C88" s="32"/>
+      <c r="D88" s="32"/>
+      <c r="E88" s="24"/>
+      <c r="F88" s="24"/>
+      <c r="G88" s="24"/>
+      <c r="H88" s="24"/>
+      <c r="I88" s="24"/>
+      <c r="J88" s="24"/>
+      <c r="K88" s="24"/>
+      <c r="L88" s="24"/>
+      <c r="M88" s="24"/>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A89" s="30" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A90" s="22" t="s">
+      <c r="B89" s="24"/>
+      <c r="C89" s="32"/>
+      <c r="D89" s="32"/>
+      <c r="E89" s="24"/>
+      <c r="F89" s="24"/>
+      <c r="G89" s="24"/>
+      <c r="H89" s="24"/>
+      <c r="I89" s="24"/>
+      <c r="J89" s="24"/>
+      <c r="K89" s="24"/>
+      <c r="L89" s="24"/>
+      <c r="M89" s="24"/>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A90" s="30" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A91" s="22" t="s">
+      <c r="B90" s="24"/>
+      <c r="C90" s="32"/>
+      <c r="D90" s="32"/>
+      <c r="E90" s="24"/>
+      <c r="F90" s="24"/>
+      <c r="G90" s="24"/>
+      <c r="H90" s="24"/>
+      <c r="I90" s="24"/>
+      <c r="J90" s="24"/>
+      <c r="K90" s="24"/>
+      <c r="L90" s="24"/>
+      <c r="M90" s="24"/>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A91" s="30" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A92" s="22" t="s">
+      <c r="B91" s="24"/>
+      <c r="C91" s="32"/>
+      <c r="D91" s="32"/>
+      <c r="E91" s="24"/>
+      <c r="F91" s="24"/>
+      <c r="G91" s="24"/>
+      <c r="H91" s="24"/>
+      <c r="I91" s="24"/>
+      <c r="J91" s="24"/>
+      <c r="K91" s="24"/>
+      <c r="L91" s="24"/>
+      <c r="M91" s="24"/>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A92" s="30" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A93" s="22" t="s">
+      <c r="B92" s="24"/>
+      <c r="C92" s="32"/>
+      <c r="D92" s="32"/>
+      <c r="E92" s="24"/>
+      <c r="F92" s="24"/>
+      <c r="G92" s="24"/>
+      <c r="H92" s="24"/>
+      <c r="I92" s="24"/>
+      <c r="J92" s="24"/>
+      <c r="K92" s="24"/>
+      <c r="L92" s="24"/>
+      <c r="M92" s="24"/>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A93" s="30" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A94" s="22" t="s">
+      <c r="B93" s="24"/>
+      <c r="C93" s="32"/>
+      <c r="D93" s="32"/>
+      <c r="E93" s="24"/>
+      <c r="F93" s="24"/>
+      <c r="G93" s="24"/>
+      <c r="H93" s="24"/>
+      <c r="I93" s="24"/>
+      <c r="J93" s="24"/>
+      <c r="K93" s="24"/>
+      <c r="L93" s="24"/>
+      <c r="M93" s="24"/>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A94" s="30" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A95" s="22" t="s">
+      <c r="B94" s="24"/>
+      <c r="C94" s="32"/>
+      <c r="D94" s="32"/>
+      <c r="E94" s="24"/>
+      <c r="F94" s="24"/>
+      <c r="G94" s="24"/>
+      <c r="H94" s="24"/>
+      <c r="I94" s="24"/>
+      <c r="J94" s="24"/>
+      <c r="K94" s="24"/>
+      <c r="L94" s="24"/>
+      <c r="M94" s="24"/>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A95" s="30" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A96" s="22" t="s">
+      <c r="B95" s="24"/>
+      <c r="C95" s="32"/>
+      <c r="D95" s="32"/>
+      <c r="E95" s="24"/>
+      <c r="F95" s="24"/>
+      <c r="G95" s="24"/>
+      <c r="H95" s="24"/>
+      <c r="I95" s="24"/>
+      <c r="J95" s="24"/>
+      <c r="K95" s="24"/>
+      <c r="L95" s="24"/>
+      <c r="M95" s="24"/>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A96" s="30" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A97" s="22" t="s">
+      <c r="B96" s="24"/>
+      <c r="C96" s="32"/>
+      <c r="D96" s="32"/>
+      <c r="E96" s="24"/>
+      <c r="F96" s="24"/>
+      <c r="G96" s="24"/>
+      <c r="H96" s="24"/>
+      <c r="I96" s="24"/>
+      <c r="J96" s="24"/>
+      <c r="K96" s="24"/>
+      <c r="L96" s="24"/>
+      <c r="M96" s="24"/>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A97" s="30" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A98" s="22" t="s">
+      <c r="B97" s="24"/>
+      <c r="C97" s="32"/>
+      <c r="D97" s="32"/>
+      <c r="E97" s="24"/>
+      <c r="F97" s="24"/>
+      <c r="G97" s="24"/>
+      <c r="H97" s="24"/>
+      <c r="I97" s="24"/>
+      <c r="J97" s="24"/>
+      <c r="K97" s="24"/>
+      <c r="L97" s="24"/>
+      <c r="M97" s="24"/>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A98" s="30" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A99" s="22" t="s">
+      <c r="B98" s="24"/>
+      <c r="C98" s="32"/>
+      <c r="D98" s="32"/>
+      <c r="E98" s="24"/>
+      <c r="F98" s="24"/>
+      <c r="G98" s="24"/>
+      <c r="H98" s="24"/>
+      <c r="I98" s="24"/>
+      <c r="J98" s="24"/>
+      <c r="K98" s="24"/>
+      <c r="L98" s="24"/>
+      <c r="M98" s="24"/>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A99" s="30" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A100" s="22" t="s">
+      <c r="B99" s="24"/>
+      <c r="C99" s="32"/>
+      <c r="D99" s="32"/>
+      <c r="E99" s="24"/>
+      <c r="F99" s="24"/>
+      <c r="G99" s="24"/>
+      <c r="H99" s="24"/>
+      <c r="I99" s="24"/>
+      <c r="J99" s="24"/>
+      <c r="K99" s="24"/>
+      <c r="L99" s="24"/>
+      <c r="M99" s="24"/>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A100" s="30" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A101" s="22" t="s">
+      <c r="B100" s="24"/>
+      <c r="C100" s="32"/>
+      <c r="D100" s="32"/>
+      <c r="E100" s="24"/>
+      <c r="F100" s="24"/>
+      <c r="G100" s="24"/>
+      <c r="H100" s="24"/>
+      <c r="I100" s="24"/>
+      <c r="J100" s="24"/>
+      <c r="K100" s="24"/>
+      <c r="L100" s="24"/>
+      <c r="M100" s="24"/>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A101" s="30" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A102" s="22" t="s">
+      <c r="B101" s="24"/>
+      <c r="C101" s="32"/>
+      <c r="D101" s="32"/>
+      <c r="E101" s="24"/>
+      <c r="F101" s="24"/>
+      <c r="G101" s="24"/>
+      <c r="H101" s="24"/>
+      <c r="I101" s="24"/>
+      <c r="J101" s="24"/>
+      <c r="K101" s="24"/>
+      <c r="L101" s="24"/>
+      <c r="M101" s="24"/>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="A102" s="30" t="s">
         <v>115</v>
       </c>
+      <c r="B102" s="24"/>
+      <c r="C102" s="32"/>
+      <c r="D102" s="32"/>
+      <c r="E102" s="24"/>
+      <c r="F102" s="24"/>
+      <c r="G102" s="24"/>
+      <c r="H102" s="24"/>
+      <c r="I102" s="24"/>
+      <c r="J102" s="24"/>
+      <c r="K102" s="24"/>
+      <c r="L102" s="24"/>
+      <c r="M102" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="M1" r:id="rId1" location="gid=1631495971" display="Sample の記入例" xr:uid="{2A7865C0-5259-4BDE-AA91-872D7C30E5A3}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -7662,39 +8843,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q102"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="17.5" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="36.08984375" style="9" customWidth="1"/>
-    <col min="2" max="2" width="59.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.6328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="34.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="40.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="44.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.109375" style="9" customWidth="1"/>
+    <col min="2" max="2" width="59.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="34.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="40.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="44.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="47" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="38.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="39.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="38.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="39.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="40.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="36.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="30.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="20.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="8.90625" style="1"/>
+    <col min="14" max="14" width="38.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="39.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="38.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="39.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="40.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="36.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>440</v>
       </c>
@@ -7728,83 +8907,83 @@
       <c r="K1" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="33" t="s">
         <v>568</v>
       </c>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.6">
-      <c r="A2" s="18" t="s">
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="18" t="s">
+      <c r="C2" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>592</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="17" t="s">
         <v>217</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="K2" s="17" t="s">
         <v>558</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="L2" s="17" t="s">
         <v>413</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="M2" s="18" t="s">
         <v>571</v>
       </c>
-      <c r="N2" s="18" t="s">
+      <c r="N2" s="17" t="s">
         <v>414</v>
       </c>
-      <c r="O2" s="18" t="s">
+      <c r="O2" s="17" t="s">
         <v>415</v>
       </c>
-      <c r="P2" s="18" t="s">
+      <c r="P2" s="17" t="s">
         <v>416</v>
       </c>
-      <c r="Q2" s="18" t="s">
+      <c r="Q2" s="17" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.6">
-      <c r="A3" s="22" t="s">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A3" s="21" t="s">
         <v>116</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>271</v>
@@ -7819,10 +8998,10 @@
         <v>302</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="L3" s="1">
         <v>200</v>
@@ -7834,27 +9013,27 @@
         <v>1</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="Q3" s="1">
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.6">
-      <c r="A4" s="22" t="s">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A4" s="21" t="s">
         <v>117</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>271</v>
@@ -7869,10 +9048,10 @@
         <v>302</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="L4" s="1">
         <v>200</v>
@@ -7884,14 +9063,14 @@
         <v>1</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="Q4" s="1">
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.6">
-      <c r="A5" s="22" t="s">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A5" s="21" t="s">
         <v>118</v>
       </c>
       <c r="N5" s="1" t="s">
@@ -7901,8 +9080,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.6">
-      <c r="A6" s="22" t="s">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A6" s="21" t="s">
         <v>119</v>
       </c>
       <c r="N6" s="1" t="s">
@@ -7912,8 +9091,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.6">
-      <c r="A7" s="22" t="s">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A7" s="21" t="s">
         <v>120</v>
       </c>
       <c r="N7" s="1" t="s">
@@ -7923,8 +9102,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.6">
-      <c r="A8" s="22" t="s">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A8" s="21" t="s">
         <v>121</v>
       </c>
       <c r="N8" s="1" t="s">
@@ -7934,8 +9113,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.6">
-      <c r="A9" s="22" t="s">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A9" s="21" t="s">
         <v>122</v>
       </c>
       <c r="N9" s="1" t="s">
@@ -7945,8 +9124,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.6">
-      <c r="A10" s="22" t="s">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A10" s="21" t="s">
         <v>123</v>
       </c>
       <c r="N10" s="1" t="s">
@@ -7956,8 +9135,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.6">
-      <c r="A11" s="22" t="s">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A11" s="21" t="s">
         <v>124</v>
       </c>
       <c r="N11" s="1" t="s">
@@ -7967,8 +9146,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.6">
-      <c r="A12" s="22" t="s">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A12" s="21" t="s">
         <v>125</v>
       </c>
       <c r="N12" s="1" t="s">
@@ -7978,8 +9157,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.6">
-      <c r="A13" s="22" t="s">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A13" s="21" t="s">
         <v>126</v>
       </c>
       <c r="N13" s="1" t="s">
@@ -7989,8 +9168,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.6">
-      <c r="A14" s="22" t="s">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A14" s="21" t="s">
         <v>127</v>
       </c>
       <c r="N14" s="1" t="s">
@@ -8000,8 +9179,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.6">
-      <c r="A15" s="22" t="s">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A15" s="21" t="s">
         <v>128</v>
       </c>
       <c r="N15" s="1" t="s">
@@ -8011,8 +9190,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.6">
-      <c r="A16" s="22" t="s">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A16" s="21" t="s">
         <v>129</v>
       </c>
       <c r="N16" s="1" t="s">
@@ -8022,8 +9201,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A17" s="22" t="s">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A17" s="21" t="s">
         <v>130</v>
       </c>
       <c r="N17" s="1" t="s">
@@ -8033,8 +9212,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A18" s="22" t="s">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A18" s="21" t="s">
         <v>131</v>
       </c>
       <c r="N18" s="1" t="s">
@@ -8044,8 +9223,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A19" s="22" t="s">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A19" s="21" t="s">
         <v>132</v>
       </c>
       <c r="N19" s="1" t="s">
@@ -8055,8 +9234,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A20" s="22" t="s">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A20" s="21" t="s">
         <v>133</v>
       </c>
       <c r="N20" s="1" t="s">
@@ -8066,8 +9245,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A21" s="22" t="s">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A21" s="21" t="s">
         <v>134</v>
       </c>
       <c r="N21" s="1" t="s">
@@ -8077,8 +9256,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A22" s="22" t="s">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A22" s="21" t="s">
         <v>135</v>
       </c>
       <c r="N22" s="1" t="s">
@@ -8088,8 +9267,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A23" s="22" t="s">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A23" s="21" t="s">
         <v>136</v>
       </c>
       <c r="N23" s="1" t="s">
@@ -8099,8 +9278,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A24" s="22" t="s">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A24" s="21" t="s">
         <v>137</v>
       </c>
       <c r="N24" s="1" t="s">
@@ -8110,8 +9289,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A25" s="22" t="s">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A25" s="21" t="s">
         <v>138</v>
       </c>
       <c r="N25" s="1" t="s">
@@ -8121,8 +9300,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A26" s="22" t="s">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A26" s="21" t="s">
         <v>139</v>
       </c>
       <c r="N26" s="1" t="s">
@@ -8132,8 +9311,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A27" s="22" t="s">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A27" s="21" t="s">
         <v>140</v>
       </c>
       <c r="N27" s="1" t="s">
@@ -8143,8 +9322,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A28" s="22" t="s">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A28" s="21" t="s">
         <v>141</v>
       </c>
       <c r="N28" s="1" t="s">
@@ -8154,8 +9333,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A29" s="22" t="s">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A29" s="21" t="s">
         <v>142</v>
       </c>
       <c r="N29" s="1" t="s">
@@ -8165,8 +9344,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A30" s="22" t="s">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A30" s="21" t="s">
         <v>143</v>
       </c>
       <c r="N30" s="1" t="s">
@@ -8176,8 +9355,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A31" s="22" t="s">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A31" s="21" t="s">
         <v>144</v>
       </c>
       <c r="N31" s="1" t="s">
@@ -8187,8 +9366,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A32" s="22" t="s">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A32" s="21" t="s">
         <v>145</v>
       </c>
       <c r="N32" s="1" t="s">
@@ -8198,8 +9377,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A33" s="22" t="s">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A33" s="21" t="s">
         <v>146</v>
       </c>
       <c r="N33" s="1" t="s">
@@ -8209,8 +9388,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A34" s="22" t="s">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A34" s="21" t="s">
         <v>147</v>
       </c>
       <c r="N34" s="1" t="s">
@@ -8220,8 +9399,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A35" s="22" t="s">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A35" s="21" t="s">
         <v>148</v>
       </c>
       <c r="N35" s="1" t="s">
@@ -8231,8 +9410,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A36" s="22" t="s">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A36" s="21" t="s">
         <v>149</v>
       </c>
       <c r="N36" s="1" t="s">
@@ -8242,8 +9421,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A37" s="22" t="s">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A37" s="21" t="s">
         <v>150</v>
       </c>
       <c r="N37" s="1" t="s">
@@ -8253,8 +9432,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A38" s="22" t="s">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A38" s="21" t="s">
         <v>151</v>
       </c>
       <c r="N38" s="1" t="s">
@@ -8264,8 +9443,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A39" s="22" t="s">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A39" s="21" t="s">
         <v>152</v>
       </c>
       <c r="N39" s="1" t="s">
@@ -8275,8 +9454,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A40" s="22" t="s">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A40" s="21" t="s">
         <v>153</v>
       </c>
       <c r="N40" s="1" t="s">
@@ -8286,8 +9465,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A41" s="22" t="s">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A41" s="21" t="s">
         <v>154</v>
       </c>
       <c r="N41" s="1" t="s">
@@ -8297,8 +9476,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A42" s="22" t="s">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A42" s="21" t="s">
         <v>155</v>
       </c>
       <c r="N42" s="1" t="s">
@@ -8308,8 +9487,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A43" s="22" t="s">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A43" s="21" t="s">
         <v>156</v>
       </c>
       <c r="N43" s="1" t="s">
@@ -8319,8 +9498,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A44" s="22" t="s">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A44" s="21" t="s">
         <v>157</v>
       </c>
       <c r="N44" s="1" t="s">
@@ -8330,8 +9509,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A45" s="22" t="s">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A45" s="21" t="s">
         <v>158</v>
       </c>
       <c r="N45" s="1" t="s">
@@ -8341,8 +9520,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A46" s="22" t="s">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A46" s="21" t="s">
         <v>159</v>
       </c>
       <c r="N46" s="1" t="s">
@@ -8352,8 +9531,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A47" s="22" t="s">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A47" s="21" t="s">
         <v>160</v>
       </c>
       <c r="N47" s="1" t="s">
@@ -8363,8 +9542,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A48" s="22" t="s">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A48" s="21" t="s">
         <v>161</v>
       </c>
       <c r="N48" s="1" t="s">
@@ -8374,8 +9553,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A49" s="22" t="s">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A49" s="21" t="s">
         <v>162</v>
       </c>
       <c r="N49" s="1" t="s">
@@ -8385,8 +9564,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A50" s="22" t="s">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A50" s="21" t="s">
         <v>163</v>
       </c>
       <c r="N50" s="1" t="s">
@@ -8396,8 +9575,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A51" s="22" t="s">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A51" s="21" t="s">
         <v>164</v>
       </c>
       <c r="N51" s="1" t="s">
@@ -8407,8 +9586,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A52" s="22" t="s">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A52" s="21" t="s">
         <v>165</v>
       </c>
       <c r="N52" s="1" t="s">
@@ -8418,8 +9597,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A53" s="22" t="s">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A53" s="21" t="s">
         <v>166</v>
       </c>
       <c r="N53" s="1" t="s">
@@ -8429,8 +9608,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A54" s="22" t="s">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A54" s="21" t="s">
         <v>167</v>
       </c>
       <c r="N54" s="1" t="s">
@@ -8440,8 +9619,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A55" s="22" t="s">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A55" s="21" t="s">
         <v>168</v>
       </c>
       <c r="N55" s="1" t="s">
@@ -8451,8 +9630,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A56" s="22" t="s">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A56" s="21" t="s">
         <v>169</v>
       </c>
       <c r="N56" s="1" t="s">
@@ -8462,8 +9641,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A57" s="22" t="s">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A57" s="21" t="s">
         <v>170</v>
       </c>
       <c r="N57" s="1" t="s">
@@ -8473,8 +9652,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A58" s="22" t="s">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A58" s="21" t="s">
         <v>171</v>
       </c>
       <c r="N58" s="1" t="s">
@@ -8484,8 +9663,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A59" s="22" t="s">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A59" s="21" t="s">
         <v>172</v>
       </c>
       <c r="N59" s="1" t="s">
@@ -8495,8 +9674,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A60" s="22" t="s">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A60" s="21" t="s">
         <v>173</v>
       </c>
       <c r="N60" s="1" t="s">
@@ -8506,8 +9685,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A61" s="22" t="s">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A61" s="21" t="s">
         <v>174</v>
       </c>
       <c r="N61" s="1" t="s">
@@ -8517,8 +9696,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A62" s="22" t="s">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A62" s="21" t="s">
         <v>175</v>
       </c>
       <c r="N62" s="1" t="s">
@@ -8528,8 +9707,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A63" s="22" t="s">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A63" s="21" t="s">
         <v>176</v>
       </c>
       <c r="N63" s="1" t="s">
@@ -8539,8 +9718,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A64" s="22" t="s">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A64" s="21" t="s">
         <v>177</v>
       </c>
       <c r="N64" s="1" t="s">
@@ -8550,8 +9729,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A65" s="22" t="s">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A65" s="21" t="s">
         <v>178</v>
       </c>
       <c r="N65" s="1" t="s">
@@ -8561,8 +9740,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A66" s="22" t="s">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A66" s="21" t="s">
         <v>179</v>
       </c>
       <c r="N66" s="1" t="s">
@@ -8572,8 +9751,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A67" s="22" t="s">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A67" s="21" t="s">
         <v>180</v>
       </c>
       <c r="N67" s="1" t="s">
@@ -8583,8 +9762,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A68" s="22" t="s">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A68" s="21" t="s">
         <v>181</v>
       </c>
       <c r="N68" s="1" t="s">
@@ -8594,8 +9773,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A69" s="22" t="s">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A69" s="21" t="s">
         <v>182</v>
       </c>
       <c r="N69" s="1" t="s">
@@ -8605,8 +9784,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A70" s="22" t="s">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A70" s="21" t="s">
         <v>183</v>
       </c>
       <c r="N70" s="1" t="s">
@@ -8616,8 +9795,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A71" s="22" t="s">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A71" s="21" t="s">
         <v>184</v>
       </c>
       <c r="N71" s="1" t="s">
@@ -8627,8 +9806,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A72" s="22" t="s">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A72" s="21" t="s">
         <v>185</v>
       </c>
       <c r="N72" s="1" t="s">
@@ -8638,8 +9817,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A73" s="22" t="s">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A73" s="21" t="s">
         <v>186</v>
       </c>
       <c r="N73" s="1" t="s">
@@ -8649,8 +9828,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A74" s="22" t="s">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A74" s="21" t="s">
         <v>187</v>
       </c>
       <c r="N74" s="1" t="s">
@@ -8660,8 +9839,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A75" s="22" t="s">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A75" s="21" t="s">
         <v>188</v>
       </c>
       <c r="N75" s="1" t="s">
@@ -8671,8 +9850,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A76" s="22" t="s">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A76" s="21" t="s">
         <v>189</v>
       </c>
       <c r="N76" s="1" t="s">
@@ -8682,8 +9861,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A77" s="22" t="s">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A77" s="21" t="s">
         <v>190</v>
       </c>
       <c r="N77" s="1" t="s">
@@ -8693,8 +9872,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A78" s="22" t="s">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A78" s="21" t="s">
         <v>191</v>
       </c>
       <c r="N78" s="1" t="s">
@@ -8704,8 +9883,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A79" s="22" t="s">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A79" s="21" t="s">
         <v>192</v>
       </c>
       <c r="N79" s="1" t="s">
@@ -8715,8 +9894,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A80" s="22" t="s">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A80" s="21" t="s">
         <v>193</v>
       </c>
       <c r="N80" s="1" t="s">
@@ -8726,8 +9905,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A81" s="22" t="s">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A81" s="21" t="s">
         <v>194</v>
       </c>
       <c r="N81" s="1" t="s">
@@ -8737,8 +9916,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A82" s="22" t="s">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A82" s="21" t="s">
         <v>195</v>
       </c>
       <c r="N82" s="1" t="s">
@@ -8748,8 +9927,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A83" s="22" t="s">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A83" s="21" t="s">
         <v>196</v>
       </c>
       <c r="N83" s="1" t="s">
@@ -8759,8 +9938,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A84" s="22" t="s">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A84" s="21" t="s">
         <v>197</v>
       </c>
       <c r="N84" s="1" t="s">
@@ -8770,8 +9949,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A85" s="22" t="s">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A85" s="21" t="s">
         <v>198</v>
       </c>
       <c r="N85" s="1" t="s">
@@ -8781,8 +9960,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A86" s="22" t="s">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A86" s="21" t="s">
         <v>199</v>
       </c>
       <c r="N86" s="1" t="s">
@@ -8792,8 +9971,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A87" s="22" t="s">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A87" s="21" t="s">
         <v>200</v>
       </c>
       <c r="N87" s="1" t="s">
@@ -8803,8 +9982,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A88" s="22" t="s">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A88" s="21" t="s">
         <v>201</v>
       </c>
       <c r="N88" s="1" t="s">
@@ -8814,8 +9993,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A89" s="22" t="s">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A89" s="21" t="s">
         <v>202</v>
       </c>
       <c r="N89" s="1" t="s">
@@ -8825,8 +10004,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A90" s="22" t="s">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A90" s="21" t="s">
         <v>203</v>
       </c>
       <c r="N90" s="1" t="s">
@@ -8836,8 +10015,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A91" s="22" t="s">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A91" s="21" t="s">
         <v>204</v>
       </c>
       <c r="N91" s="1" t="s">
@@ -8847,8 +10026,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A92" s="22" t="s">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A92" s="21" t="s">
         <v>205</v>
       </c>
       <c r="N92" s="1" t="s">
@@ -8858,8 +10037,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A93" s="22" t="s">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A93" s="21" t="s">
         <v>206</v>
       </c>
       <c r="N93" s="1" t="s">
@@ -8869,8 +10048,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A94" s="22" t="s">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A94" s="21" t="s">
         <v>207</v>
       </c>
       <c r="N94" s="1" t="s">
@@ -8880,8 +10059,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A95" s="22" t="s">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A95" s="21" t="s">
         <v>208</v>
       </c>
       <c r="N95" s="1" t="s">
@@ -8891,8 +10070,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A96" s="22" t="s">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A96" s="21" t="s">
         <v>209</v>
       </c>
       <c r="N96" s="1" t="s">
@@ -8902,8 +10081,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A97" s="22" t="s">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A97" s="21" t="s">
         <v>210</v>
       </c>
       <c r="N97" s="1" t="s">
@@ -8913,8 +10092,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A98" s="22" t="s">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A98" s="21" t="s">
         <v>211</v>
       </c>
       <c r="N98" s="1" t="s">
@@ -8924,8 +10103,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A99" s="22" t="s">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A99" s="21" t="s">
         <v>212</v>
       </c>
       <c r="N99" s="1" t="s">
@@ -8935,8 +10114,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A100" s="22" t="s">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A100" s="21" t="s">
         <v>213</v>
       </c>
       <c r="N100" s="1" t="s">
@@ -8946,8 +10125,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A101" s="22" t="s">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A101" s="21" t="s">
         <v>214</v>
       </c>
       <c r="N101" s="1" t="s">
@@ -8957,8 +10136,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.6">
-      <c r="A102" s="22" t="s">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="A102" s="21" t="s">
         <v>215</v>
       </c>
       <c r="N102" s="1" t="s">
@@ -9039,22 +10218,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F102"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="17.5" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="38" style="9" customWidth="1"/>
-    <col min="2" max="2" width="51.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="87.90625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="69.453125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="41.08984375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.90625" style="1"/>
+    <col min="2" max="2" width="51.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="87.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="69.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="41.109375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>444</v>
       </c>
@@ -9062,7 +10239,7 @@
         <v>545</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>417</v>
@@ -9074,547 +10251,547 @@
         <v>573</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A2" s="17" t="s">
         <v>330</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>331</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="17" t="s">
         <v>559</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="17" t="s">
         <v>560</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="18" t="s">
         <v>569</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="18" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A3" s="22" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A3" s="21" t="s">
         <v>445</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>336</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A4" s="22" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A4" s="21" t="s">
         <v>446</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>117</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>336</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A5" s="22" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A5" s="21" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A6" s="22" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A6" s="21" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A7" s="22" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A7" s="21" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A8" s="22" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A8" s="21" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A9" s="22" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A9" s="21" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A10" s="22" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A10" s="21" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A11" s="22" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A11" s="21" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A12" s="22" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A12" s="21" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A13" s="22" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A13" s="21" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A14" s="22" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A14" s="21" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A15" s="22" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A15" s="21" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A16" s="22" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A16" s="21" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A17" s="22" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A17" s="21" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A18" s="22" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A18" s="21" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A19" s="22" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A19" s="21" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A20" s="22" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A20" s="21" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A21" s="22" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A21" s="21" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A22" s="22" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A22" s="21" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A23" s="22" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A23" s="21" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A24" s="22" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A24" s="21" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A25" s="22" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A25" s="21" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A26" s="22" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A26" s="21" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A27" s="22" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A27" s="21" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A28" s="22" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A28" s="21" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A29" s="22" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A29" s="21" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A30" s="22" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A30" s="21" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A31" s="22" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A31" s="21" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A32" s="22" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A32" s="21" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A33" s="22" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A33" s="21" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A34" s="22" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A34" s="21" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A35" s="22" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A35" s="21" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A36" s="22" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A36" s="21" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A37" s="22" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A37" s="21" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A38" s="22" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A38" s="21" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A39" s="22" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A39" s="21" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A40" s="22" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A40" s="21" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A41" s="22" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A41" s="21" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A42" s="22" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A42" s="21" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A43" s="22" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A43" s="21" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A44" s="22" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A44" s="21" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A45" s="22" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A45" s="21" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A46" s="22" t="s">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A46" s="21" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A47" s="22" t="s">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A47" s="21" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A48" s="22" t="s">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A48" s="21" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A49" s="22" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A49" s="21" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A50" s="22" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A50" s="21" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A51" s="22" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A51" s="21" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A52" s="22" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A52" s="21" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A53" s="22" t="s">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A53" s="21" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A54" s="22" t="s">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A54" s="21" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A55" s="22" t="s">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A55" s="21" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A56" s="22" t="s">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A56" s="21" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A57" s="22" t="s">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A57" s="21" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A58" s="22" t="s">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A58" s="21" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A59" s="22" t="s">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A59" s="21" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A60" s="22" t="s">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A60" s="21" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A61" s="22" t="s">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A61" s="21" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A62" s="22" t="s">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A62" s="21" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A63" s="22" t="s">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A63" s="21" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A64" s="22" t="s">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A64" s="21" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A65" s="22" t="s">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A65" s="21" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A66" s="22" t="s">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A66" s="21" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A67" s="22" t="s">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A67" s="21" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A68" s="22" t="s">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A68" s="21" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A69" s="22" t="s">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A69" s="21" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A70" s="22" t="s">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A70" s="21" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A71" s="22" t="s">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A71" s="21" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A72" s="22" t="s">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A72" s="21" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A73" s="22" t="s">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A73" s="21" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A74" s="22" t="s">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A74" s="21" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A75" s="22" t="s">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A75" s="21" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A76" s="22" t="s">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A76" s="21" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A77" s="22" t="s">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A77" s="21" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A78" s="22" t="s">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A78" s="21" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A79" s="22" t="s">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A79" s="21" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A80" s="22" t="s">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A80" s="21" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A81" s="22" t="s">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A81" s="21" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A82" s="22" t="s">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A82" s="21" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A83" s="22" t="s">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A83" s="21" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A84" s="22" t="s">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A84" s="21" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A85" s="22" t="s">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A85" s="21" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A86" s="22" t="s">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A86" s="21" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A87" s="22" t="s">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A87" s="21" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A88" s="22" t="s">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A88" s="21" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A89" s="22" t="s">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A89" s="21" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A90" s="22" t="s">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A90" s="21" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A91" s="22" t="s">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A91" s="21" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A92" s="22" t="s">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A92" s="21" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A93" s="22" t="s">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A93" s="21" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A94" s="22" t="s">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A94" s="21" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A95" s="22" t="s">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A95" s="21" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A96" s="22" t="s">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A96" s="21" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A97" s="22" t="s">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A97" s="21" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A98" s="22" t="s">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A98" s="21" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A99" s="22" t="s">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A99" s="21" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A100" s="22" t="s">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A100" s="21" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A101" s="22" t="s">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A101" s="21" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.6">
-      <c r="A102" s="22" t="s">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A102" s="21" t="s">
         <v>544</v>
       </c>
     </row>
@@ -9644,16 +10821,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:U12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.90625" defaultRowHeight="16.75" customHeight="1" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="18.88671875" defaultRowHeight="16.8" customHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="16384" width="18.90625" style="1"/>
+    <col min="1" max="16384" width="18.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="16.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>548</v>
       </c>
@@ -9676,7 +10851,7 @@
         <v>417</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>648</v>
@@ -9687,183 +10862,183 @@
       <c r="L1" s="6" t="s">
         <v>697</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="12" t="s">
         <v>693</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="N1" s="12" t="s">
         <v>694</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="O1" s="12" t="s">
         <v>695</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="P1" s="12" t="s">
         <v>696</v>
       </c>
-      <c r="Q1" s="13" t="s">
-        <v>794</v>
+      <c r="Q1" s="12" t="s">
+        <v>793</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>787</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>788</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="10" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="17" t="s">
+        <v>330</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>546</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>551</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>353</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>354</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>569</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>570</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>688</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>689</v>
+      </c>
+      <c r="N2" s="17" t="s">
+        <v>690</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>691</v>
+      </c>
+      <c r="P2" s="18" t="s">
+        <v>692</v>
+      </c>
+      <c r="Q2" s="22" t="s">
         <v>789</v>
       </c>
-      <c r="U1" s="10" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" ht="16.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="18" t="s">
-        <v>330</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>546</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>551</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>352</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>353</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>354</v>
-      </c>
-      <c r="H2" s="18" t="s">
-        <v>332</v>
-      </c>
-      <c r="I2" s="18" t="s">
-        <v>333</v>
-      </c>
-      <c r="J2" s="19" t="s">
-        <v>569</v>
-      </c>
-      <c r="K2" s="19" t="s">
-        <v>570</v>
-      </c>
-      <c r="L2" s="18" t="s">
-        <v>688</v>
-      </c>
-      <c r="M2" s="18" t="s">
-        <v>689</v>
-      </c>
-      <c r="N2" s="18" t="s">
-        <v>690</v>
-      </c>
-      <c r="O2" s="18" t="s">
-        <v>691</v>
-      </c>
-      <c r="P2" s="19" t="s">
-        <v>692</v>
-      </c>
-      <c r="Q2" s="23" t="s">
+      <c r="R2" s="22" t="s">
         <v>790</v>
       </c>
-      <c r="R2" s="23" t="s">
+      <c r="S2" s="22" t="s">
         <v>791</v>
       </c>
-      <c r="S2" s="23" t="s">
+      <c r="T2" s="22" t="s">
         <v>792</v>
       </c>
-      <c r="T2" s="23" t="s">
-        <v>793</v>
-      </c>
-      <c r="U2" s="19" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" ht="16.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="22" t="s">
+      <c r="U2" s="18" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="21" t="s">
         <v>342</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>356</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>379</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="R3" s="1" t="s">
         <v>254</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="16.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="22" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="21" t="s">
         <v>343</v>
       </c>
       <c r="F4" s="10"/>
     </row>
-    <row r="5" spans="1:21" ht="16.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A5" s="22" t="s">
+    <row r="5" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="21" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="16.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A6" s="22" t="s">
+    <row r="6" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="21" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="16.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="22" t="s">
+    <row r="7" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="21" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="16.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="22" t="s">
+    <row r="8" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="21" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="16.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A9" s="22" t="s">
+    <row r="9" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="21" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="16.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="22" t="s">
+    <row r="10" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="21" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="16.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A11" s="22" t="s">
+    <row r="11" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="21" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="16.75" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A12" s="22" t="s">
+    <row r="12" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="21" t="s">
         <v>351</v>
       </c>
     </row>
@@ -9935,16 +11110,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:F3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="28.08984375" defaultRowHeight="17.5" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="28.109375" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="16384" width="28.08984375" style="1"/>
+    <col min="1" max="16384" width="28.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>562</v>
       </c>
@@ -9967,42 +11140,42 @@
         <v>420</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A2" s="17" t="s">
         <v>330</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>551</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="18" t="s">
         <v>366</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="18" t="s">
         <v>367</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="17" t="s">
         <v>352</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="17" t="s">
         <v>353</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="18" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A3" s="22" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A3" s="21" t="s">
         <v>364</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A4" s="22" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A4" s="21" t="s">
         <v>365</v>
       </c>
     </row>
@@ -10032,55 +11205,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.36328125" defaultRowHeight="17.5" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="65" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="17.36328125" style="1"/>
+    <col min="2" max="2" width="73.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="17.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.6">
-      <c r="A2" s="18" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A2" s="17" t="s">
+        <v>743</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>744</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.6">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.6">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.6">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
     </row>
   </sheetData>

--- a/example/JSUB999999_jga_metadata.xlsx
+++ b/example/JSUB999999_jga_metadata.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81646C8-7316-43E6-B490-F5352706E224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D0E273-24FF-4CAC-B696-83AB18E99681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4530,7 +4530,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4570,12 +4570,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA9D975"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4633,7 +4627,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -4667,7 +4661,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4677,7 +4670,6 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4707,11 +4699,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FFBFE4FF"/>
       <color rgb="FFA9D975"/>
       <color rgb="FFA4D76B"/>
       <color rgb="FF92D050"/>
       <color rgb="FF0000FF"/>
-      <color rgb="FFBFE4FF"/>
       <color rgb="FF84919E"/>
       <color rgb="FFFFCA80"/>
       <color rgb="FFFDE9D9"/>
@@ -5019,7 +5011,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
@@ -6943,144 +6935,144 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="34.799999999999997" x14ac:dyDescent="0.5">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>439</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>686</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>646</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="23" t="s">
         <v>566</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="23" t="s">
         <v>437</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="23" t="s">
         <v>644</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="23" t="s">
         <v>639</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="23" t="s">
         <v>642</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="23" t="s">
         <v>640</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="23" t="s">
         <v>641</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="L1" s="24" t="s">
         <v>872</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="M1" s="25" t="s">
         <v>862</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.5">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="26" t="s">
         <v>581</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="26" t="s">
         <v>582</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="26" t="s">
         <v>583</v>
       </c>
-      <c r="E2" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="27" t="s">
+      <c r="E2" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="26" t="s">
         <v>353</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="27" t="s">
         <v>643</v>
       </c>
-      <c r="H2" s="28" t="s">
+      <c r="H2" s="27" t="s">
         <v>638</v>
       </c>
-      <c r="I2" s="28" t="s">
+      <c r="I2" s="27" t="s">
         <v>637</v>
       </c>
-      <c r="J2" s="28" t="s">
+      <c r="J2" s="27" t="s">
         <v>635</v>
       </c>
-      <c r="K2" s="28" t="s">
+      <c r="K2" s="27" t="s">
         <v>636</v>
       </c>
-      <c r="L2" s="29" t="s">
+      <c r="L2" s="27" t="s">
         <v>863</v>
       </c>
-      <c r="M2" s="29" t="s">
+      <c r="M2" s="27" t="s">
         <v>864</v>
       </c>
-      <c r="N2" s="23" t="s">
+      <c r="N2" s="18" t="s">
         <v>866</v>
       </c>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="23"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="18"/>
+      <c r="AA2" s="18"/>
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="18"/>
+      <c r="AD2" s="18"/>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.5">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="23" t="s">
         <v>822</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="29" t="s">
         <v>823</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="29" t="s">
         <v>824</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="23" t="s">
         <v>825</v>
       </c>
-      <c r="F3" s="24" t="s">
+      <c r="F3" s="23" t="s">
         <v>825</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="23" t="s">
         <v>826</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="23" t="s">
         <v>827</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="I3" s="23" t="s">
         <v>828</v>
       </c>
-      <c r="J3" s="24" t="s">
+      <c r="J3" s="23" t="s">
         <v>829</v>
       </c>
-      <c r="K3" s="24" t="s">
+      <c r="K3" s="23" t="s">
         <v>830</v>
       </c>
-      <c r="L3" s="24">
+      <c r="L3" s="23">
         <v>37</v>
       </c>
-      <c r="M3" s="24" t="s">
+      <c r="M3" s="23" t="s">
         <v>865</v>
       </c>
       <c r="N3" s="1" t="s">
@@ -7088,43 +7080,43 @@
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.5">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="23" t="s">
         <v>831</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="29" t="s">
         <v>832</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="29" t="s">
         <v>833</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="23" t="s">
         <v>834</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="F4" s="23" t="s">
         <v>834</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="23" t="s">
         <v>826</v>
       </c>
-      <c r="H4" s="24" t="s">
+      <c r="H4" s="23" t="s">
         <v>827</v>
       </c>
-      <c r="I4" s="24" t="s">
+      <c r="I4" s="23" t="s">
         <v>828</v>
       </c>
-      <c r="J4" s="24" t="s">
+      <c r="J4" s="23" t="s">
         <v>829</v>
       </c>
-      <c r="K4" s="24" t="s">
+      <c r="K4" s="23" t="s">
         <v>830</v>
       </c>
-      <c r="L4" s="24" t="s">
+      <c r="L4" s="23" t="s">
         <v>873</v>
       </c>
-      <c r="M4" s="24" t="s">
+      <c r="M4" s="23" t="s">
         <v>865</v>
       </c>
       <c r="N4" s="1" t="s">
@@ -7132,43 +7124,43 @@
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.5">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="23" t="s">
         <v>868</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="29" t="s">
         <v>869</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="29" t="s">
         <v>833</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="23" t="s">
         <v>870</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="23" t="s">
         <v>870</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="23" t="s">
         <v>826</v>
       </c>
-      <c r="H5" s="24" t="s">
+      <c r="H5" s="23" t="s">
         <v>827</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="I5" s="23" t="s">
         <v>828</v>
       </c>
-      <c r="J5" s="24" t="s">
+      <c r="J5" s="23" t="s">
         <v>829</v>
       </c>
-      <c r="K5" s="24" t="s">
+      <c r="K5" s="23" t="s">
         <v>830</v>
       </c>
-      <c r="L5" s="24" t="s">
+      <c r="L5" s="23" t="s">
         <v>871</v>
       </c>
-      <c r="M5" s="24" t="s">
+      <c r="M5" s="23" t="s">
         <v>865</v>
       </c>
       <c r="N5" s="1" t="s">
@@ -7176,1653 +7168,1653 @@
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.5">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.5">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="24"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.5">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.5">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.5">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.5">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.5">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.5">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.5">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.5">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.5">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A18" s="30" t="s">
+      <c r="A18" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="24"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A23" s="30" t="s">
+      <c r="A23" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A24" s="30" t="s">
+      <c r="A24" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="24"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A25" s="30" t="s">
+      <c r="A25" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="24"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="24"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="24"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="24"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A27" s="30" t="s">
+      <c r="A27" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A28" s="30" t="s">
+      <c r="A28" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="24"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="24"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A29" s="30" t="s">
+      <c r="A29" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="24"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="24"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="23"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A30" s="30" t="s">
+      <c r="A30" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="24"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="24"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="23"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A31" s="30" t="s">
+      <c r="A31" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="B31" s="24"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="24"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="23"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A32" s="30" t="s">
+      <c r="A32" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="B32" s="24"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="24"/>
-      <c r="M32" s="24"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="23"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A33" s="30" t="s">
+      <c r="A33" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="24"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="24"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="24"/>
-      <c r="M33" s="24"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="23"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A34" s="30" t="s">
+      <c r="A34" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="24"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="24"/>
-      <c r="M34" s="24"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="23"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A35" s="30" t="s">
+      <c r="A35" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="24"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="24"/>
-      <c r="K35" s="24"/>
-      <c r="L35" s="24"/>
-      <c r="M35" s="24"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="23"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A36" s="30" t="s">
+      <c r="A36" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="B36" s="24"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="24"/>
-      <c r="J36" s="24"/>
-      <c r="K36" s="24"/>
-      <c r="L36" s="24"/>
-      <c r="M36" s="24"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="23"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="23"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A37" s="30" t="s">
+      <c r="A37" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="24"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="24"/>
-      <c r="K37" s="24"/>
-      <c r="L37" s="24"/>
-      <c r="M37" s="24"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="23"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="23"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A38" s="30" t="s">
+      <c r="A38" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="B38" s="24"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="24"/>
-      <c r="J38" s="24"/>
-      <c r="K38" s="24"/>
-      <c r="L38" s="24"/>
-      <c r="M38" s="24"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="23"/>
+      <c r="L38" s="23"/>
+      <c r="M38" s="23"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A39" s="30" t="s">
+      <c r="A39" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="B39" s="24"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="24"/>
-      <c r="M39" s="24"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="23"/>
+      <c r="J39" s="23"/>
+      <c r="K39" s="23"/>
+      <c r="L39" s="23"/>
+      <c r="M39" s="23"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A40" s="30" t="s">
+      <c r="A40" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="B40" s="24"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="24"/>
-      <c r="K40" s="24"/>
-      <c r="L40" s="24"/>
-      <c r="M40" s="24"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="23"/>
+      <c r="K40" s="23"/>
+      <c r="L40" s="23"/>
+      <c r="M40" s="23"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A41" s="30" t="s">
+      <c r="A41" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="B41" s="24"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="24"/>
-      <c r="I41" s="24"/>
-      <c r="J41" s="24"/>
-      <c r="K41" s="24"/>
-      <c r="L41" s="24"/>
-      <c r="M41" s="24"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="23"/>
+      <c r="K41" s="23"/>
+      <c r="L41" s="23"/>
+      <c r="M41" s="23"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A42" s="30" t="s">
+      <c r="A42" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="B42" s="24"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="24"/>
-      <c r="I42" s="24"/>
-      <c r="J42" s="24"/>
-      <c r="K42" s="24"/>
-      <c r="L42" s="24"/>
-      <c r="M42" s="24"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="23"/>
+      <c r="K42" s="23"/>
+      <c r="L42" s="23"/>
+      <c r="M42" s="23"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A43" s="30" t="s">
+      <c r="A43" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B43" s="24"/>
-      <c r="C43" s="31"/>
-      <c r="D43" s="31"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="24"/>
-      <c r="J43" s="24"/>
-      <c r="K43" s="24"/>
-      <c r="L43" s="24"/>
-      <c r="M43" s="24"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="23"/>
+      <c r="K43" s="23"/>
+      <c r="L43" s="23"/>
+      <c r="M43" s="23"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A44" s="30" t="s">
+      <c r="A44" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="B44" s="24"/>
-      <c r="C44" s="31"/>
-      <c r="D44" s="31"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="24"/>
-      <c r="H44" s="24"/>
-      <c r="I44" s="24"/>
-      <c r="J44" s="24"/>
-      <c r="K44" s="24"/>
-      <c r="L44" s="24"/>
-      <c r="M44" s="24"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="23"/>
+      <c r="K44" s="23"/>
+      <c r="L44" s="23"/>
+      <c r="M44" s="23"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A45" s="30" t="s">
+      <c r="A45" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="B45" s="24"/>
-      <c r="C45" s="31"/>
-      <c r="D45" s="31"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="24"/>
-      <c r="I45" s="24"/>
-      <c r="J45" s="24"/>
-      <c r="K45" s="24"/>
-      <c r="L45" s="24"/>
-      <c r="M45" s="24"/>
+      <c r="B45" s="23"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="23"/>
+      <c r="J45" s="23"/>
+      <c r="K45" s="23"/>
+      <c r="L45" s="23"/>
+      <c r="M45" s="23"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A46" s="30" t="s">
+      <c r="A46" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="B46" s="24"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="31"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="24"/>
-      <c r="J46" s="24"/>
-      <c r="K46" s="24"/>
-      <c r="L46" s="24"/>
-      <c r="M46" s="24"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="23"/>
+      <c r="K46" s="23"/>
+      <c r="L46" s="23"/>
+      <c r="M46" s="23"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A47" s="30" t="s">
+      <c r="A47" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="B47" s="24"/>
-      <c r="C47" s="31"/>
-      <c r="D47" s="31"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="24"/>
-      <c r="I47" s="24"/>
-      <c r="J47" s="24"/>
-      <c r="K47" s="24"/>
-      <c r="L47" s="24"/>
-      <c r="M47" s="24"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="23"/>
+      <c r="I47" s="23"/>
+      <c r="J47" s="23"/>
+      <c r="K47" s="23"/>
+      <c r="L47" s="23"/>
+      <c r="M47" s="23"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A48" s="30" t="s">
+      <c r="A48" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="B48" s="24"/>
-      <c r="C48" s="31"/>
-      <c r="D48" s="31"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="24"/>
-      <c r="I48" s="24"/>
-      <c r="J48" s="24"/>
-      <c r="K48" s="24"/>
-      <c r="L48" s="24"/>
-      <c r="M48" s="24"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="23"/>
+      <c r="I48" s="23"/>
+      <c r="J48" s="23"/>
+      <c r="K48" s="23"/>
+      <c r="L48" s="23"/>
+      <c r="M48" s="23"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A49" s="30" t="s">
+      <c r="A49" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="B49" s="24"/>
-      <c r="C49" s="31"/>
-      <c r="D49" s="31"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="24"/>
-      <c r="H49" s="24"/>
-      <c r="I49" s="24"/>
-      <c r="J49" s="24"/>
-      <c r="K49" s="24"/>
-      <c r="L49" s="24"/>
-      <c r="M49" s="24"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="23"/>
+      <c r="I49" s="23"/>
+      <c r="J49" s="23"/>
+      <c r="K49" s="23"/>
+      <c r="L49" s="23"/>
+      <c r="M49" s="23"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A50" s="30" t="s">
+      <c r="A50" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="B50" s="24"/>
-      <c r="C50" s="31"/>
-      <c r="D50" s="31"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="24"/>
-      <c r="H50" s="24"/>
-      <c r="I50" s="24"/>
-      <c r="J50" s="24"/>
-      <c r="K50" s="24"/>
-      <c r="L50" s="24"/>
-      <c r="M50" s="24"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="23"/>
+      <c r="I50" s="23"/>
+      <c r="J50" s="23"/>
+      <c r="K50" s="23"/>
+      <c r="L50" s="23"/>
+      <c r="M50" s="23"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A51" s="30" t="s">
+      <c r="A51" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="B51" s="24"/>
-      <c r="C51" s="31"/>
-      <c r="D51" s="31"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="24"/>
-      <c r="I51" s="24"/>
-      <c r="J51" s="24"/>
-      <c r="K51" s="24"/>
-      <c r="L51" s="24"/>
-      <c r="M51" s="24"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="23"/>
+      <c r="I51" s="23"/>
+      <c r="J51" s="23"/>
+      <c r="K51" s="23"/>
+      <c r="L51" s="23"/>
+      <c r="M51" s="23"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A52" s="30" t="s">
+      <c r="A52" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="B52" s="24"/>
-      <c r="C52" s="31"/>
-      <c r="D52" s="31"/>
-      <c r="E52" s="24"/>
-      <c r="F52" s="24"/>
-      <c r="G52" s="24"/>
-      <c r="H52" s="24"/>
-      <c r="I52" s="24"/>
-      <c r="J52" s="24"/>
-      <c r="K52" s="24"/>
-      <c r="L52" s="24"/>
-      <c r="M52" s="24"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="29"/>
+      <c r="D52" s="29"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="23"/>
+      <c r="I52" s="23"/>
+      <c r="J52" s="23"/>
+      <c r="K52" s="23"/>
+      <c r="L52" s="23"/>
+      <c r="M52" s="23"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A53" s="30" t="s">
+      <c r="A53" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="B53" s="24"/>
-      <c r="C53" s="31"/>
-      <c r="D53" s="31"/>
-      <c r="E53" s="24"/>
-      <c r="F53" s="24"/>
-      <c r="G53" s="24"/>
-      <c r="H53" s="24"/>
-      <c r="I53" s="24"/>
-      <c r="J53" s="24"/>
-      <c r="K53" s="24"/>
-      <c r="L53" s="24"/>
-      <c r="M53" s="24"/>
+      <c r="B53" s="23"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="23"/>
+      <c r="H53" s="23"/>
+      <c r="I53" s="23"/>
+      <c r="J53" s="23"/>
+      <c r="K53" s="23"/>
+      <c r="L53" s="23"/>
+      <c r="M53" s="23"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A54" s="30" t="s">
+      <c r="A54" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="B54" s="24"/>
-      <c r="C54" s="31"/>
-      <c r="D54" s="31"/>
-      <c r="E54" s="24"/>
-      <c r="F54" s="24"/>
-      <c r="G54" s="24"/>
-      <c r="H54" s="24"/>
-      <c r="I54" s="24"/>
-      <c r="J54" s="24"/>
-      <c r="K54" s="24"/>
-      <c r="L54" s="24"/>
-      <c r="M54" s="24"/>
+      <c r="B54" s="23"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="23"/>
+      <c r="I54" s="23"/>
+      <c r="J54" s="23"/>
+      <c r="K54" s="23"/>
+      <c r="L54" s="23"/>
+      <c r="M54" s="23"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A55" s="30" t="s">
+      <c r="A55" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="B55" s="24"/>
-      <c r="C55" s="31"/>
-      <c r="D55" s="31"/>
-      <c r="E55" s="24"/>
-      <c r="F55" s="24"/>
-      <c r="G55" s="24"/>
-      <c r="H55" s="24"/>
-      <c r="I55" s="24"/>
-      <c r="J55" s="24"/>
-      <c r="K55" s="24"/>
-      <c r="L55" s="24"/>
-      <c r="M55" s="24"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="23"/>
+      <c r="H55" s="23"/>
+      <c r="I55" s="23"/>
+      <c r="J55" s="23"/>
+      <c r="K55" s="23"/>
+      <c r="L55" s="23"/>
+      <c r="M55" s="23"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A56" s="30" t="s">
+      <c r="A56" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="B56" s="24"/>
-      <c r="C56" s="31"/>
-      <c r="D56" s="31"/>
-      <c r="E56" s="24"/>
-      <c r="F56" s="24"/>
-      <c r="G56" s="24"/>
-      <c r="H56" s="24"/>
-      <c r="I56" s="24"/>
-      <c r="J56" s="24"/>
-      <c r="K56" s="24"/>
-      <c r="L56" s="24"/>
-      <c r="M56" s="24"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="29"/>
+      <c r="D56" s="29"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="23"/>
+      <c r="H56" s="23"/>
+      <c r="I56" s="23"/>
+      <c r="J56" s="23"/>
+      <c r="K56" s="23"/>
+      <c r="L56" s="23"/>
+      <c r="M56" s="23"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A57" s="30" t="s">
+      <c r="A57" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="B57" s="24"/>
-      <c r="C57" s="31"/>
-      <c r="D57" s="31"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="24"/>
-      <c r="G57" s="24"/>
-      <c r="H57" s="24"/>
-      <c r="I57" s="24"/>
-      <c r="J57" s="24"/>
-      <c r="K57" s="24"/>
-      <c r="L57" s="24"/>
-      <c r="M57" s="24"/>
+      <c r="B57" s="23"/>
+      <c r="C57" s="29"/>
+      <c r="D57" s="29"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="23"/>
+      <c r="H57" s="23"/>
+      <c r="I57" s="23"/>
+      <c r="J57" s="23"/>
+      <c r="K57" s="23"/>
+      <c r="L57" s="23"/>
+      <c r="M57" s="23"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A58" s="30" t="s">
+      <c r="A58" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="B58" s="24"/>
-      <c r="C58" s="31"/>
-      <c r="D58" s="31"/>
-      <c r="E58" s="24"/>
-      <c r="F58" s="24"/>
-      <c r="G58" s="24"/>
-      <c r="H58" s="24"/>
-      <c r="I58" s="24"/>
-      <c r="J58" s="24"/>
-      <c r="K58" s="24"/>
-      <c r="L58" s="24"/>
-      <c r="M58" s="24"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="29"/>
+      <c r="D58" s="29"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="23"/>
+      <c r="H58" s="23"/>
+      <c r="I58" s="23"/>
+      <c r="J58" s="23"/>
+      <c r="K58" s="23"/>
+      <c r="L58" s="23"/>
+      <c r="M58" s="23"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A59" s="30" t="s">
+      <c r="A59" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="B59" s="24"/>
-      <c r="C59" s="31"/>
-      <c r="D59" s="31"/>
-      <c r="E59" s="24"/>
-      <c r="F59" s="24"/>
-      <c r="G59" s="24"/>
-      <c r="H59" s="24"/>
-      <c r="I59" s="24"/>
-      <c r="J59" s="24"/>
-      <c r="K59" s="24"/>
-      <c r="L59" s="24"/>
-      <c r="M59" s="24"/>
+      <c r="B59" s="23"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="23"/>
+      <c r="H59" s="23"/>
+      <c r="I59" s="23"/>
+      <c r="J59" s="23"/>
+      <c r="K59" s="23"/>
+      <c r="L59" s="23"/>
+      <c r="M59" s="23"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A60" s="30" t="s">
+      <c r="A60" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="B60" s="24"/>
-      <c r="C60" s="31"/>
-      <c r="D60" s="31"/>
-      <c r="E60" s="24"/>
-      <c r="F60" s="24"/>
-      <c r="G60" s="24"/>
-      <c r="H60" s="24"/>
-      <c r="I60" s="24"/>
-      <c r="J60" s="24"/>
-      <c r="K60" s="24"/>
-      <c r="L60" s="24"/>
-      <c r="M60" s="24"/>
+      <c r="B60" s="23"/>
+      <c r="C60" s="29"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="23"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="23"/>
+      <c r="H60" s="23"/>
+      <c r="I60" s="23"/>
+      <c r="J60" s="23"/>
+      <c r="K60" s="23"/>
+      <c r="L60" s="23"/>
+      <c r="M60" s="23"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A61" s="30" t="s">
+      <c r="A61" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="B61" s="24"/>
-      <c r="C61" s="32"/>
-      <c r="D61" s="32"/>
-      <c r="E61" s="24"/>
-      <c r="F61" s="24"/>
-      <c r="G61" s="24"/>
-      <c r="H61" s="24"/>
-      <c r="I61" s="24"/>
-      <c r="J61" s="24"/>
-      <c r="K61" s="24"/>
-      <c r="L61" s="24"/>
-      <c r="M61" s="24"/>
+      <c r="B61" s="23"/>
+      <c r="C61" s="30"/>
+      <c r="D61" s="30"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="23"/>
+      <c r="H61" s="23"/>
+      <c r="I61" s="23"/>
+      <c r="J61" s="23"/>
+      <c r="K61" s="23"/>
+      <c r="L61" s="23"/>
+      <c r="M61" s="23"/>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A62" s="30" t="s">
+      <c r="A62" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="B62" s="24"/>
-      <c r="C62" s="32"/>
-      <c r="D62" s="32"/>
-      <c r="E62" s="24"/>
-      <c r="F62" s="24"/>
-      <c r="G62" s="24"/>
-      <c r="H62" s="24"/>
-      <c r="I62" s="24"/>
-      <c r="J62" s="24"/>
-      <c r="K62" s="24"/>
-      <c r="L62" s="24"/>
-      <c r="M62" s="24"/>
+      <c r="B62" s="23"/>
+      <c r="C62" s="30"/>
+      <c r="D62" s="30"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="23"/>
+      <c r="H62" s="23"/>
+      <c r="I62" s="23"/>
+      <c r="J62" s="23"/>
+      <c r="K62" s="23"/>
+      <c r="L62" s="23"/>
+      <c r="M62" s="23"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A63" s="30" t="s">
+      <c r="A63" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="B63" s="24"/>
-      <c r="C63" s="32"/>
-      <c r="D63" s="32"/>
-      <c r="E63" s="24"/>
-      <c r="F63" s="24"/>
-      <c r="G63" s="24"/>
-      <c r="H63" s="24"/>
-      <c r="I63" s="24"/>
-      <c r="J63" s="24"/>
-      <c r="K63" s="24"/>
-      <c r="L63" s="24"/>
-      <c r="M63" s="24"/>
+      <c r="B63" s="23"/>
+      <c r="C63" s="30"/>
+      <c r="D63" s="30"/>
+      <c r="E63" s="23"/>
+      <c r="F63" s="23"/>
+      <c r="G63" s="23"/>
+      <c r="H63" s="23"/>
+      <c r="I63" s="23"/>
+      <c r="J63" s="23"/>
+      <c r="K63" s="23"/>
+      <c r="L63" s="23"/>
+      <c r="M63" s="23"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A64" s="30" t="s">
+      <c r="A64" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="B64" s="24"/>
-      <c r="C64" s="32"/>
-      <c r="D64" s="32"/>
-      <c r="E64" s="24"/>
-      <c r="F64" s="24"/>
-      <c r="G64" s="24"/>
-      <c r="H64" s="24"/>
-      <c r="I64" s="24"/>
-      <c r="J64" s="24"/>
-      <c r="K64" s="24"/>
-      <c r="L64" s="24"/>
-      <c r="M64" s="24"/>
+      <c r="B64" s="23"/>
+      <c r="C64" s="30"/>
+      <c r="D64" s="30"/>
+      <c r="E64" s="23"/>
+      <c r="F64" s="23"/>
+      <c r="G64" s="23"/>
+      <c r="H64" s="23"/>
+      <c r="I64" s="23"/>
+      <c r="J64" s="23"/>
+      <c r="K64" s="23"/>
+      <c r="L64" s="23"/>
+      <c r="M64" s="23"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A65" s="30" t="s">
+      <c r="A65" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="B65" s="24"/>
-      <c r="C65" s="32"/>
-      <c r="D65" s="32"/>
-      <c r="E65" s="24"/>
-      <c r="F65" s="24"/>
-      <c r="G65" s="24"/>
-      <c r="H65" s="24"/>
-      <c r="I65" s="24"/>
-      <c r="J65" s="24"/>
-      <c r="K65" s="24"/>
-      <c r="L65" s="24"/>
-      <c r="M65" s="24"/>
+      <c r="B65" s="23"/>
+      <c r="C65" s="30"/>
+      <c r="D65" s="30"/>
+      <c r="E65" s="23"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="23"/>
+      <c r="H65" s="23"/>
+      <c r="I65" s="23"/>
+      <c r="J65" s="23"/>
+      <c r="K65" s="23"/>
+      <c r="L65" s="23"/>
+      <c r="M65" s="23"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A66" s="30" t="s">
+      <c r="A66" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="B66" s="24"/>
-      <c r="C66" s="32"/>
-      <c r="D66" s="32"/>
-      <c r="E66" s="24"/>
-      <c r="F66" s="24"/>
-      <c r="G66" s="24"/>
-      <c r="H66" s="24"/>
-      <c r="I66" s="24"/>
-      <c r="J66" s="24"/>
-      <c r="K66" s="24"/>
-      <c r="L66" s="24"/>
-      <c r="M66" s="24"/>
+      <c r="B66" s="23"/>
+      <c r="C66" s="30"/>
+      <c r="D66" s="30"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="23"/>
+      <c r="G66" s="23"/>
+      <c r="H66" s="23"/>
+      <c r="I66" s="23"/>
+      <c r="J66" s="23"/>
+      <c r="K66" s="23"/>
+      <c r="L66" s="23"/>
+      <c r="M66" s="23"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A67" s="30" t="s">
+      <c r="A67" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="B67" s="24"/>
-      <c r="C67" s="32"/>
-      <c r="D67" s="32"/>
-      <c r="E67" s="24"/>
-      <c r="F67" s="24"/>
-      <c r="G67" s="24"/>
-      <c r="H67" s="24"/>
-      <c r="I67" s="24"/>
-      <c r="J67" s="24"/>
-      <c r="K67" s="24"/>
-      <c r="L67" s="24"/>
-      <c r="M67" s="24"/>
+      <c r="B67" s="23"/>
+      <c r="C67" s="30"/>
+      <c r="D67" s="30"/>
+      <c r="E67" s="23"/>
+      <c r="F67" s="23"/>
+      <c r="G67" s="23"/>
+      <c r="H67" s="23"/>
+      <c r="I67" s="23"/>
+      <c r="J67" s="23"/>
+      <c r="K67" s="23"/>
+      <c r="L67" s="23"/>
+      <c r="M67" s="23"/>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A68" s="30" t="s">
+      <c r="A68" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="B68" s="24"/>
-      <c r="C68" s="32"/>
-      <c r="D68" s="32"/>
-      <c r="E68" s="24"/>
-      <c r="F68" s="24"/>
-      <c r="G68" s="24"/>
-      <c r="H68" s="24"/>
-      <c r="I68" s="24"/>
-      <c r="J68" s="24"/>
-      <c r="K68" s="24"/>
-      <c r="L68" s="24"/>
-      <c r="M68" s="24"/>
+      <c r="B68" s="23"/>
+      <c r="C68" s="30"/>
+      <c r="D68" s="30"/>
+      <c r="E68" s="23"/>
+      <c r="F68" s="23"/>
+      <c r="G68" s="23"/>
+      <c r="H68" s="23"/>
+      <c r="I68" s="23"/>
+      <c r="J68" s="23"/>
+      <c r="K68" s="23"/>
+      <c r="L68" s="23"/>
+      <c r="M68" s="23"/>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A69" s="30" t="s">
+      <c r="A69" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="B69" s="24"/>
-      <c r="C69" s="32"/>
-      <c r="D69" s="32"/>
-      <c r="E69" s="24"/>
-      <c r="F69" s="24"/>
-      <c r="G69" s="24"/>
-      <c r="H69" s="24"/>
-      <c r="I69" s="24"/>
-      <c r="J69" s="24"/>
-      <c r="K69" s="24"/>
-      <c r="L69" s="24"/>
-      <c r="M69" s="24"/>
+      <c r="B69" s="23"/>
+      <c r="C69" s="30"/>
+      <c r="D69" s="30"/>
+      <c r="E69" s="23"/>
+      <c r="F69" s="23"/>
+      <c r="G69" s="23"/>
+      <c r="H69" s="23"/>
+      <c r="I69" s="23"/>
+      <c r="J69" s="23"/>
+      <c r="K69" s="23"/>
+      <c r="L69" s="23"/>
+      <c r="M69" s="23"/>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A70" s="30" t="s">
+      <c r="A70" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="B70" s="24"/>
-      <c r="C70" s="32"/>
-      <c r="D70" s="32"/>
-      <c r="E70" s="24"/>
-      <c r="F70" s="24"/>
-      <c r="G70" s="24"/>
-      <c r="H70" s="24"/>
-      <c r="I70" s="24"/>
-      <c r="J70" s="24"/>
-      <c r="K70" s="24"/>
-      <c r="L70" s="24"/>
-      <c r="M70" s="24"/>
+      <c r="B70" s="23"/>
+      <c r="C70" s="30"/>
+      <c r="D70" s="30"/>
+      <c r="E70" s="23"/>
+      <c r="F70" s="23"/>
+      <c r="G70" s="23"/>
+      <c r="H70" s="23"/>
+      <c r="I70" s="23"/>
+      <c r="J70" s="23"/>
+      <c r="K70" s="23"/>
+      <c r="L70" s="23"/>
+      <c r="M70" s="23"/>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A71" s="30" t="s">
+      <c r="A71" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="B71" s="24"/>
-      <c r="C71" s="32"/>
-      <c r="D71" s="32"/>
-      <c r="E71" s="24"/>
-      <c r="F71" s="24"/>
-      <c r="G71" s="24"/>
-      <c r="H71" s="24"/>
-      <c r="I71" s="24"/>
-      <c r="J71" s="24"/>
-      <c r="K71" s="24"/>
-      <c r="L71" s="24"/>
-      <c r="M71" s="24"/>
+      <c r="B71" s="23"/>
+      <c r="C71" s="30"/>
+      <c r="D71" s="30"/>
+      <c r="E71" s="23"/>
+      <c r="F71" s="23"/>
+      <c r="G71" s="23"/>
+      <c r="H71" s="23"/>
+      <c r="I71" s="23"/>
+      <c r="J71" s="23"/>
+      <c r="K71" s="23"/>
+      <c r="L71" s="23"/>
+      <c r="M71" s="23"/>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A72" s="30" t="s">
+      <c r="A72" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="B72" s="24"/>
-      <c r="C72" s="32"/>
-      <c r="D72" s="32"/>
-      <c r="E72" s="24"/>
-      <c r="F72" s="24"/>
-      <c r="G72" s="24"/>
-      <c r="H72" s="24"/>
-      <c r="I72" s="24"/>
-      <c r="J72" s="24"/>
-      <c r="K72" s="24"/>
-      <c r="L72" s="24"/>
-      <c r="M72" s="24"/>
+      <c r="B72" s="23"/>
+      <c r="C72" s="30"/>
+      <c r="D72" s="30"/>
+      <c r="E72" s="23"/>
+      <c r="F72" s="23"/>
+      <c r="G72" s="23"/>
+      <c r="H72" s="23"/>
+      <c r="I72" s="23"/>
+      <c r="J72" s="23"/>
+      <c r="K72" s="23"/>
+      <c r="L72" s="23"/>
+      <c r="M72" s="23"/>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A73" s="30" t="s">
+      <c r="A73" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="B73" s="24"/>
-      <c r="C73" s="32"/>
-      <c r="D73" s="32"/>
-      <c r="E73" s="24"/>
-      <c r="F73" s="24"/>
-      <c r="G73" s="24"/>
-      <c r="H73" s="24"/>
-      <c r="I73" s="24"/>
-      <c r="J73" s="24"/>
-      <c r="K73" s="24"/>
-      <c r="L73" s="24"/>
-      <c r="M73" s="24"/>
+      <c r="B73" s="23"/>
+      <c r="C73" s="30"/>
+      <c r="D73" s="30"/>
+      <c r="E73" s="23"/>
+      <c r="F73" s="23"/>
+      <c r="G73" s="23"/>
+      <c r="H73" s="23"/>
+      <c r="I73" s="23"/>
+      <c r="J73" s="23"/>
+      <c r="K73" s="23"/>
+      <c r="L73" s="23"/>
+      <c r="M73" s="23"/>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A74" s="30" t="s">
+      <c r="A74" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="B74" s="24"/>
-      <c r="C74" s="32"/>
-      <c r="D74" s="32"/>
-      <c r="E74" s="24"/>
-      <c r="F74" s="24"/>
-      <c r="G74" s="24"/>
-      <c r="H74" s="24"/>
-      <c r="I74" s="24"/>
-      <c r="J74" s="24"/>
-      <c r="K74" s="24"/>
-      <c r="L74" s="24"/>
-      <c r="M74" s="24"/>
+      <c r="B74" s="23"/>
+      <c r="C74" s="30"/>
+      <c r="D74" s="30"/>
+      <c r="E74" s="23"/>
+      <c r="F74" s="23"/>
+      <c r="G74" s="23"/>
+      <c r="H74" s="23"/>
+      <c r="I74" s="23"/>
+      <c r="J74" s="23"/>
+      <c r="K74" s="23"/>
+      <c r="L74" s="23"/>
+      <c r="M74" s="23"/>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A75" s="30" t="s">
+      <c r="A75" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="B75" s="24"/>
-      <c r="C75" s="32"/>
-      <c r="D75" s="32"/>
-      <c r="E75" s="24"/>
-      <c r="F75" s="24"/>
-      <c r="G75" s="24"/>
-      <c r="H75" s="24"/>
-      <c r="I75" s="24"/>
-      <c r="J75" s="24"/>
-      <c r="K75" s="24"/>
-      <c r="L75" s="24"/>
-      <c r="M75" s="24"/>
+      <c r="B75" s="23"/>
+      <c r="C75" s="30"/>
+      <c r="D75" s="30"/>
+      <c r="E75" s="23"/>
+      <c r="F75" s="23"/>
+      <c r="G75" s="23"/>
+      <c r="H75" s="23"/>
+      <c r="I75" s="23"/>
+      <c r="J75" s="23"/>
+      <c r="K75" s="23"/>
+      <c r="L75" s="23"/>
+      <c r="M75" s="23"/>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A76" s="30" t="s">
+      <c r="A76" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="B76" s="24"/>
-      <c r="C76" s="32"/>
-      <c r="D76" s="32"/>
-      <c r="E76" s="24"/>
-      <c r="F76" s="24"/>
-      <c r="G76" s="24"/>
-      <c r="H76" s="24"/>
-      <c r="I76" s="24"/>
-      <c r="J76" s="24"/>
-      <c r="K76" s="24"/>
-      <c r="L76" s="24"/>
-      <c r="M76" s="24"/>
+      <c r="B76" s="23"/>
+      <c r="C76" s="30"/>
+      <c r="D76" s="30"/>
+      <c r="E76" s="23"/>
+      <c r="F76" s="23"/>
+      <c r="G76" s="23"/>
+      <c r="H76" s="23"/>
+      <c r="I76" s="23"/>
+      <c r="J76" s="23"/>
+      <c r="K76" s="23"/>
+      <c r="L76" s="23"/>
+      <c r="M76" s="23"/>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A77" s="30" t="s">
+      <c r="A77" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="B77" s="24"/>
-      <c r="C77" s="32"/>
-      <c r="D77" s="32"/>
-      <c r="E77" s="24"/>
-      <c r="F77" s="24"/>
-      <c r="G77" s="24"/>
-      <c r="H77" s="24"/>
-      <c r="I77" s="24"/>
-      <c r="J77" s="24"/>
-      <c r="K77" s="24"/>
-      <c r="L77" s="24"/>
-      <c r="M77" s="24"/>
+      <c r="B77" s="23"/>
+      <c r="C77" s="30"/>
+      <c r="D77" s="30"/>
+      <c r="E77" s="23"/>
+      <c r="F77" s="23"/>
+      <c r="G77" s="23"/>
+      <c r="H77" s="23"/>
+      <c r="I77" s="23"/>
+      <c r="J77" s="23"/>
+      <c r="K77" s="23"/>
+      <c r="L77" s="23"/>
+      <c r="M77" s="23"/>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A78" s="30" t="s">
+      <c r="A78" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="B78" s="24"/>
-      <c r="C78" s="32"/>
-      <c r="D78" s="32"/>
-      <c r="E78" s="24"/>
-      <c r="F78" s="24"/>
-      <c r="G78" s="24"/>
-      <c r="H78" s="24"/>
-      <c r="I78" s="24"/>
-      <c r="J78" s="24"/>
-      <c r="K78" s="24"/>
-      <c r="L78" s="24"/>
-      <c r="M78" s="24"/>
+      <c r="B78" s="23"/>
+      <c r="C78" s="30"/>
+      <c r="D78" s="30"/>
+      <c r="E78" s="23"/>
+      <c r="F78" s="23"/>
+      <c r="G78" s="23"/>
+      <c r="H78" s="23"/>
+      <c r="I78" s="23"/>
+      <c r="J78" s="23"/>
+      <c r="K78" s="23"/>
+      <c r="L78" s="23"/>
+      <c r="M78" s="23"/>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A79" s="30" t="s">
+      <c r="A79" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="B79" s="24"/>
-      <c r="C79" s="32"/>
-      <c r="D79" s="32"/>
-      <c r="E79" s="24"/>
-      <c r="F79" s="24"/>
-      <c r="G79" s="24"/>
-      <c r="H79" s="24"/>
-      <c r="I79" s="24"/>
-      <c r="J79" s="24"/>
-      <c r="K79" s="24"/>
-      <c r="L79" s="24"/>
-      <c r="M79" s="24"/>
+      <c r="B79" s="23"/>
+      <c r="C79" s="30"/>
+      <c r="D79" s="30"/>
+      <c r="E79" s="23"/>
+      <c r="F79" s="23"/>
+      <c r="G79" s="23"/>
+      <c r="H79" s="23"/>
+      <c r="I79" s="23"/>
+      <c r="J79" s="23"/>
+      <c r="K79" s="23"/>
+      <c r="L79" s="23"/>
+      <c r="M79" s="23"/>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A80" s="30" t="s">
+      <c r="A80" s="28" t="s">
         <v>93</v>
       </c>
-      <c r="B80" s="24"/>
-      <c r="C80" s="32"/>
-      <c r="D80" s="32"/>
-      <c r="E80" s="24"/>
-      <c r="F80" s="24"/>
-      <c r="G80" s="24"/>
-      <c r="H80" s="24"/>
-      <c r="I80" s="24"/>
-      <c r="J80" s="24"/>
-      <c r="K80" s="24"/>
-      <c r="L80" s="24"/>
-      <c r="M80" s="24"/>
+      <c r="B80" s="23"/>
+      <c r="C80" s="30"/>
+      <c r="D80" s="30"/>
+      <c r="E80" s="23"/>
+      <c r="F80" s="23"/>
+      <c r="G80" s="23"/>
+      <c r="H80" s="23"/>
+      <c r="I80" s="23"/>
+      <c r="J80" s="23"/>
+      <c r="K80" s="23"/>
+      <c r="L80" s="23"/>
+      <c r="M80" s="23"/>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A81" s="30" t="s">
+      <c r="A81" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="B81" s="24"/>
-      <c r="C81" s="32"/>
-      <c r="D81" s="32"/>
-      <c r="E81" s="24"/>
-      <c r="F81" s="24"/>
-      <c r="G81" s="24"/>
-      <c r="H81" s="24"/>
-      <c r="I81" s="24"/>
-      <c r="J81" s="24"/>
-      <c r="K81" s="24"/>
-      <c r="L81" s="24"/>
-      <c r="M81" s="24"/>
+      <c r="B81" s="23"/>
+      <c r="C81" s="30"/>
+      <c r="D81" s="30"/>
+      <c r="E81" s="23"/>
+      <c r="F81" s="23"/>
+      <c r="G81" s="23"/>
+      <c r="H81" s="23"/>
+      <c r="I81" s="23"/>
+      <c r="J81" s="23"/>
+      <c r="K81" s="23"/>
+      <c r="L81" s="23"/>
+      <c r="M81" s="23"/>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A82" s="30" t="s">
+      <c r="A82" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="B82" s="24"/>
-      <c r="C82" s="32"/>
-      <c r="D82" s="32"/>
-      <c r="E82" s="24"/>
-      <c r="F82" s="24"/>
-      <c r="G82" s="24"/>
-      <c r="H82" s="24"/>
-      <c r="I82" s="24"/>
-      <c r="J82" s="24"/>
-      <c r="K82" s="24"/>
-      <c r="L82" s="24"/>
-      <c r="M82" s="24"/>
+      <c r="B82" s="23"/>
+      <c r="C82" s="30"/>
+      <c r="D82" s="30"/>
+      <c r="E82" s="23"/>
+      <c r="F82" s="23"/>
+      <c r="G82" s="23"/>
+      <c r="H82" s="23"/>
+      <c r="I82" s="23"/>
+      <c r="J82" s="23"/>
+      <c r="K82" s="23"/>
+      <c r="L82" s="23"/>
+      <c r="M82" s="23"/>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A83" s="30" t="s">
+      <c r="A83" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="B83" s="24"/>
-      <c r="C83" s="32"/>
-      <c r="D83" s="32"/>
-      <c r="E83" s="24"/>
-      <c r="F83" s="24"/>
-      <c r="G83" s="24"/>
-      <c r="H83" s="24"/>
-      <c r="I83" s="24"/>
-      <c r="J83" s="24"/>
-      <c r="K83" s="24"/>
-      <c r="L83" s="24"/>
-      <c r="M83" s="24"/>
+      <c r="B83" s="23"/>
+      <c r="C83" s="30"/>
+      <c r="D83" s="30"/>
+      <c r="E83" s="23"/>
+      <c r="F83" s="23"/>
+      <c r="G83" s="23"/>
+      <c r="H83" s="23"/>
+      <c r="I83" s="23"/>
+      <c r="J83" s="23"/>
+      <c r="K83" s="23"/>
+      <c r="L83" s="23"/>
+      <c r="M83" s="23"/>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A84" s="30" t="s">
+      <c r="A84" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="B84" s="24"/>
-      <c r="C84" s="32"/>
-      <c r="D84" s="32"/>
-      <c r="E84" s="24"/>
-      <c r="F84" s="24"/>
-      <c r="G84" s="24"/>
-      <c r="H84" s="24"/>
-      <c r="I84" s="24"/>
-      <c r="J84" s="24"/>
-      <c r="K84" s="24"/>
-      <c r="L84" s="24"/>
-      <c r="M84" s="24"/>
+      <c r="B84" s="23"/>
+      <c r="C84" s="30"/>
+      <c r="D84" s="30"/>
+      <c r="E84" s="23"/>
+      <c r="F84" s="23"/>
+      <c r="G84" s="23"/>
+      <c r="H84" s="23"/>
+      <c r="I84" s="23"/>
+      <c r="J84" s="23"/>
+      <c r="K84" s="23"/>
+      <c r="L84" s="23"/>
+      <c r="M84" s="23"/>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A85" s="30" t="s">
+      <c r="A85" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="B85" s="24"/>
-      <c r="C85" s="32"/>
-      <c r="D85" s="32"/>
-      <c r="E85" s="24"/>
-      <c r="F85" s="24"/>
-      <c r="G85" s="24"/>
-      <c r="H85" s="24"/>
-      <c r="I85" s="24"/>
-      <c r="J85" s="24"/>
-      <c r="K85" s="24"/>
-      <c r="L85" s="24"/>
-      <c r="M85" s="24"/>
+      <c r="B85" s="23"/>
+      <c r="C85" s="30"/>
+      <c r="D85" s="30"/>
+      <c r="E85" s="23"/>
+      <c r="F85" s="23"/>
+      <c r="G85" s="23"/>
+      <c r="H85" s="23"/>
+      <c r="I85" s="23"/>
+      <c r="J85" s="23"/>
+      <c r="K85" s="23"/>
+      <c r="L85" s="23"/>
+      <c r="M85" s="23"/>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A86" s="30" t="s">
+      <c r="A86" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="B86" s="24"/>
-      <c r="C86" s="32"/>
-      <c r="D86" s="32"/>
-      <c r="E86" s="24"/>
-      <c r="F86" s="24"/>
-      <c r="G86" s="24"/>
-      <c r="H86" s="24"/>
-      <c r="I86" s="24"/>
-      <c r="J86" s="24"/>
-      <c r="K86" s="24"/>
-      <c r="L86" s="24"/>
-      <c r="M86" s="24"/>
+      <c r="B86" s="23"/>
+      <c r="C86" s="30"/>
+      <c r="D86" s="30"/>
+      <c r="E86" s="23"/>
+      <c r="F86" s="23"/>
+      <c r="G86" s="23"/>
+      <c r="H86" s="23"/>
+      <c r="I86" s="23"/>
+      <c r="J86" s="23"/>
+      <c r="K86" s="23"/>
+      <c r="L86" s="23"/>
+      <c r="M86" s="23"/>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A87" s="30" t="s">
+      <c r="A87" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="B87" s="24"/>
-      <c r="C87" s="32"/>
-      <c r="D87" s="32"/>
-      <c r="E87" s="24"/>
-      <c r="F87" s="24"/>
-      <c r="G87" s="24"/>
-      <c r="H87" s="24"/>
-      <c r="I87" s="24"/>
-      <c r="J87" s="24"/>
-      <c r="K87" s="24"/>
-      <c r="L87" s="24"/>
-      <c r="M87" s="24"/>
+      <c r="B87" s="23"/>
+      <c r="C87" s="30"/>
+      <c r="D87" s="30"/>
+      <c r="E87" s="23"/>
+      <c r="F87" s="23"/>
+      <c r="G87" s="23"/>
+      <c r="H87" s="23"/>
+      <c r="I87" s="23"/>
+      <c r="J87" s="23"/>
+      <c r="K87" s="23"/>
+      <c r="L87" s="23"/>
+      <c r="M87" s="23"/>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A88" s="30" t="s">
+      <c r="A88" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="B88" s="24"/>
-      <c r="C88" s="32"/>
-      <c r="D88" s="32"/>
-      <c r="E88" s="24"/>
-      <c r="F88" s="24"/>
-      <c r="G88" s="24"/>
-      <c r="H88" s="24"/>
-      <c r="I88" s="24"/>
-      <c r="J88" s="24"/>
-      <c r="K88" s="24"/>
-      <c r="L88" s="24"/>
-      <c r="M88" s="24"/>
+      <c r="B88" s="23"/>
+      <c r="C88" s="30"/>
+      <c r="D88" s="30"/>
+      <c r="E88" s="23"/>
+      <c r="F88" s="23"/>
+      <c r="G88" s="23"/>
+      <c r="H88" s="23"/>
+      <c r="I88" s="23"/>
+      <c r="J88" s="23"/>
+      <c r="K88" s="23"/>
+      <c r="L88" s="23"/>
+      <c r="M88" s="23"/>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A89" s="30" t="s">
+      <c r="A89" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="B89" s="24"/>
-      <c r="C89" s="32"/>
-      <c r="D89" s="32"/>
-      <c r="E89" s="24"/>
-      <c r="F89" s="24"/>
-      <c r="G89" s="24"/>
-      <c r="H89" s="24"/>
-      <c r="I89" s="24"/>
-      <c r="J89" s="24"/>
-      <c r="K89" s="24"/>
-      <c r="L89" s="24"/>
-      <c r="M89" s="24"/>
+      <c r="B89" s="23"/>
+      <c r="C89" s="30"/>
+      <c r="D89" s="30"/>
+      <c r="E89" s="23"/>
+      <c r="F89" s="23"/>
+      <c r="G89" s="23"/>
+      <c r="H89" s="23"/>
+      <c r="I89" s="23"/>
+      <c r="J89" s="23"/>
+      <c r="K89" s="23"/>
+      <c r="L89" s="23"/>
+      <c r="M89" s="23"/>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A90" s="30" t="s">
+      <c r="A90" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="B90" s="24"/>
-      <c r="C90" s="32"/>
-      <c r="D90" s="32"/>
-      <c r="E90" s="24"/>
-      <c r="F90" s="24"/>
-      <c r="G90" s="24"/>
-      <c r="H90" s="24"/>
-      <c r="I90" s="24"/>
-      <c r="J90" s="24"/>
-      <c r="K90" s="24"/>
-      <c r="L90" s="24"/>
-      <c r="M90" s="24"/>
+      <c r="B90" s="23"/>
+      <c r="C90" s="30"/>
+      <c r="D90" s="30"/>
+      <c r="E90" s="23"/>
+      <c r="F90" s="23"/>
+      <c r="G90" s="23"/>
+      <c r="H90" s="23"/>
+      <c r="I90" s="23"/>
+      <c r="J90" s="23"/>
+      <c r="K90" s="23"/>
+      <c r="L90" s="23"/>
+      <c r="M90" s="23"/>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A91" s="30" t="s">
+      <c r="A91" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="B91" s="24"/>
-      <c r="C91" s="32"/>
-      <c r="D91" s="32"/>
-      <c r="E91" s="24"/>
-      <c r="F91" s="24"/>
-      <c r="G91" s="24"/>
-      <c r="H91" s="24"/>
-      <c r="I91" s="24"/>
-      <c r="J91" s="24"/>
-      <c r="K91" s="24"/>
-      <c r="L91" s="24"/>
-      <c r="M91" s="24"/>
+      <c r="B91" s="23"/>
+      <c r="C91" s="30"/>
+      <c r="D91" s="30"/>
+      <c r="E91" s="23"/>
+      <c r="F91" s="23"/>
+      <c r="G91" s="23"/>
+      <c r="H91" s="23"/>
+      <c r="I91" s="23"/>
+      <c r="J91" s="23"/>
+      <c r="K91" s="23"/>
+      <c r="L91" s="23"/>
+      <c r="M91" s="23"/>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A92" s="30" t="s">
+      <c r="A92" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="B92" s="24"/>
-      <c r="C92" s="32"/>
-      <c r="D92" s="32"/>
-      <c r="E92" s="24"/>
-      <c r="F92" s="24"/>
-      <c r="G92" s="24"/>
-      <c r="H92" s="24"/>
-      <c r="I92" s="24"/>
-      <c r="J92" s="24"/>
-      <c r="K92" s="24"/>
-      <c r="L92" s="24"/>
-      <c r="M92" s="24"/>
+      <c r="B92" s="23"/>
+      <c r="C92" s="30"/>
+      <c r="D92" s="30"/>
+      <c r="E92" s="23"/>
+      <c r="F92" s="23"/>
+      <c r="G92" s="23"/>
+      <c r="H92" s="23"/>
+      <c r="I92" s="23"/>
+      <c r="J92" s="23"/>
+      <c r="K92" s="23"/>
+      <c r="L92" s="23"/>
+      <c r="M92" s="23"/>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A93" s="30" t="s">
+      <c r="A93" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="B93" s="24"/>
-      <c r="C93" s="32"/>
-      <c r="D93" s="32"/>
-      <c r="E93" s="24"/>
-      <c r="F93" s="24"/>
-      <c r="G93" s="24"/>
-      <c r="H93" s="24"/>
-      <c r="I93" s="24"/>
-      <c r="J93" s="24"/>
-      <c r="K93" s="24"/>
-      <c r="L93" s="24"/>
-      <c r="M93" s="24"/>
+      <c r="B93" s="23"/>
+      <c r="C93" s="30"/>
+      <c r="D93" s="30"/>
+      <c r="E93" s="23"/>
+      <c r="F93" s="23"/>
+      <c r="G93" s="23"/>
+      <c r="H93" s="23"/>
+      <c r="I93" s="23"/>
+      <c r="J93" s="23"/>
+      <c r="K93" s="23"/>
+      <c r="L93" s="23"/>
+      <c r="M93" s="23"/>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A94" s="30" t="s">
+      <c r="A94" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="B94" s="24"/>
-      <c r="C94" s="32"/>
-      <c r="D94" s="32"/>
-      <c r="E94" s="24"/>
-      <c r="F94" s="24"/>
-      <c r="G94" s="24"/>
-      <c r="H94" s="24"/>
-      <c r="I94" s="24"/>
-      <c r="J94" s="24"/>
-      <c r="K94" s="24"/>
-      <c r="L94" s="24"/>
-      <c r="M94" s="24"/>
+      <c r="B94" s="23"/>
+      <c r="C94" s="30"/>
+      <c r="D94" s="30"/>
+      <c r="E94" s="23"/>
+      <c r="F94" s="23"/>
+      <c r="G94" s="23"/>
+      <c r="H94" s="23"/>
+      <c r="I94" s="23"/>
+      <c r="J94" s="23"/>
+      <c r="K94" s="23"/>
+      <c r="L94" s="23"/>
+      <c r="M94" s="23"/>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A95" s="30" t="s">
+      <c r="A95" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="B95" s="24"/>
-      <c r="C95" s="32"/>
-      <c r="D95" s="32"/>
-      <c r="E95" s="24"/>
-      <c r="F95" s="24"/>
-      <c r="G95" s="24"/>
-      <c r="H95" s="24"/>
-      <c r="I95" s="24"/>
-      <c r="J95" s="24"/>
-      <c r="K95" s="24"/>
-      <c r="L95" s="24"/>
-      <c r="M95" s="24"/>
+      <c r="B95" s="23"/>
+      <c r="C95" s="30"/>
+      <c r="D95" s="30"/>
+      <c r="E95" s="23"/>
+      <c r="F95" s="23"/>
+      <c r="G95" s="23"/>
+      <c r="H95" s="23"/>
+      <c r="I95" s="23"/>
+      <c r="J95" s="23"/>
+      <c r="K95" s="23"/>
+      <c r="L95" s="23"/>
+      <c r="M95" s="23"/>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A96" s="30" t="s">
+      <c r="A96" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="B96" s="24"/>
-      <c r="C96" s="32"/>
-      <c r="D96" s="32"/>
-      <c r="E96" s="24"/>
-      <c r="F96" s="24"/>
-      <c r="G96" s="24"/>
-      <c r="H96" s="24"/>
-      <c r="I96" s="24"/>
-      <c r="J96" s="24"/>
-      <c r="K96" s="24"/>
-      <c r="L96" s="24"/>
-      <c r="M96" s="24"/>
+      <c r="B96" s="23"/>
+      <c r="C96" s="30"/>
+      <c r="D96" s="30"/>
+      <c r="E96" s="23"/>
+      <c r="F96" s="23"/>
+      <c r="G96" s="23"/>
+      <c r="H96" s="23"/>
+      <c r="I96" s="23"/>
+      <c r="J96" s="23"/>
+      <c r="K96" s="23"/>
+      <c r="L96" s="23"/>
+      <c r="M96" s="23"/>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A97" s="30" t="s">
+      <c r="A97" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="B97" s="24"/>
-      <c r="C97" s="32"/>
-      <c r="D97" s="32"/>
-      <c r="E97" s="24"/>
-      <c r="F97" s="24"/>
-      <c r="G97" s="24"/>
-      <c r="H97" s="24"/>
-      <c r="I97" s="24"/>
-      <c r="J97" s="24"/>
-      <c r="K97" s="24"/>
-      <c r="L97" s="24"/>
-      <c r="M97" s="24"/>
+      <c r="B97" s="23"/>
+      <c r="C97" s="30"/>
+      <c r="D97" s="30"/>
+      <c r="E97" s="23"/>
+      <c r="F97" s="23"/>
+      <c r="G97" s="23"/>
+      <c r="H97" s="23"/>
+      <c r="I97" s="23"/>
+      <c r="J97" s="23"/>
+      <c r="K97" s="23"/>
+      <c r="L97" s="23"/>
+      <c r="M97" s="23"/>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A98" s="30" t="s">
+      <c r="A98" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="B98" s="24"/>
-      <c r="C98" s="32"/>
-      <c r="D98" s="32"/>
-      <c r="E98" s="24"/>
-      <c r="F98" s="24"/>
-      <c r="G98" s="24"/>
-      <c r="H98" s="24"/>
-      <c r="I98" s="24"/>
-      <c r="J98" s="24"/>
-      <c r="K98" s="24"/>
-      <c r="L98" s="24"/>
-      <c r="M98" s="24"/>
+      <c r="B98" s="23"/>
+      <c r="C98" s="30"/>
+      <c r="D98" s="30"/>
+      <c r="E98" s="23"/>
+      <c r="F98" s="23"/>
+      <c r="G98" s="23"/>
+      <c r="H98" s="23"/>
+      <c r="I98" s="23"/>
+      <c r="J98" s="23"/>
+      <c r="K98" s="23"/>
+      <c r="L98" s="23"/>
+      <c r="M98" s="23"/>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A99" s="30" t="s">
+      <c r="A99" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="B99" s="24"/>
-      <c r="C99" s="32"/>
-      <c r="D99" s="32"/>
-      <c r="E99" s="24"/>
-      <c r="F99" s="24"/>
-      <c r="G99" s="24"/>
-      <c r="H99" s="24"/>
-      <c r="I99" s="24"/>
-      <c r="J99" s="24"/>
-      <c r="K99" s="24"/>
-      <c r="L99" s="24"/>
-      <c r="M99" s="24"/>
+      <c r="B99" s="23"/>
+      <c r="C99" s="30"/>
+      <c r="D99" s="30"/>
+      <c r="E99" s="23"/>
+      <c r="F99" s="23"/>
+      <c r="G99" s="23"/>
+      <c r="H99" s="23"/>
+      <c r="I99" s="23"/>
+      <c r="J99" s="23"/>
+      <c r="K99" s="23"/>
+      <c r="L99" s="23"/>
+      <c r="M99" s="23"/>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A100" s="30" t="s">
+      <c r="A100" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="B100" s="24"/>
-      <c r="C100" s="32"/>
-      <c r="D100" s="32"/>
-      <c r="E100" s="24"/>
-      <c r="F100" s="24"/>
-      <c r="G100" s="24"/>
-      <c r="H100" s="24"/>
-      <c r="I100" s="24"/>
-      <c r="J100" s="24"/>
-      <c r="K100" s="24"/>
-      <c r="L100" s="24"/>
-      <c r="M100" s="24"/>
+      <c r="B100" s="23"/>
+      <c r="C100" s="30"/>
+      <c r="D100" s="30"/>
+      <c r="E100" s="23"/>
+      <c r="F100" s="23"/>
+      <c r="G100" s="23"/>
+      <c r="H100" s="23"/>
+      <c r="I100" s="23"/>
+      <c r="J100" s="23"/>
+      <c r="K100" s="23"/>
+      <c r="L100" s="23"/>
+      <c r="M100" s="23"/>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A101" s="30" t="s">
+      <c r="A101" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="B101" s="24"/>
-      <c r="C101" s="32"/>
-      <c r="D101" s="32"/>
-      <c r="E101" s="24"/>
-      <c r="F101" s="24"/>
-      <c r="G101" s="24"/>
-      <c r="H101" s="24"/>
-      <c r="I101" s="24"/>
-      <c r="J101" s="24"/>
-      <c r="K101" s="24"/>
-      <c r="L101" s="24"/>
-      <c r="M101" s="24"/>
+      <c r="B101" s="23"/>
+      <c r="C101" s="30"/>
+      <c r="D101" s="30"/>
+      <c r="E101" s="23"/>
+      <c r="F101" s="23"/>
+      <c r="G101" s="23"/>
+      <c r="H101" s="23"/>
+      <c r="I101" s="23"/>
+      <c r="J101" s="23"/>
+      <c r="K101" s="23"/>
+      <c r="L101" s="23"/>
+      <c r="M101" s="23"/>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A102" s="30" t="s">
+      <c r="A102" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="B102" s="24"/>
-      <c r="C102" s="32"/>
-      <c r="D102" s="32"/>
-      <c r="E102" s="24"/>
-      <c r="F102" s="24"/>
-      <c r="G102" s="24"/>
-      <c r="H102" s="24"/>
-      <c r="I102" s="24"/>
-      <c r="J102" s="24"/>
-      <c r="K102" s="24"/>
-      <c r="L102" s="24"/>
-      <c r="M102" s="24"/>
+      <c r="B102" s="23"/>
+      <c r="C102" s="30"/>
+      <c r="D102" s="30"/>
+      <c r="E102" s="23"/>
+      <c r="F102" s="23"/>
+      <c r="G102" s="23"/>
+      <c r="H102" s="23"/>
+      <c r="I102" s="23"/>
+      <c r="J102" s="23"/>
+      <c r="K102" s="23"/>
+      <c r="L102" s="23"/>
+      <c r="M102" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -8907,14 +8899,14 @@
       <c r="K1" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="L1" s="33" t="s">
+      <c r="L1" s="31" t="s">
         <v>568</v>
       </c>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A2" s="17" t="s">

--- a/example/JSUB999999_jga_metadata.xlsx
+++ b/example/JSUB999999_jga_metadata.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D0E273-24FF-4CAC-B696-83AB18E99681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A45ECE85-A78F-43E6-8688-2AD3F8BB688D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="877">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="887">
   <si>
     <t>E-mail</t>
     <phoneticPr fontId="1"/>
@@ -1165,9 +1165,6 @@
   <si>
     <t>Dataset-1</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Dataset-2</t>
   </si>
   <si>
     <t>Analysis_ref</t>
@@ -1293,13 +1290,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t># それぞれのエクセルシートが JGA メタデータオブジェクトに対応しています。</t>
-    <rPh sb="32" eb="34">
-      <t>タイオウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>JGA へのデータ登録については、以下のウェブサイトをご覧ください。</t>
     <rPh sb="9" eb="11">
       <t>トウロク</t>
@@ -1313,13 +1303,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>連絡先: jga@ddbj.nig.ac.jp</t>
-    <rPh sb="0" eb="3">
-      <t>レンラクサキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>必須項目</t>
     <rPh sb="0" eb="2">
       <t>ヒッス</t>
@@ -1467,19 +1450,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t># 登録日。JGA で記入します</t>
-    <rPh sb="2" eb="4">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ビ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>キニュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Submission Date</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1489,32 +1459,6 @@
   </si>
   <si>
     <t>Reverse</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>JGA メタデータ登録シート</t>
-    <rPh sb="9" eb="11">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>JGA へデータを登録するためには、データ提供を NBDC に申請し承認されている必要があります。</t>
-    <rPh sb="9" eb="11">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>テイキョウ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>シンセイ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ショウニン</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ヒツヨウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1775,25 +1719,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t># 個人に対する匿名化された ID を記載します。</t>
-    <rPh sb="2" eb="4">
-      <t>コジン</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>トクメイ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>キサイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t># Alias (オブジェクトに割り振られる連番) で他のオブジェクトから参照します。1 行が 1 Sample に対応します。</t>
     <rPh sb="16" eb="17">
       <t>ワ</t>
@@ -2298,25 +2223,6 @@
     <t># Analysis の概要</t>
     <rPh sb="12" eb="14">
       <t>ガイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t># データ提供申請に対し NBDC から発行された Research ID (例: hum0004)</t>
-    <rPh sb="5" eb="7">
-      <t>テイキョウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>シンセイ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ハッコウ</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>レイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2404,22 +2310,6 @@
     <t xml:space="preserve">Genomic variant calling </t>
   </si>
   <si>
-    <t># Sample の内容を簡潔に表すユニークなタイトルを入力します。</t>
-    <rPh sb="10" eb="12">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>カンケツ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>アラワ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t># Experiment の内容を簡潔に表すユニークなタイトルを入力します。</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2554,18 +2444,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Sample ID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Subject ID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Gender</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Attributes</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2960,20 +2838,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Histological Type</t>
-  </si>
-  <si>
-    <t>Is Tumor</t>
-  </si>
-  <si>
-    <t>Population</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Tissue</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t># サンプルが取得された組織。例 breast</t>
     <rPh sb="7" eb="9">
       <t>シュトク</t>
@@ -3020,10 +2884,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Affection Status</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t># 対象者の case/control ステータス。例 control、case、cancer</t>
     <rPh sb="2" eb="4">
       <t>タイショウ</t>
@@ -3070,19 +2930,6 @@
     </rPh>
     <rPh sb="51" eb="53">
       <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t># 個人の性別 (male, female) を記載します。</t>
-    <rPh sb="2" eb="4">
-      <t>コジン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>セイベツ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>キサイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -3504,71 +3351,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t># ICD-10 http://apps.who.int/classifications/icd10/browse/2016/en
-該当する疾患分類が複数ある場合は複数記入します。</t>
-    <rPh sb="66" eb="68">
-      <t>ガイトウ</t>
-    </rPh>
-    <rPh sb="70" eb="72">
-      <t>シッカン</t>
-    </rPh>
-    <rPh sb="72" eb="74">
-      <t>ブンルイ</t>
-    </rPh>
-    <rPh sb="75" eb="77">
-      <t>フクスウ</t>
-    </rPh>
-    <rPh sb="79" eb="81">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="82" eb="84">
-      <t>フクスウ</t>
-    </rPh>
-    <rPh sb="84" eb="86">
-      <t>キニュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t># Diseases/Traits/Exposures related to the study</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>例: Cancer, Cardiovascular disease, Tobacco use disorder 等のキーワードを記入します
-該当する用語がある場合は Human Phenotype Ontology http://human-phenotype-ontology.github.io の用語を記入します</t>
-    <rPh sb="56" eb="57">
-      <t>ナド</t>
-    </rPh>
-    <rPh sb="64" eb="66">
-      <t>キニュウ</t>
-    </rPh>
-    <rPh sb="70" eb="72">
-      <t>ガイトウ</t>
-    </rPh>
-    <rPh sb="74" eb="76">
-      <t>ヨウゴ</t>
-    </rPh>
-    <rPh sb="79" eb="81">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="151" eb="153">
-      <t>ヨウゴ</t>
-    </rPh>
-    <rPh sb="154" eb="156">
-      <t>キニュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Diseases/Traits/Exposures related to the study</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Disease classification</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>IDC-10 code</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -3718,71 +3509,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t># "Hold" か "Release immediately" を選択。"Hold" の場合、データの共有が可能になったら JGA チームに連絡します。公開予定日を指定することはできません。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>データは submission (JSUB) 単位で公開されます。公開予定時期が異なるデータは submission を分けてください。</t>
-    </r>
-    <rPh sb="34" eb="36">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>キョウユウ</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t>レンラク</t>
-    </rPh>
-    <rPh sb="77" eb="79">
-      <t>コウカイ</t>
-    </rPh>
-    <rPh sb="79" eb="82">
-      <t>ヨテイビ</t>
-    </rPh>
-    <rPh sb="83" eb="85">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="119" eb="121">
-      <t>タンイ</t>
-    </rPh>
-    <rPh sb="122" eb="124">
-      <t>コウカイ</t>
-    </rPh>
-    <rPh sb="129" eb="131">
-      <t>コウカイ</t>
-    </rPh>
-    <rPh sb="131" eb="133">
-      <t>ヨテイ</t>
-    </rPh>
-    <rPh sb="133" eb="135">
-      <t>ジキ</t>
-    </rPh>
-    <rPh sb="136" eb="137">
-      <t>コト</t>
-    </rPh>
-    <rPh sb="156" eb="157">
-      <t>ワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>データは submission (JSUB) 単位で公開されます。公開予定時期が異なるデータは submission を分けてください。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>NBDC Number (hum)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -3991,10 +3717,6 @@
     <rPh sb="41" eb="43">
       <t>ヘンコウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Hold/Release</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -4150,210 +3872,179 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>hum9999</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Hold</t>
-  </si>
-  <si>
-    <t>Hanako</t>
-  </si>
-  <si>
-    <t>Mishima</t>
-  </si>
-  <si>
-    <t>example1@example.ac.jp</t>
-  </si>
-  <si>
-    <t>0000-00-0000</t>
-  </si>
-  <si>
-    <t>Taro</t>
-  </si>
-  <si>
-    <t>Fuji</t>
-  </si>
-  <si>
-    <t>example2@example.ac.jp</t>
-  </si>
-  <si>
-    <t>Bioinformation and DDBJ Center, National Institute of Genetics</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Exome Sequencing</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>HiSeq 2000</t>
-  </si>
-  <si>
-    <t>Illumina</t>
-  </si>
-  <si>
-    <t>Whole exome sequencing</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Disease A (HP:0000000)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Inclusion Criteria: ........................</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Disease A</t>
-  </si>
-  <si>
-    <t>H00.0</t>
-  </si>
-  <si>
-    <t>Japan Society for the Promotion of Science</t>
-  </si>
-  <si>
-    <t>JSPS</t>
-  </si>
-  <si>
-    <t>KAKENHI Grant-in-Aid for Scientific Research on Innovative Areas: Exploring informatics for rare disease A</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>https://www.ddbj.nig.ac.jp/jga/index-e.html</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>case-1-exome</t>
-  </si>
-  <si>
-    <t>case-1</t>
-  </si>
-  <si>
-    <t>male</t>
-  </si>
-  <si>
-    <t>Blood sample of disease A patient case-1 for exome</t>
-  </si>
-  <si>
-    <t>case</t>
-  </si>
-  <si>
-    <t>blood</t>
-  </si>
-  <si>
-    <t>Japanese</t>
-  </si>
-  <si>
-    <t>cell</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>case-2-exome</t>
-  </si>
-  <si>
-    <t>case-2</t>
-  </si>
-  <si>
-    <t>female</t>
-  </si>
-  <si>
-    <t>Blood sample of disease A patient case-2 for exome</t>
-  </si>
-  <si>
-    <t>Sample-1</t>
-  </si>
-  <si>
-    <t>Whole exome sequence of disease A patient case-1</t>
-  </si>
-  <si>
-    <t>SeqCAP EZ Human Exome Library v3.0 (Roche NimbleGen, Madison, WI, USA) was utilized for exome sequence capture. The captured DNA was then subject to paired-end sequencing utilizing the Illumina HiSeq for 2 of 100-bp sequencing of paired-ends (Illumina, San Diego, CA, USA)</t>
-  </si>
-  <si>
-    <t>PAIRED</t>
-  </si>
-  <si>
-    <t>Whole exome sequence of disease A patient case-2</t>
-  </si>
-  <si>
-    <t>Experiment-1</t>
-  </si>
-  <si>
-    <t>GRCh38</t>
-  </si>
-  <si>
-    <t>Study-1</t>
-  </si>
-  <si>
-    <t>variation.vcf</t>
-  </si>
-  <si>
-    <t>Whole exome sequencing and microarray genotyping data from rare disease A two patients</t>
-  </si>
-  <si>
-    <t>325189302751212e4ca75ec989335ce1</t>
-  </si>
-  <si>
-    <t>3fa4fffe57241422fced4ddebe177cc3</t>
-  </si>
-  <si>
-    <t>22a9674932b685da199c693e819e9921</t>
-  </si>
-  <si>
-    <t>Reverse</t>
-  </si>
-  <si>
-    <t>Whole exome sequencing and genotyping of rare disease A two patients</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>We performed whole exome sequencing and genotyping analysis of rare disease A two patients. .....</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Sample-2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>exome1.fastq</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>exome2.fastq</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Sample-1,Sample-2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Variants summary</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Variants were called by ...</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>GRCh38</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Variant caller X</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Data-1,Data-2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>exome1.fastq</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>exome2.fastq</t>
+    <t>JGA/AGD メタデータ登録シート</t>
+    <rPh sb="13" eb="15">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JGA/AGD へデータを登録するためには、データ提供を NBDC に申請し承認されている必要があります。</t>
+    <rPh sb="13" eb="15">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ショウニン</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データは submission (JSUB/ASUB) 単位で公開されます。公開予定時期が異なるデータは submission を分けてください。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AGD へのデータ登録については、以下のウェブサイトをご覧ください。</t>
+    <rPh sb="9" eb="11">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.ddbj.nig.ac.jp/agd/index.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AGD 統合</t>
+    <rPh sb="4" eb="6">
+      <t>トウゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># データ提供申請に対し NBDC から発行された Research ID (例: hum0004)。AGD の場合、agd0000 形式の ID (例: agd0001)</t>
+    <rPh sb="5" eb="7">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ハッコウ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># 登録日</t>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># それぞれのエクセルシートが JGA/AGD メタデータオブジェクトに対応しています。</t>
+    <rPh sb="36" eb="38">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ICD-10 code</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リンク修正</t>
+    <rPh sb="3" eb="5">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># ICD-10
+https://icd.who.int/browse10/2016/en
+該当する疾患分類が複数ある場合は複数記入します。</t>
+    <rPh sb="46" eb="48">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>シッカン</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ブンルイ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>キニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>例: Cancer, Cardiovascular disease, Tobacco use disorder 等のキーワードを記入します
+該当する用語がある場合は Human Phenotype Ontology https://hpo.jax.org/app/ の用語を記入します</t>
+    <rPh sb="56" eb="57">
+      <t>ナド</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>キニュウ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>ヨウゴ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="134" eb="136">
+      <t>ヨウゴ</t>
+    </rPh>
+    <rPh sb="137" eb="139">
+      <t>キニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sample 追加属性の記載形式を変更</t>
+    <rPh sb="7" eb="11">
+      <t>ツイカゾクセイ</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>キサイケイシキ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヘンコウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -4368,96 +4059,474 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>collection_date</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2015-03-05</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>material_type</t>
-  </si>
-  <si>
-    <t>genomic DNA</t>
-  </si>
-  <si>
-    <t>case-3-exome</t>
-  </si>
-  <si>
-    <t>case-3</t>
-  </si>
-  <si>
-    <t>Blood sample of disease A patient case-3 for exome</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>40</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t># L列以降に属性を追加して Sample を十分に記載してください。
-属性名 (例 age) を二行目に、対応する値 (例 40) を三行目以降に記載します。</t>
+    <t># データ公開は NBDC ヒトデータ事務局へご依頼ください (問い合わせフォーム: https://humandbs.dbcls.jp/contact-us, メール: humandbs@dbcls.jp)</t>
+    <rPh sb="5" eb="7">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>ジムキョク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>イライ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># NBDC ヒトデータベースで対応する hum 番号専用サイトが公開された後、JGA データは公開されます (https://humandbs.dbcls.jp/data-use/all-researches)</t>
+    <rPh sb="16" eb="18">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>センヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># データは submission (JSUB/ASUB) 単位で公開されます。公開予定時期が異なるデータは submission を分けてください。</t>
+    <rPh sb="30" eb="32">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ジキ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NBDC ヒトデータベースで対応する hum 番号専用サイトが公開された後、JGA データは公開されます (https://humandbs.dbcls.jp/data-use/all-researches)</t>
+    <rPh sb="14" eb="16">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>センヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sample 属性を追加</t>
     <rPh sb="7" eb="9">
       <t>ゾクセイ</t>
     </rPh>
-    <rPh sb="23" eb="25">
+    <rPh sb="10" eb="12">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># Sample の内容を簡潔に表すユニークなタイトル</t>
+    <rPh sb="10" eb="12">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カンケツ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>アラワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># 個人に対する匿名化された ID</t>
+    <rPh sb="2" eb="4">
+      <t>コジン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トクメイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># 個人の性別 (male, female)</t>
+    <rPh sb="2" eb="4">
+      <t>コジン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セイベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># 個人の年齢</t>
+    <rPh sb="2" eb="4">
+      <t>コジン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ネンレイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># 居住地</t>
+    <rPh sb="2" eb="5">
+      <t>キョジュウチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># 出生地</t>
+    <rPh sb="2" eb="5">
+      <t>シュッセイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># 疾患名</t>
+    <rPh sb="2" eb="5">
+      <t>シッカンメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># 疾病コード (ICD-10)</t>
+    <rPh sb="2" eb="4">
+      <t>シッペイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># サンプル採取日</t>
+    <rPh sb="6" eb="9">
+      <t>サイシュビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># この列 (R列) 以降に属性を追加して Sample を十分に記載してください。
+属性名 (例 smoker) を二行目に、対応する値 (例 yes) を三行目以降に記載します。</t>
+    <rPh sb="8" eb="9">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ゾクセイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
       <t>ジュウブン</t>
     </rPh>
-    <rPh sb="26" eb="28">
+    <rPh sb="33" eb="35">
       <t>キサイ</t>
     </rPh>
-    <rPh sb="41" eb="42">
+    <rPh sb="48" eb="49">
       <t>レイ</t>
     </rPh>
-    <rPh sb="54" eb="56">
+    <rPh sb="64" eb="66">
       <t>タイオウ</t>
     </rPh>
-    <rPh sb="58" eb="59">
+    <rPh sb="68" eb="69">
       <t>ネ</t>
     </rPh>
-    <rPh sb="61" eb="62">
+    <rPh sb="71" eb="72">
       <t>レイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>sample ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>subject ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sex</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>residence</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>birth_location</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>disease</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ICD10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>collection_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>affection_status</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tissue</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>population</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>histological_type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>is_tumor</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hum9999</t>
+  </si>
+  <si>
+    <t>Hanako</t>
+  </si>
+  <si>
+    <t>Mishima</t>
+  </si>
+  <si>
+    <t>example1@example.ac.jp</t>
+  </si>
+  <si>
+    <t>0000-00-0000</t>
+  </si>
+  <si>
+    <t>Bioinformation and DDBJ Center, National Institute of Genetics</t>
+  </si>
+  <si>
+    <t>Taro</t>
+  </si>
+  <si>
+    <t>Fuji</t>
+  </si>
+  <si>
+    <t>example2@example.ac.jp</t>
+  </si>
+  <si>
+    <t>Whole exome sequencing and genotyping of rare disease A two patients</t>
+  </si>
+  <si>
+    <t>Exome Sequencing</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>We performed whole exome sequencing and genotyping analysis of rare disease A two patients. .....</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Whole exome sequencing</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HiSeq 2000</t>
+  </si>
+  <si>
+    <t>Illumina</t>
+  </si>
+  <si>
+    <t>Disease A (HP:0000000)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Disease A</t>
+  </si>
+  <si>
+    <t>H00.0</t>
+  </si>
+  <si>
+    <t>KAKENHI Grant-in-Aid for Scientific Research on Innovative Areas: Exploring informatics for rare disease A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Japan Society for the Promotion of Science</t>
+  </si>
+  <si>
+    <t>JSPS</t>
+  </si>
+  <si>
+    <t>https://www.ddbj.nig.ac.jp/jga/index-e.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>case-1-exome</t>
+  </si>
+  <si>
+    <t>case-1</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>Blood sample of disease A patient case-1 for exome</t>
+  </si>
+  <si>
+    <t>blood</t>
+  </si>
+  <si>
+    <t>Japanese</t>
+  </si>
+  <si>
+    <t>cell</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>genomic DNA</t>
+  </si>
+  <si>
+    <t>case-2-exome</t>
+  </si>
+  <si>
+    <t>case-2</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>Blood sample of disease A patient case-2 for exome</t>
+  </si>
+  <si>
     <t>38</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AGD 統合</t>
-    <rPh sb="4" eb="6">
-      <t>トウゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>リンク修正</t>
-    <rPh sb="3" eb="5">
-      <t>シュウセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Sample 追加属性の記載形式を変更</t>
-    <rPh sb="7" eb="11">
-      <t>ツイカゾクセイ</t>
-    </rPh>
-    <rPh sb="12" eb="16">
-      <t>キサイケイシキ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Chiba</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tokyo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2024-05-01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>case</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>material_type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>smoker</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>yes</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sample-1</t>
+  </si>
+  <si>
+    <t>Whole exome sequence of disease A patient case-1</t>
+  </si>
+  <si>
+    <t>SeqCAP EZ Human Exome Library v3.0 (Roche NimbleGen, Madison, WI, USA) was utilized for exome sequence capture. The captured DNA was then subject to paired-end sequencing utilizing the Illumina HiSeq for 2 of 100-bp sequencing of paired-ends (Illumina, San Diego, CA, USA)</t>
+  </si>
+  <si>
+    <t>PAIRED</t>
+  </si>
+  <si>
+    <t>Whole exome sequence of disease A patient case-2</t>
+  </si>
+  <si>
+    <t>Experiment-1</t>
+  </si>
+  <si>
+    <t>exome1.fastq</t>
+  </si>
+  <si>
+    <t>GRCh38</t>
+  </si>
+  <si>
+    <t>exome2.fastq</t>
+  </si>
+  <si>
+    <t>Study-1</t>
+  </si>
+  <si>
+    <t>Sample-1,Sample-2</t>
+  </si>
+  <si>
+    <t>Data-1,Data-2</t>
+  </si>
+  <si>
+    <t>Variants summary</t>
+  </si>
+  <si>
+    <t>variation.vcf</t>
+  </si>
+  <si>
+    <t>Whole exome sequencing and microarray genotyping data from rare disease A two patients</t>
+  </si>
+  <si>
+    <t>325189302751212e4ca75ec989335ce1</t>
+  </si>
+  <si>
+    <t>3fa4fffe57241422fced4ddebe177cc3</t>
+  </si>
+  <si>
+    <t>22a9674932b685da199c693e819e9921</t>
+  </si>
+  <si>
+    <t>Reverse</t>
+  </si>
+  <si>
+    <t>Variants were called by …</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Variant caller X</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4525,6 +4594,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="メイリオ"/>
       <family val="3"/>
       <charset val="128"/>
@@ -4627,7 +4704,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -4642,6 +4719,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4662,21 +4742,13 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -4700,15 +4772,13 @@
   <colors>
     <mruColors>
       <color rgb="FFBFE4FF"/>
-      <color rgb="FFA9D975"/>
-      <color rgb="FFA4D76B"/>
-      <color rgb="FF92D050"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FF84919E"/>
       <color rgb="FFFFCA80"/>
       <color rgb="FFFDE9D9"/>
       <color rgb="FFDAEEF3"/>
       <color rgb="FF000000"/>
+      <color rgb="FFF2F2F2"/>
+      <color rgb="FF0000FF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -5009,9 +5079,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
@@ -5020,239 +5090,261 @@
     <col min="3" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A1" s="1" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A1" s="29" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A2" s="6" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A3" s="6" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A4" s="6" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A5" s="6" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A6" s="6" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A7" s="14" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A8" s="14"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A9" s="1" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A10" s="1" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A12" s="1" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A3" s="6" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A4" s="6" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A5" s="6" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A6" s="13" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A7" s="6"/>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A8" s="1" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A13" s="3" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A14" s="3"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A15" s="1" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A16" s="3" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A18" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A19" s="15"/>
+      <c r="B19" s="1" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A9" s="1" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A11" s="1" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A12" s="3" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A13" s="1" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A20" s="16"/>
+      <c r="B20" s="1" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A15" s="1" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A21" s="17"/>
+      <c r="B21" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A23" s="1">
+        <v>1</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A16" s="14"/>
-      <c r="B16" s="1" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A17" s="15"/>
-      <c r="B17" s="1" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A18" s="16"/>
-      <c r="B18" s="1" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A20" s="1">
-        <v>1</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A21" s="1">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A24" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A22" s="1">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A25" s="1">
         <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A24" s="1" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A25" s="7">
-        <v>45794</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A27" s="1" t="s">
-        <v>585</v>
+        <v>553</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A28" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="B28" s="7">
-        <v>42285</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A29" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="B29" s="7">
-        <v>42429</v>
+      <c r="A28" s="7">
+        <v>45457</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A30" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="B30" s="7">
-        <v>42430</v>
+        <v>573</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A31" s="1" t="s">
-        <v>645</v>
+        <v>574</v>
       </c>
       <c r="B31" s="7">
-        <v>42486</v>
+        <v>42285</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A32" s="1" t="s">
-        <v>650</v>
+        <v>579</v>
       </c>
       <c r="B32" s="7">
-        <v>42760</v>
+        <v>42429</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A33" s="1" t="s">
-        <v>687</v>
+        <v>582</v>
       </c>
       <c r="B33" s="7">
-        <v>42935</v>
+        <v>42430</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A34" s="1" t="s">
-        <v>721</v>
+        <v>628</v>
       </c>
       <c r="B34" s="7">
-        <v>42935</v>
+        <v>42486</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A35" s="1" t="s">
-        <v>735</v>
+        <v>632</v>
       </c>
       <c r="B35" s="7">
-        <v>43227</v>
+        <v>42760</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A36" s="1" t="s">
-        <v>742</v>
+        <v>669</v>
       </c>
       <c r="B36" s="7">
-        <v>44103</v>
+        <v>42935</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A37" s="1" t="s">
-        <v>752</v>
+        <v>703</v>
       </c>
       <c r="B37" s="7">
-        <v>44622</v>
+        <v>42935</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A38" s="1" t="s">
-        <v>784</v>
+        <v>714</v>
       </c>
       <c r="B38" s="7">
-        <v>44678</v>
+        <v>43227</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A39" s="1" t="s">
-        <v>874</v>
+        <v>721</v>
       </c>
       <c r="B39" s="7">
-        <v>44918</v>
+        <v>44103</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A40" s="1" t="s">
-        <v>875</v>
+        <v>729</v>
       </c>
       <c r="B40" s="7">
-        <v>45321</v>
+        <v>44622</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A41" s="1" t="s">
-        <v>876</v>
+        <v>761</v>
       </c>
       <c r="B41" s="7">
-        <v>45794</v>
+        <v>44678</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A42" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="B42" s="7">
+        <v>44918</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A43" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="B43" s="7">
+        <v>45321</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A44" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="B44" s="7">
+        <v>45429</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A45" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="B45" s="7">
+        <v>45457</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="A12" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A13" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A16" r:id="rId2" display="https://www.ddbj.nig.ac.jp/jga/index.html" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -5287,53 +5379,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.5">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>243</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="22" t="s">
         <v>227</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="22" t="s">
         <v>218</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="22" t="s">
         <v>224</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="22" t="s">
         <v>223</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="22" t="s">
         <v>226</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="22" t="s">
         <v>334</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="22" t="s">
         <v>361</v>
       </c>
-      <c r="J1" s="21" t="s">
-        <v>699</v>
-      </c>
-      <c r="K1" s="21" t="s">
+      <c r="J1" s="22" t="s">
+        <v>681</v>
+      </c>
+      <c r="K1" s="22" t="s">
         <v>334</v>
       </c>
-      <c r="L1" s="21" t="s">
-        <v>369</v>
-      </c>
-      <c r="M1" s="21" t="s">
+      <c r="L1" s="22" t="s">
+        <v>368</v>
+      </c>
+      <c r="M1" s="22" t="s">
         <v>334</v>
       </c>
-      <c r="N1" s="21" t="s">
-        <v>634</v>
-      </c>
-      <c r="O1" s="21" t="s">
-        <v>794</v>
-      </c>
-      <c r="P1" s="21" t="s">
-        <v>795</v>
+      <c r="N1" s="22" t="s">
+        <v>622</v>
+      </c>
+      <c r="O1" s="22" t="s">
+        <v>770</v>
+      </c>
+      <c r="P1" s="22" t="s">
+        <v>771</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.5">
@@ -5356,13 +5448,13 @@
         <v>362</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>336</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>753</v>
+        <v>730</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>329</v>
@@ -5374,13 +5466,13 @@
         <v>327</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="N2" s="11" t="s">
-        <v>608</v>
+        <v>566</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>596</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>796</v>
+        <v>772</v>
       </c>
       <c r="P2" s="1" t="b">
         <v>1</v>
@@ -5406,7 +5498,7 @@
         <v>363</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>335</v>
@@ -5415,22 +5507,22 @@
         <v>355</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>700</v>
+        <v>682</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>770</v>
+        <v>747</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="N3" s="11" t="s">
-        <v>609</v>
+        <v>565</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>597</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>797</v>
+        <v>773</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.5">
@@ -5456,16 +5548,16 @@
         <v>356</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>701</v>
+        <v>683</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>771</v>
+        <v>748</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>577</v>
-      </c>
-      <c r="N4" s="11" t="s">
-        <v>610</v>
+        <v>568</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.5">
@@ -5485,22 +5577,22 @@
         <v>303</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>647</v>
+        <v>629</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>357</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>702</v>
+        <v>684</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>335</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="N5" s="11" t="s">
-        <v>611</v>
+        <v>555</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.5">
@@ -5517,7 +5609,7 @@
         <v>282</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>673</v>
+        <v>655</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>358</v>
@@ -5526,13 +5618,13 @@
         <v>327</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="N6" s="11" t="s">
-        <v>612</v>
+        <v>369</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.5">
@@ -5555,16 +5647,16 @@
         <v>359</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>703</v>
+        <v>685</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="N7" s="11" t="s">
-        <v>613</v>
+        <v>370</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.5">
@@ -5587,16 +5679,16 @@
         <v>360</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>704</v>
+        <v>686</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="N8" s="11" t="s">
-        <v>614</v>
+        <v>371</v>
+      </c>
+      <c r="N8" s="12" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.5">
@@ -5613,19 +5705,19 @@
         <v>306</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>722</v>
+        <v>704</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>705</v>
+        <v>687</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>339</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="N9" s="11" t="s">
-        <v>615</v>
+        <v>372</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.5">
@@ -5639,22 +5731,22 @@
         <v>286</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>674</v>
+        <v>656</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>754</v>
+        <v>731</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>706</v>
+        <v>688</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>709</v>
+        <v>691</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="N10" s="11" t="s">
-        <v>616</v>
+        <v>569</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.5">
@@ -5671,19 +5763,19 @@
         <v>307</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>755</v>
+        <v>732</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>328</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>710</v>
+        <v>692</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="N11" s="11" t="s">
-        <v>617</v>
+        <v>570</v>
+      </c>
+      <c r="N11" s="12" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.5">
@@ -5691,28 +5783,28 @@
         <v>237</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>651</v>
+        <v>633</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>737</v>
+        <v>716</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>308</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>756</v>
+        <v>733</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>707</v>
+        <v>689</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>711</v>
+        <v>693</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="N12" s="11" t="s">
-        <v>618</v>
+        <v>571</v>
+      </c>
+      <c r="N12" s="12" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.5">
@@ -5723,25 +5815,25 @@
         <v>254</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>738</v>
+        <v>717</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>309</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>723</v>
+        <v>705</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>708</v>
+        <v>690</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>340</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="N13" s="11" t="s">
-        <v>619</v>
+        <v>373</v>
+      </c>
+      <c r="N13" s="12" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.5">
@@ -5752,13 +5844,13 @@
         <v>253</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>680</v>
+        <v>662</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>310</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>724</v>
+        <v>706</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>242</v>
@@ -5767,10 +5859,10 @@
         <v>341</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="N14" s="11" t="s">
-        <v>620</v>
+        <v>374</v>
+      </c>
+      <c r="N14" s="12" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.5">
@@ -5778,25 +5870,25 @@
         <v>240</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>652</v>
+        <v>634</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>681</v>
+        <v>663</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>311</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>757</v>
+        <v>734</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>772</v>
+        <v>749</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>564</v>
-      </c>
-      <c r="N15" s="11" t="s">
-        <v>621</v>
+        <v>556</v>
+      </c>
+      <c r="N15" s="12" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.5">
@@ -5804,22 +5896,22 @@
         <v>241</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>653</v>
+        <v>635</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>682</v>
+        <v>664</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>312</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="N16" s="11" t="s">
-        <v>622</v>
+        <v>557</v>
+      </c>
+      <c r="N16" s="12" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.5">
@@ -5836,15 +5928,15 @@
         <v>313</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>773</v>
-      </c>
-      <c r="N17" s="11" t="s">
-        <v>623</v>
+        <v>750</v>
+      </c>
+      <c r="N17" s="12" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B18" s="1" t="s">
-        <v>718</v>
+        <v>700</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>289</v>
@@ -5853,10 +5945,10 @@
         <v>314</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>774</v>
-      </c>
-      <c r="N18" s="11" t="s">
-        <v>624</v>
+        <v>751</v>
+      </c>
+      <c r="N18" s="12" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.5">
@@ -5864,21 +5956,21 @@
         <v>257</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>683</v>
+        <v>665</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>315</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>775</v>
-      </c>
-      <c r="N19" s="11" t="s">
-        <v>625</v>
+        <v>752</v>
+      </c>
+      <c r="N19" s="12" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B20" s="1" t="s">
-        <v>739</v>
+        <v>718</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>290</v>
@@ -5887,49 +5979,49 @@
         <v>316</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>776</v>
-      </c>
-      <c r="N20" s="11" t="s">
-        <v>626</v>
+        <v>753</v>
+      </c>
+      <c r="N20" s="12" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B21" s="1" t="s">
-        <v>740</v>
+        <v>719</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>291</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>675</v>
+        <v>657</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>777</v>
-      </c>
-      <c r="N21" s="11" t="s">
-        <v>627</v>
+        <v>754</v>
+      </c>
+      <c r="N21" s="12" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B22" s="1" t="s">
-        <v>654</v>
+        <v>636</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>684</v>
+        <v>666</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>676</v>
+        <v>658</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="N22" s="11" t="s">
-        <v>628</v>
+        <v>380</v>
+      </c>
+      <c r="N22" s="12" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B23" s="1" t="s">
-        <v>655</v>
+        <v>637</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>292</v>
@@ -5938,15 +6030,15 @@
         <v>317</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="N23" s="11" t="s">
-        <v>629</v>
+        <v>381</v>
+      </c>
+      <c r="N23" s="12" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B24" s="1" t="s">
-        <v>656</v>
+        <v>638</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>293</v>
@@ -5955,15 +6047,15 @@
         <v>318</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="N24" s="11" t="s">
-        <v>630</v>
+        <v>382</v>
+      </c>
+      <c r="N24" s="12" t="s">
+        <v>618</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B25" s="1" t="s">
-        <v>657</v>
+        <v>639</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>294</v>
@@ -5972,15 +6064,15 @@
         <v>319</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="N25" s="11" t="s">
-        <v>631</v>
+        <v>383</v>
+      </c>
+      <c r="N25" s="12" t="s">
+        <v>619</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B26" s="1" t="s">
-        <v>764</v>
+        <v>741</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>295</v>
@@ -5989,15 +6081,15 @@
         <v>320</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>778</v>
-      </c>
-      <c r="N26" s="11" t="s">
-        <v>632</v>
+        <v>755</v>
+      </c>
+      <c r="N26" s="12" t="s">
+        <v>620</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B27" s="1" t="s">
-        <v>765</v>
+        <v>742</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>296</v>
@@ -6006,15 +6098,15 @@
         <v>321</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>779</v>
-      </c>
-      <c r="N27" s="11" t="s">
-        <v>633</v>
+        <v>756</v>
+      </c>
+      <c r="N27" s="12" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B28" s="1" t="s">
-        <v>758</v>
+        <v>735</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>297</v>
@@ -6023,26 +6115,26 @@
         <v>322</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>780</v>
+        <v>757</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B29" s="1" t="s">
-        <v>759</v>
+        <v>736</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>298</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>685</v>
+        <v>667</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B30" s="1" t="s">
-        <v>760</v>
+        <v>737</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>299</v>
@@ -6051,12 +6143,12 @@
         <v>323</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B31" s="1" t="s">
-        <v>761</v>
+        <v>738</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>270</v>
@@ -6065,18 +6157,18 @@
         <v>324</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B32" s="1" t="s">
-        <v>763</v>
+        <v>740</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>769</v>
+        <v>746</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.5">
@@ -6087,7 +6179,7 @@
         <v>325</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.5">
@@ -6098,7 +6190,7 @@
         <v>326</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.5">
@@ -6106,10 +6198,10 @@
         <v>260</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>679</v>
+        <v>661</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.5">
@@ -6117,10 +6209,10 @@
         <v>261</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>677</v>
+        <v>659</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.5">
@@ -6128,10 +6220,10 @@
         <v>262</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>678</v>
+        <v>660</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.5">
@@ -6142,7 +6234,7 @@
         <v>277</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.5">
@@ -6150,7 +6242,7 @@
         <v>264</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.5">
@@ -6158,31 +6250,31 @@
         <v>265</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B41" s="1" t="s">
-        <v>658</v>
+        <v>640</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B42" s="1" t="s">
-        <v>659</v>
+        <v>641</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>712</v>
+        <v>694</v>
       </c>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B43" s="1" t="s">
-        <v>660</v>
+        <v>642</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.5">
@@ -6190,31 +6282,31 @@
         <v>266</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>713</v>
+        <v>695</v>
       </c>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B45" s="1" t="s">
-        <v>661</v>
+        <v>643</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>781</v>
+        <v>758</v>
       </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B46" s="1" t="s">
-        <v>662</v>
+        <v>644</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>782</v>
+        <v>759</v>
       </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B47" s="1" t="s">
-        <v>663</v>
+        <v>645</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>783</v>
+        <v>760</v>
       </c>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.5">
@@ -6222,31 +6314,31 @@
         <v>267</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>714</v>
+        <v>696</v>
       </c>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B49" s="1" t="s">
-        <v>664</v>
+        <v>646</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>715</v>
+        <v>697</v>
       </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B50" s="1" t="s">
-        <v>665</v>
+        <v>647</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>716</v>
+        <v>698</v>
       </c>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B51" s="1" t="s">
-        <v>762</v>
+        <v>739</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>717</v>
+        <v>699</v>
       </c>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.5">
@@ -6264,68 +6356,67 @@
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B54" s="1" t="s">
-        <v>719</v>
+        <v>701</v>
       </c>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B55" s="1" t="s">
-        <v>720</v>
+        <v>702</v>
       </c>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B56" s="1" t="s">
-        <v>766</v>
+        <v>743</v>
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B57" s="1" t="s">
-        <v>767</v>
+        <v>744</v>
       </c>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B58" s="1" t="s">
-        <v>768</v>
+        <v>745</v>
       </c>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B59" s="1" t="s">
-        <v>666</v>
+        <v>648</v>
       </c>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B60" s="1" t="s">
-        <v>667</v>
+        <v>649</v>
       </c>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B61" s="1" t="s">
-        <v>668</v>
+        <v>650</v>
       </c>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B62" s="1" t="s">
-        <v>669</v>
+        <v>651</v>
       </c>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B63" s="1" t="s">
-        <v>670</v>
+        <v>652</v>
       </c>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B64" s="1" t="s">
-        <v>671</v>
+        <v>653</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B65" s="1" t="s">
-        <v>672</v>
+        <v>654</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -6338,7 +6429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.6640625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
@@ -6349,157 +6440,158 @@
     <col min="5" max="16384" width="24.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A1" s="1" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A2" s="17" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A3" s="5" t="s">
-        <v>800</v>
-      </c>
-    </row>
+    <row r="1" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="26" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="26" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="26" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.5"/>
     <row r="5" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
-        <v>747</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A6" s="17" t="s">
-        <v>785</v>
+      <c r="A6" s="18" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A7" s="5" t="s">
-        <v>801</v>
+        <v>822</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="17" t="s">
-        <v>556</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>555</v>
-      </c>
-      <c r="D10" s="17" t="s">
+      <c r="B10" s="18" t="s">
+        <v>548</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>547</v>
+      </c>
+      <c r="D10" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="17" t="s">
-        <v>410</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>408</v>
+      <c r="E10" s="18" t="s">
+        <v>407</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A11" s="20" t="s">
-        <v>409</v>
+      <c r="A11" s="21" t="s">
+        <v>406</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>802</v>
+        <v>823</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>803</v>
+        <v>824</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>804</v>
+        <v>825</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>805</v>
+        <v>826</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>809</v>
+        <v>827</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A12" s="21">
+      <c r="A12" s="22">
         <v>2</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>806</v>
+        <v>828</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>807</v>
+        <v>829</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>808</v>
+        <v>830</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>809</v>
+        <v>827</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A13" s="21">
+      <c r="A13" s="22">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A14" s="21">
+      <c r="A14" s="22">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A15" s="21">
+      <c r="A15" s="22">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A16" s="21">
+      <c r="A16" s="22">
         <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A17" s="21">
+      <c r="A17" s="22">
         <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A18" s="21">
+      <c r="A18" s="22">
         <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A19" s="21">
+      <c r="A19" s="22">
         <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A20" s="21">
+      <c r="A20" s="22">
         <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A22" s="1" t="s">
-        <v>421</v>
+        <v>783</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A23" s="17" t="s">
-        <v>422</v>
+      <c r="A23" s="18" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A24" s="7">
-        <v>44909</v>
+        <v>45457</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7 B8:C9" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:C9" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Hold,Release immediately"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6517,7 +6609,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="48.6640625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
@@ -6531,233 +6625,231 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A3" s="4" t="s">
-        <v>849</v>
+        <v>831</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="18" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A7" s="21">
+      <c r="A7" s="22">
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>810</v>
+        <v>832</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A8" s="21">
+      <c r="A8" s="22">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A9" s="21">
+      <c r="A9" s="22">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A11" s="1" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="18" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A13" s="4" t="s">
-        <v>850</v>
+        <v>833</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A16" s="17" t="s">
-        <v>598</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>598</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>600</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>599</v>
+      <c r="A16" s="18" t="s">
+        <v>586</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>586</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>588</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>587</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A17" s="21">
+      <c r="A17" s="22">
         <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>813</v>
+        <v>834</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>811</v>
+        <v>835</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>812</v>
+        <v>836</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A18" s="21">
+      <c r="A18" s="22">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A19" s="21">
+      <c r="A19" s="22">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="87" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:4" ht="69.599999999999994" x14ac:dyDescent="0.5">
       <c r="A21" s="1" t="s">
-        <v>729</v>
+        <v>710</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>730</v>
+        <v>788</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A22" s="17" t="s">
-        <v>731</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>725</v>
+      <c r="A22" s="18" t="s">
+        <v>711</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>707</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A23" s="21">
+      <c r="A23" s="22">
         <v>1</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>814</v>
+        <v>837</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>726</v>
+        <v>708</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A24" s="21">
+      <c r="A24" s="22">
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A25" s="21">
+      <c r="A25" s="22">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A27" s="1" t="s">
-        <v>607</v>
+        <v>595</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A28" s="18" t="s">
-        <v>606</v>
+      <c r="A28" s="19" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A29" s="4" t="s">
-        <v>815</v>
-      </c>
+      <c r="A29" s="4"/>
     </row>
     <row r="30" spans="1:4" ht="52.2" x14ac:dyDescent="0.5">
       <c r="A30" s="1" t="s">
-        <v>727</v>
+        <v>709</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>728</v>
+        <v>787</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A31" s="19" t="s">
-        <v>734</v>
-      </c>
-      <c r="B31" s="19" t="s">
-        <v>732</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>733</v>
+      <c r="A31" s="20" t="s">
+        <v>713</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>712</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A32" s="21">
+      <c r="A32" s="22">
         <v>1</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>816</v>
+        <v>838</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>817</v>
+        <v>839</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A33" s="21">
+      <c r="A33" s="22">
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A34" s="21">
+      <c r="A34" s="22">
         <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A36" s="1" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="18" t="s">
-        <v>434</v>
+      <c r="C37" s="19" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A38" s="21">
+      <c r="A38" s="22">
         <v>1</v>
       </c>
       <c r="B38" s="1">
@@ -6765,123 +6857,123 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A39" s="21">
+      <c r="A39" s="22">
         <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A40" s="21">
+      <c r="A40" s="22">
         <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A42" s="1" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A43" s="18" t="s">
+      <c r="A43" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B43" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C43" s="18" t="s">
+      <c r="B43" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D43" s="18" t="s">
-        <v>376</v>
-      </c>
-      <c r="E43" s="18" t="s">
+      <c r="D43" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="E43" s="19" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A44" s="21">
+      <c r="A44" s="22">
         <v>1</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>820</v>
+        <v>840</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>818</v>
+        <v>841</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>819</v>
+        <v>842</v>
       </c>
       <c r="E44" s="1">
         <v>22129008</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A45" s="21">
+      <c r="A45" s="22">
         <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A46" s="21">
+      <c r="A46" s="22">
         <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A48" s="1" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A49" s="18" t="s">
+      <c r="A49" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B49" s="18" t="s">
+      <c r="B49" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A50" s="21">
+      <c r="A50" s="22">
         <v>1</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>821</v>
+        <v>843</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A51" s="21">
+      <c r="A51" s="22">
         <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A52" s="21">
+      <c r="A52" s="22">
         <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A54" s="1" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A55" s="18" t="s">
-        <v>584</v>
-      </c>
-      <c r="B55" s="18" t="s">
-        <v>589</v>
-      </c>
-      <c r="C55" s="18" t="s">
-        <v>590</v>
+      <c r="A55" s="19" t="s">
+        <v>572</v>
+      </c>
+      <c r="B55" s="19" t="s">
+        <v>577</v>
+      </c>
+      <c r="C55" s="19" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A56" s="21">
+      <c r="A56" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A57" s="21">
+      <c r="A57" s="22">
         <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.5">
-      <c r="A58" s="21">
+      <c r="A58" s="22">
         <v>3</v>
       </c>
     </row>
@@ -6904,7 +6996,7 @@
           <x14:formula1>
             <xm:f>Admin!$A$2:$A$17</xm:f>
           </x14:formula1>
-          <xm:sqref>B7:B9</xm:sqref>
+          <xm:sqref>B8:B9</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6921,1908 +7013,881 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="21.33203125" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="24.88671875" style="9"/>
-    <col min="2" max="2" width="24.88671875" style="1"/>
-    <col min="3" max="4" width="24.88671875" style="8"/>
-    <col min="5" max="6" width="24.88671875" style="1"/>
-    <col min="7" max="7" width="49.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="24.88671875" style="1"/>
-    <col min="12" max="12" width="82.5546875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="40.5546875" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="24.88671875" style="1"/>
+    <col min="1" max="1" width="21.33203125" style="9"/>
+    <col min="2" max="2" width="21.33203125" style="1"/>
+    <col min="3" max="4" width="21.33203125" style="8"/>
+    <col min="5" max="16384" width="21.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="34.799999999999997" x14ac:dyDescent="0.5">
-      <c r="A1" s="23" t="s">
-        <v>439</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>686</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>438</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>646</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>566</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>437</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>644</v>
-      </c>
-      <c r="H1" s="23" t="s">
-        <v>639</v>
-      </c>
-      <c r="I1" s="23" t="s">
-        <v>642</v>
-      </c>
-      <c r="J1" s="23" t="s">
-        <v>640</v>
-      </c>
-      <c r="K1" s="23" t="s">
-        <v>641</v>
-      </c>
-      <c r="L1" s="24" t="s">
-        <v>872</v>
-      </c>
-      <c r="M1" s="25" t="s">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.5">
+      <c r="A1" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="R1" s="27" t="s">
+        <v>806</v>
+      </c>
+      <c r="S1" s="28" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.5">
+      <c r="A2" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>807</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>808</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>809</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>810</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>811</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>791</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>812</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>813</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>814</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>815</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>816</v>
+      </c>
+      <c r="M2" s="19" t="s">
+        <v>817</v>
+      </c>
+      <c r="N2" s="19" t="s">
+        <v>818</v>
+      </c>
+      <c r="O2" s="19" t="s">
+        <v>819</v>
+      </c>
+      <c r="P2" s="19" t="s">
+        <v>820</v>
+      </c>
+      <c r="Q2" s="19" t="s">
+        <v>821</v>
+      </c>
+      <c r="R2" s="25" t="s">
         <v>862</v>
       </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.5">
-      <c r="A2" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="26" t="s">
-        <v>581</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>582</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>583</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>353</v>
-      </c>
-      <c r="G2" s="27" t="s">
-        <v>643</v>
-      </c>
-      <c r="H2" s="27" t="s">
-        <v>638</v>
-      </c>
-      <c r="I2" s="27" t="s">
-        <v>637</v>
-      </c>
-      <c r="J2" s="27" t="s">
-        <v>635</v>
-      </c>
-      <c r="K2" s="27" t="s">
-        <v>636</v>
-      </c>
-      <c r="L2" s="27" t="s">
+      <c r="S2" s="25" t="s">
         <v>863</v>
       </c>
-      <c r="M2" s="27" t="s">
+      <c r="T2" s="19"/>
+      <c r="U2" s="19"/>
+      <c r="V2" s="19"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
+      <c r="Y2" s="19"/>
+      <c r="Z2" s="19"/>
+      <c r="AA2" s="19"/>
+      <c r="AB2" s="19"/>
+      <c r="AC2" s="19"/>
+      <c r="AD2" s="19"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.5">
+      <c r="A3" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>845</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>846</v>
+      </c>
+      <c r="G3" s="24">
+        <v>37</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="L3" s="24" t="s">
+        <v>860</v>
+      </c>
+      <c r="M3" s="24" t="s">
+        <v>861</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="S3" s="1" t="s">
         <v>864</v>
       </c>
-      <c r="N2" s="18" t="s">
-        <v>866</v>
-      </c>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18"/>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="18"/>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="18"/>
-      <c r="AD2" s="18"/>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.5">
-      <c r="A3" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>822</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>823</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>824</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>825</v>
-      </c>
-      <c r="F3" s="23" t="s">
-        <v>825</v>
-      </c>
-      <c r="G3" s="23" t="s">
-        <v>826</v>
-      </c>
-      <c r="H3" s="23" t="s">
-        <v>827</v>
-      </c>
-      <c r="I3" s="23" t="s">
-        <v>828</v>
-      </c>
-      <c r="J3" s="23" t="s">
-        <v>829</v>
-      </c>
-      <c r="K3" s="23" t="s">
-        <v>830</v>
-      </c>
-      <c r="L3" s="23">
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.5">
+      <c r="A4" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>854</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>855</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>857</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="L4" s="24" t="s">
+        <v>860</v>
+      </c>
+      <c r="M4" s="24" t="s">
+        <v>861</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.5">
+      <c r="A5" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.5">
+      <c r="A6" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.5">
+      <c r="A7" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.5">
+      <c r="A8" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.5">
+      <c r="A9" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.5">
+      <c r="A10" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.5">
+      <c r="A11" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.5">
+      <c r="A12" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.5">
+      <c r="A13" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.5">
+      <c r="A14" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.5">
+      <c r="A15" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.5">
+      <c r="A16" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A17" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A18" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A19" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A20" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A21" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A22" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A23" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A24" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="23" t="s">
-        <v>865</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.5">
-      <c r="A4" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>831</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>832</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>833</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>834</v>
-      </c>
-      <c r="F4" s="23" t="s">
-        <v>834</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>826</v>
-      </c>
-      <c r="H4" s="23" t="s">
-        <v>827</v>
-      </c>
-      <c r="I4" s="23" t="s">
-        <v>828</v>
-      </c>
-      <c r="J4" s="23" t="s">
-        <v>829</v>
-      </c>
-      <c r="K4" s="23" t="s">
-        <v>830</v>
-      </c>
-      <c r="L4" s="23" t="s">
-        <v>873</v>
-      </c>
-      <c r="M4" s="23" t="s">
-        <v>865</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.5">
-      <c r="A5" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>868</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>869</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>833</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>870</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>870</v>
-      </c>
-      <c r="G5" s="23" t="s">
-        <v>826</v>
-      </c>
-      <c r="H5" s="23" t="s">
-        <v>827</v>
-      </c>
-      <c r="I5" s="23" t="s">
-        <v>828</v>
-      </c>
-      <c r="J5" s="23" t="s">
-        <v>829</v>
-      </c>
-      <c r="K5" s="23" t="s">
-        <v>830</v>
-      </c>
-      <c r="L5" s="23" t="s">
-        <v>871</v>
-      </c>
-      <c r="M5" s="23" t="s">
-        <v>865</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.5">
-      <c r="A6" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="23"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.5">
-      <c r="A7" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.5">
-      <c r="A8" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.5">
-      <c r="A9" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.5">
-      <c r="A10" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.5">
-      <c r="A11" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.5">
-      <c r="A12" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.5">
-      <c r="A13" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.5">
-      <c r="A14" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.5">
-      <c r="A15" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="23"/>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.5">
-      <c r="A16" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="23"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A17" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="23"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A18" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="23"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A19" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="23"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A20" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="23"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A21" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A22" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="23"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A23" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A24" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="23"/>
-      <c r="M24" s="23"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A25" s="28" t="s">
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A25" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="23"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A26" s="28" t="s">
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A26" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="23"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A27" s="28" t="s">
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A27" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="23"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A28" s="28" t="s">
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A28" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="23"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="23"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A29" s="28" t="s">
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A29" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="B29" s="23"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="23"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A30" s="28" t="s">
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A30" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="B30" s="23"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="23"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A31" s="28" t="s">
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A31" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="B31" s="23"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-      <c r="I31" s="23"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="23"/>
-      <c r="M31" s="23"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A32" s="28" t="s">
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A32" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B32" s="23"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-      <c r="I32" s="23"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="23"/>
-      <c r="M32" s="23"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A33" s="28" t="s">
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A33" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="23"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="23"/>
-      <c r="K33" s="23"/>
-      <c r="L33" s="23"/>
-      <c r="M33" s="23"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A34" s="28" t="s">
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A34" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="23"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="23"/>
-      <c r="M34" s="23"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A35" s="28" t="s">
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A35" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="23"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="23"/>
-      <c r="M35" s="23"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A36" s="28" t="s">
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A36" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="B36" s="23"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="23"/>
-      <c r="K36" s="23"/>
-      <c r="L36" s="23"/>
-      <c r="M36" s="23"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A37" s="28" t="s">
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A37" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="B37" s="23"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="23"/>
-      <c r="K37" s="23"/>
-      <c r="L37" s="23"/>
-      <c r="M37" s="23"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A38" s="28" t="s">
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A38" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="B38" s="23"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="23"/>
-      <c r="K38" s="23"/>
-      <c r="L38" s="23"/>
-      <c r="M38" s="23"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A39" s="28" t="s">
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A39" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="B39" s="23"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-      <c r="J39" s="23"/>
-      <c r="K39" s="23"/>
-      <c r="L39" s="23"/>
-      <c r="M39" s="23"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A40" s="28" t="s">
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A40" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="B40" s="23"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
-      <c r="J40" s="23"/>
-      <c r="K40" s="23"/>
-      <c r="L40" s="23"/>
-      <c r="M40" s="23"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A41" s="28" t="s">
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A41" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="B41" s="23"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="23"/>
-      <c r="J41" s="23"/>
-      <c r="K41" s="23"/>
-      <c r="L41" s="23"/>
-      <c r="M41" s="23"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A42" s="28" t="s">
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A42" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="B42" s="23"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="23"/>
-      <c r="I42" s="23"/>
-      <c r="J42" s="23"/>
-      <c r="K42" s="23"/>
-      <c r="L42" s="23"/>
-      <c r="M42" s="23"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A43" s="28" t="s">
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A43" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="B43" s="23"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="23"/>
-      <c r="K43" s="23"/>
-      <c r="L43" s="23"/>
-      <c r="M43" s="23"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A44" s="28" t="s">
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A44" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="B44" s="23"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="23"/>
-      <c r="I44" s="23"/>
-      <c r="J44" s="23"/>
-      <c r="K44" s="23"/>
-      <c r="L44" s="23"/>
-      <c r="M44" s="23"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A45" s="28" t="s">
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A45" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="B45" s="23"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="23"/>
-      <c r="H45" s="23"/>
-      <c r="I45" s="23"/>
-      <c r="J45" s="23"/>
-      <c r="K45" s="23"/>
-      <c r="L45" s="23"/>
-      <c r="M45" s="23"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A46" s="28" t="s">
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A46" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="B46" s="23"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="23"/>
-      <c r="H46" s="23"/>
-      <c r="I46" s="23"/>
-      <c r="J46" s="23"/>
-      <c r="K46" s="23"/>
-      <c r="L46" s="23"/>
-      <c r="M46" s="23"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A47" s="28" t="s">
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A47" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="B47" s="23"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="23"/>
-      <c r="I47" s="23"/>
-      <c r="J47" s="23"/>
-      <c r="K47" s="23"/>
-      <c r="L47" s="23"/>
-      <c r="M47" s="23"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A48" s="28" t="s">
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A48" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="B48" s="23"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="23"/>
-      <c r="H48" s="23"/>
-      <c r="I48" s="23"/>
-      <c r="J48" s="23"/>
-      <c r="K48" s="23"/>
-      <c r="L48" s="23"/>
-      <c r="M48" s="23"/>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A49" s="28" t="s">
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A49" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="B49" s="23"/>
-      <c r="C49" s="29"/>
-      <c r="D49" s="29"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="23"/>
-      <c r="H49" s="23"/>
-      <c r="I49" s="23"/>
-      <c r="J49" s="23"/>
-      <c r="K49" s="23"/>
-      <c r="L49" s="23"/>
-      <c r="M49" s="23"/>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A50" s="28" t="s">
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A50" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="B50" s="23"/>
-      <c r="C50" s="29"/>
-      <c r="D50" s="29"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="23"/>
-      <c r="H50" s="23"/>
-      <c r="I50" s="23"/>
-      <c r="J50" s="23"/>
-      <c r="K50" s="23"/>
-      <c r="L50" s="23"/>
-      <c r="M50" s="23"/>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A51" s="28" t="s">
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A51" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="B51" s="23"/>
-      <c r="C51" s="29"/>
-      <c r="D51" s="29"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="23"/>
-      <c r="H51" s="23"/>
-      <c r="I51" s="23"/>
-      <c r="J51" s="23"/>
-      <c r="K51" s="23"/>
-      <c r="L51" s="23"/>
-      <c r="M51" s="23"/>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A52" s="28" t="s">
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A52" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="B52" s="23"/>
-      <c r="C52" s="29"/>
-      <c r="D52" s="29"/>
-      <c r="E52" s="23"/>
-      <c r="F52" s="23"/>
-      <c r="G52" s="23"/>
-      <c r="H52" s="23"/>
-      <c r="I52" s="23"/>
-      <c r="J52" s="23"/>
-      <c r="K52" s="23"/>
-      <c r="L52" s="23"/>
-      <c r="M52" s="23"/>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A53" s="28" t="s">
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A53" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="B53" s="23"/>
-      <c r="C53" s="29"/>
-      <c r="D53" s="29"/>
-      <c r="E53" s="23"/>
-      <c r="F53" s="23"/>
-      <c r="G53" s="23"/>
-      <c r="H53" s="23"/>
-      <c r="I53" s="23"/>
-      <c r="J53" s="23"/>
-      <c r="K53" s="23"/>
-      <c r="L53" s="23"/>
-      <c r="M53" s="23"/>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A54" s="28" t="s">
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A54" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="B54" s="23"/>
-      <c r="C54" s="29"/>
-      <c r="D54" s="29"/>
-      <c r="E54" s="23"/>
-      <c r="F54" s="23"/>
-      <c r="G54" s="23"/>
-      <c r="H54" s="23"/>
-      <c r="I54" s="23"/>
-      <c r="J54" s="23"/>
-      <c r="K54" s="23"/>
-      <c r="L54" s="23"/>
-      <c r="M54" s="23"/>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A55" s="28" t="s">
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A55" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="B55" s="23"/>
-      <c r="C55" s="29"/>
-      <c r="D55" s="29"/>
-      <c r="E55" s="23"/>
-      <c r="F55" s="23"/>
-      <c r="G55" s="23"/>
-      <c r="H55" s="23"/>
-      <c r="I55" s="23"/>
-      <c r="J55" s="23"/>
-      <c r="K55" s="23"/>
-      <c r="L55" s="23"/>
-      <c r="M55" s="23"/>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A56" s="28" t="s">
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A56" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="B56" s="23"/>
-      <c r="C56" s="29"/>
-      <c r="D56" s="29"/>
-      <c r="E56" s="23"/>
-      <c r="F56" s="23"/>
-      <c r="G56" s="23"/>
-      <c r="H56" s="23"/>
-      <c r="I56" s="23"/>
-      <c r="J56" s="23"/>
-      <c r="K56" s="23"/>
-      <c r="L56" s="23"/>
-      <c r="M56" s="23"/>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A57" s="28" t="s">
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A57" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="B57" s="23"/>
-      <c r="C57" s="29"/>
-      <c r="D57" s="29"/>
-      <c r="E57" s="23"/>
-      <c r="F57" s="23"/>
-      <c r="G57" s="23"/>
-      <c r="H57" s="23"/>
-      <c r="I57" s="23"/>
-      <c r="J57" s="23"/>
-      <c r="K57" s="23"/>
-      <c r="L57" s="23"/>
-      <c r="M57" s="23"/>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A58" s="28" t="s">
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A58" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="B58" s="23"/>
-      <c r="C58" s="29"/>
-      <c r="D58" s="29"/>
-      <c r="E58" s="23"/>
-      <c r="F58" s="23"/>
-      <c r="G58" s="23"/>
-      <c r="H58" s="23"/>
-      <c r="I58" s="23"/>
-      <c r="J58" s="23"/>
-      <c r="K58" s="23"/>
-      <c r="L58" s="23"/>
-      <c r="M58" s="23"/>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A59" s="28" t="s">
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A59" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="B59" s="23"/>
-      <c r="C59" s="29"/>
-      <c r="D59" s="29"/>
-      <c r="E59" s="23"/>
-      <c r="F59" s="23"/>
-      <c r="G59" s="23"/>
-      <c r="H59" s="23"/>
-      <c r="I59" s="23"/>
-      <c r="J59" s="23"/>
-      <c r="K59" s="23"/>
-      <c r="L59" s="23"/>
-      <c r="M59" s="23"/>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A60" s="28" t="s">
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A60" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="B60" s="23"/>
-      <c r="C60" s="29"/>
-      <c r="D60" s="29"/>
-      <c r="E60" s="23"/>
-      <c r="F60" s="23"/>
-      <c r="G60" s="23"/>
-      <c r="H60" s="23"/>
-      <c r="I60" s="23"/>
-      <c r="J60" s="23"/>
-      <c r="K60" s="23"/>
-      <c r="L60" s="23"/>
-      <c r="M60" s="23"/>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A61" s="28" t="s">
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A61" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="B61" s="23"/>
-      <c r="C61" s="30"/>
-      <c r="D61" s="30"/>
-      <c r="E61" s="23"/>
-      <c r="F61" s="23"/>
-      <c r="G61" s="23"/>
-      <c r="H61" s="23"/>
-      <c r="I61" s="23"/>
-      <c r="J61" s="23"/>
-      <c r="K61" s="23"/>
-      <c r="L61" s="23"/>
-      <c r="M61" s="23"/>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A62" s="28" t="s">
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A62" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="B62" s="23"/>
-      <c r="C62" s="30"/>
-      <c r="D62" s="30"/>
-      <c r="E62" s="23"/>
-      <c r="F62" s="23"/>
-      <c r="G62" s="23"/>
-      <c r="H62" s="23"/>
-      <c r="I62" s="23"/>
-      <c r="J62" s="23"/>
-      <c r="K62" s="23"/>
-      <c r="L62" s="23"/>
-      <c r="M62" s="23"/>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A63" s="28" t="s">
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A63" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B63" s="23"/>
-      <c r="C63" s="30"/>
-      <c r="D63" s="30"/>
-      <c r="E63" s="23"/>
-      <c r="F63" s="23"/>
-      <c r="G63" s="23"/>
-      <c r="H63" s="23"/>
-      <c r="I63" s="23"/>
-      <c r="J63" s="23"/>
-      <c r="K63" s="23"/>
-      <c r="L63" s="23"/>
-      <c r="M63" s="23"/>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A64" s="28" t="s">
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="A64" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="B64" s="23"/>
-      <c r="C64" s="30"/>
-      <c r="D64" s="30"/>
-      <c r="E64" s="23"/>
-      <c r="F64" s="23"/>
-      <c r="G64" s="23"/>
-      <c r="H64" s="23"/>
-      <c r="I64" s="23"/>
-      <c r="J64" s="23"/>
-      <c r="K64" s="23"/>
-      <c r="L64" s="23"/>
-      <c r="M64" s="23"/>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A65" s="28" t="s">
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A65" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="B65" s="23"/>
-      <c r="C65" s="30"/>
-      <c r="D65" s="30"/>
-      <c r="E65" s="23"/>
-      <c r="F65" s="23"/>
-      <c r="G65" s="23"/>
-      <c r="H65" s="23"/>
-      <c r="I65" s="23"/>
-      <c r="J65" s="23"/>
-      <c r="K65" s="23"/>
-      <c r="L65" s="23"/>
-      <c r="M65" s="23"/>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A66" s="28" t="s">
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A66" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="B66" s="23"/>
-      <c r="C66" s="30"/>
-      <c r="D66" s="30"/>
-      <c r="E66" s="23"/>
-      <c r="F66" s="23"/>
-      <c r="G66" s="23"/>
-      <c r="H66" s="23"/>
-      <c r="I66" s="23"/>
-      <c r="J66" s="23"/>
-      <c r="K66" s="23"/>
-      <c r="L66" s="23"/>
-      <c r="M66" s="23"/>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A67" s="28" t="s">
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A67" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="B67" s="23"/>
-      <c r="C67" s="30"/>
-      <c r="D67" s="30"/>
-      <c r="E67" s="23"/>
-      <c r="F67" s="23"/>
-      <c r="G67" s="23"/>
-      <c r="H67" s="23"/>
-      <c r="I67" s="23"/>
-      <c r="J67" s="23"/>
-      <c r="K67" s="23"/>
-      <c r="L67" s="23"/>
-      <c r="M67" s="23"/>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A68" s="28" t="s">
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A68" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="B68" s="23"/>
-      <c r="C68" s="30"/>
-      <c r="D68" s="30"/>
-      <c r="E68" s="23"/>
-      <c r="F68" s="23"/>
-      <c r="G68" s="23"/>
-      <c r="H68" s="23"/>
-      <c r="I68" s="23"/>
-      <c r="J68" s="23"/>
-      <c r="K68" s="23"/>
-      <c r="L68" s="23"/>
-      <c r="M68" s="23"/>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A69" s="28" t="s">
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A69" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="B69" s="23"/>
-      <c r="C69" s="30"/>
-      <c r="D69" s="30"/>
-      <c r="E69" s="23"/>
-      <c r="F69" s="23"/>
-      <c r="G69" s="23"/>
-      <c r="H69" s="23"/>
-      <c r="I69" s="23"/>
-      <c r="J69" s="23"/>
-      <c r="K69" s="23"/>
-      <c r="L69" s="23"/>
-      <c r="M69" s="23"/>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A70" s="28" t="s">
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A70" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="B70" s="23"/>
-      <c r="C70" s="30"/>
-      <c r="D70" s="30"/>
-      <c r="E70" s="23"/>
-      <c r="F70" s="23"/>
-      <c r="G70" s="23"/>
-      <c r="H70" s="23"/>
-      <c r="I70" s="23"/>
-      <c r="J70" s="23"/>
-      <c r="K70" s="23"/>
-      <c r="L70" s="23"/>
-      <c r="M70" s="23"/>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A71" s="28" t="s">
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A71" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="B71" s="23"/>
-      <c r="C71" s="30"/>
-      <c r="D71" s="30"/>
-      <c r="E71" s="23"/>
-      <c r="F71" s="23"/>
-      <c r="G71" s="23"/>
-      <c r="H71" s="23"/>
-      <c r="I71" s="23"/>
-      <c r="J71" s="23"/>
-      <c r="K71" s="23"/>
-      <c r="L71" s="23"/>
-      <c r="M71" s="23"/>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A72" s="28" t="s">
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A72" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="B72" s="23"/>
-      <c r="C72" s="30"/>
-      <c r="D72" s="30"/>
-      <c r="E72" s="23"/>
-      <c r="F72" s="23"/>
-      <c r="G72" s="23"/>
-      <c r="H72" s="23"/>
-      <c r="I72" s="23"/>
-      <c r="J72" s="23"/>
-      <c r="K72" s="23"/>
-      <c r="L72" s="23"/>
-      <c r="M72" s="23"/>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A73" s="28" t="s">
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A73" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="B73" s="23"/>
-      <c r="C73" s="30"/>
-      <c r="D73" s="30"/>
-      <c r="E73" s="23"/>
-      <c r="F73" s="23"/>
-      <c r="G73" s="23"/>
-      <c r="H73" s="23"/>
-      <c r="I73" s="23"/>
-      <c r="J73" s="23"/>
-      <c r="K73" s="23"/>
-      <c r="L73" s="23"/>
-      <c r="M73" s="23"/>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A74" s="28" t="s">
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A74" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="B74" s="23"/>
-      <c r="C74" s="30"/>
-      <c r="D74" s="30"/>
-      <c r="E74" s="23"/>
-      <c r="F74" s="23"/>
-      <c r="G74" s="23"/>
-      <c r="H74" s="23"/>
-      <c r="I74" s="23"/>
-      <c r="J74" s="23"/>
-      <c r="K74" s="23"/>
-      <c r="L74" s="23"/>
-      <c r="M74" s="23"/>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A75" s="28" t="s">
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A75" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="B75" s="23"/>
-      <c r="C75" s="30"/>
-      <c r="D75" s="30"/>
-      <c r="E75" s="23"/>
-      <c r="F75" s="23"/>
-      <c r="G75" s="23"/>
-      <c r="H75" s="23"/>
-      <c r="I75" s="23"/>
-      <c r="J75" s="23"/>
-      <c r="K75" s="23"/>
-      <c r="L75" s="23"/>
-      <c r="M75" s="23"/>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A76" s="28" t="s">
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A76" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="B76" s="23"/>
-      <c r="C76" s="30"/>
-      <c r="D76" s="30"/>
-      <c r="E76" s="23"/>
-      <c r="F76" s="23"/>
-      <c r="G76" s="23"/>
-      <c r="H76" s="23"/>
-      <c r="I76" s="23"/>
-      <c r="J76" s="23"/>
-      <c r="K76" s="23"/>
-      <c r="L76" s="23"/>
-      <c r="M76" s="23"/>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A77" s="28" t="s">
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A77" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="B77" s="23"/>
-      <c r="C77" s="30"/>
-      <c r="D77" s="30"/>
-      <c r="E77" s="23"/>
-      <c r="F77" s="23"/>
-      <c r="G77" s="23"/>
-      <c r="H77" s="23"/>
-      <c r="I77" s="23"/>
-      <c r="J77" s="23"/>
-      <c r="K77" s="23"/>
-      <c r="L77" s="23"/>
-      <c r="M77" s="23"/>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A78" s="28" t="s">
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A78" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="B78" s="23"/>
-      <c r="C78" s="30"/>
-      <c r="D78" s="30"/>
-      <c r="E78" s="23"/>
-      <c r="F78" s="23"/>
-      <c r="G78" s="23"/>
-      <c r="H78" s="23"/>
-      <c r="I78" s="23"/>
-      <c r="J78" s="23"/>
-      <c r="K78" s="23"/>
-      <c r="L78" s="23"/>
-      <c r="M78" s="23"/>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A79" s="28" t="s">
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A79" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="B79" s="23"/>
-      <c r="C79" s="30"/>
-      <c r="D79" s="30"/>
-      <c r="E79" s="23"/>
-      <c r="F79" s="23"/>
-      <c r="G79" s="23"/>
-      <c r="H79" s="23"/>
-      <c r="I79" s="23"/>
-      <c r="J79" s="23"/>
-      <c r="K79" s="23"/>
-      <c r="L79" s="23"/>
-      <c r="M79" s="23"/>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A80" s="28" t="s">
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A80" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="B80" s="23"/>
-      <c r="C80" s="30"/>
-      <c r="D80" s="30"/>
-      <c r="E80" s="23"/>
-      <c r="F80" s="23"/>
-      <c r="G80" s="23"/>
-      <c r="H80" s="23"/>
-      <c r="I80" s="23"/>
-      <c r="J80" s="23"/>
-      <c r="K80" s="23"/>
-      <c r="L80" s="23"/>
-      <c r="M80" s="23"/>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A81" s="28" t="s">
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A81" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="B81" s="23"/>
-      <c r="C81" s="30"/>
-      <c r="D81" s="30"/>
-      <c r="E81" s="23"/>
-      <c r="F81" s="23"/>
-      <c r="G81" s="23"/>
-      <c r="H81" s="23"/>
-      <c r="I81" s="23"/>
-      <c r="J81" s="23"/>
-      <c r="K81" s="23"/>
-      <c r="L81" s="23"/>
-      <c r="M81" s="23"/>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A82" s="28" t="s">
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A82" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="B82" s="23"/>
-      <c r="C82" s="30"/>
-      <c r="D82" s="30"/>
-      <c r="E82" s="23"/>
-      <c r="F82" s="23"/>
-      <c r="G82" s="23"/>
-      <c r="H82" s="23"/>
-      <c r="I82" s="23"/>
-      <c r="J82" s="23"/>
-      <c r="K82" s="23"/>
-      <c r="L82" s="23"/>
-      <c r="M82" s="23"/>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A83" s="28" t="s">
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A83" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="B83" s="23"/>
-      <c r="C83" s="30"/>
-      <c r="D83" s="30"/>
-      <c r="E83" s="23"/>
-      <c r="F83" s="23"/>
-      <c r="G83" s="23"/>
-      <c r="H83" s="23"/>
-      <c r="I83" s="23"/>
-      <c r="J83" s="23"/>
-      <c r="K83" s="23"/>
-      <c r="L83" s="23"/>
-      <c r="M83" s="23"/>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A84" s="28" t="s">
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A84" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="B84" s="23"/>
-      <c r="C84" s="30"/>
-      <c r="D84" s="30"/>
-      <c r="E84" s="23"/>
-      <c r="F84" s="23"/>
-      <c r="G84" s="23"/>
-      <c r="H84" s="23"/>
-      <c r="I84" s="23"/>
-      <c r="J84" s="23"/>
-      <c r="K84" s="23"/>
-      <c r="L84" s="23"/>
-      <c r="M84" s="23"/>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A85" s="28" t="s">
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A85" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="B85" s="23"/>
-      <c r="C85" s="30"/>
-      <c r="D85" s="30"/>
-      <c r="E85" s="23"/>
-      <c r="F85" s="23"/>
-      <c r="G85" s="23"/>
-      <c r="H85" s="23"/>
-      <c r="I85" s="23"/>
-      <c r="J85" s="23"/>
-      <c r="K85" s="23"/>
-      <c r="L85" s="23"/>
-      <c r="M85" s="23"/>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A86" s="28" t="s">
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A86" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="B86" s="23"/>
-      <c r="C86" s="30"/>
-      <c r="D86" s="30"/>
-      <c r="E86" s="23"/>
-      <c r="F86" s="23"/>
-      <c r="G86" s="23"/>
-      <c r="H86" s="23"/>
-      <c r="I86" s="23"/>
-      <c r="J86" s="23"/>
-      <c r="K86" s="23"/>
-      <c r="L86" s="23"/>
-      <c r="M86" s="23"/>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A87" s="28" t="s">
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A87" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="B87" s="23"/>
-      <c r="C87" s="30"/>
-      <c r="D87" s="30"/>
-      <c r="E87" s="23"/>
-      <c r="F87" s="23"/>
-      <c r="G87" s="23"/>
-      <c r="H87" s="23"/>
-      <c r="I87" s="23"/>
-      <c r="J87" s="23"/>
-      <c r="K87" s="23"/>
-      <c r="L87" s="23"/>
-      <c r="M87" s="23"/>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A88" s="28" t="s">
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A88" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="B88" s="23"/>
-      <c r="C88" s="30"/>
-      <c r="D88" s="30"/>
-      <c r="E88" s="23"/>
-      <c r="F88" s="23"/>
-      <c r="G88" s="23"/>
-      <c r="H88" s="23"/>
-      <c r="I88" s="23"/>
-      <c r="J88" s="23"/>
-      <c r="K88" s="23"/>
-      <c r="L88" s="23"/>
-      <c r="M88" s="23"/>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A89" s="28" t="s">
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A89" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="B89" s="23"/>
-      <c r="C89" s="30"/>
-      <c r="D89" s="30"/>
-      <c r="E89" s="23"/>
-      <c r="F89" s="23"/>
-      <c r="G89" s="23"/>
-      <c r="H89" s="23"/>
-      <c r="I89" s="23"/>
-      <c r="J89" s="23"/>
-      <c r="K89" s="23"/>
-      <c r="L89" s="23"/>
-      <c r="M89" s="23"/>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A90" s="28" t="s">
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A90" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="B90" s="23"/>
-      <c r="C90" s="30"/>
-      <c r="D90" s="30"/>
-      <c r="E90" s="23"/>
-      <c r="F90" s="23"/>
-      <c r="G90" s="23"/>
-      <c r="H90" s="23"/>
-      <c r="I90" s="23"/>
-      <c r="J90" s="23"/>
-      <c r="K90" s="23"/>
-      <c r="L90" s="23"/>
-      <c r="M90" s="23"/>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A91" s="28" t="s">
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A91" s="22" t="s">
         <v>104</v>
       </c>
-      <c r="B91" s="23"/>
-      <c r="C91" s="30"/>
-      <c r="D91" s="30"/>
-      <c r="E91" s="23"/>
-      <c r="F91" s="23"/>
-      <c r="G91" s="23"/>
-      <c r="H91" s="23"/>
-      <c r="I91" s="23"/>
-      <c r="J91" s="23"/>
-      <c r="K91" s="23"/>
-      <c r="L91" s="23"/>
-      <c r="M91" s="23"/>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A92" s="28" t="s">
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A92" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="B92" s="23"/>
-      <c r="C92" s="30"/>
-      <c r="D92" s="30"/>
-      <c r="E92" s="23"/>
-      <c r="F92" s="23"/>
-      <c r="G92" s="23"/>
-      <c r="H92" s="23"/>
-      <c r="I92" s="23"/>
-      <c r="J92" s="23"/>
-      <c r="K92" s="23"/>
-      <c r="L92" s="23"/>
-      <c r="M92" s="23"/>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A93" s="28" t="s">
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A93" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="B93" s="23"/>
-      <c r="C93" s="30"/>
-      <c r="D93" s="30"/>
-      <c r="E93" s="23"/>
-      <c r="F93" s="23"/>
-      <c r="G93" s="23"/>
-      <c r="H93" s="23"/>
-      <c r="I93" s="23"/>
-      <c r="J93" s="23"/>
-      <c r="K93" s="23"/>
-      <c r="L93" s="23"/>
-      <c r="M93" s="23"/>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A94" s="28" t="s">
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A94" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="B94" s="23"/>
-      <c r="C94" s="30"/>
-      <c r="D94" s="30"/>
-      <c r="E94" s="23"/>
-      <c r="F94" s="23"/>
-      <c r="G94" s="23"/>
-      <c r="H94" s="23"/>
-      <c r="I94" s="23"/>
-      <c r="J94" s="23"/>
-      <c r="K94" s="23"/>
-      <c r="L94" s="23"/>
-      <c r="M94" s="23"/>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A95" s="28" t="s">
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A95" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="B95" s="23"/>
-      <c r="C95" s="30"/>
-      <c r="D95" s="30"/>
-      <c r="E95" s="23"/>
-      <c r="F95" s="23"/>
-      <c r="G95" s="23"/>
-      <c r="H95" s="23"/>
-      <c r="I95" s="23"/>
-      <c r="J95" s="23"/>
-      <c r="K95" s="23"/>
-      <c r="L95" s="23"/>
-      <c r="M95" s="23"/>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A96" s="28" t="s">
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A96" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="B96" s="23"/>
-      <c r="C96" s="30"/>
-      <c r="D96" s="30"/>
-      <c r="E96" s="23"/>
-      <c r="F96" s="23"/>
-      <c r="G96" s="23"/>
-      <c r="H96" s="23"/>
-      <c r="I96" s="23"/>
-      <c r="J96" s="23"/>
-      <c r="K96" s="23"/>
-      <c r="L96" s="23"/>
-      <c r="M96" s="23"/>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A97" s="28" t="s">
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A97" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="B97" s="23"/>
-      <c r="C97" s="30"/>
-      <c r="D97" s="30"/>
-      <c r="E97" s="23"/>
-      <c r="F97" s="23"/>
-      <c r="G97" s="23"/>
-      <c r="H97" s="23"/>
-      <c r="I97" s="23"/>
-      <c r="J97" s="23"/>
-      <c r="K97" s="23"/>
-      <c r="L97" s="23"/>
-      <c r="M97" s="23"/>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A98" s="28" t="s">
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A98" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="B98" s="23"/>
-      <c r="C98" s="30"/>
-      <c r="D98" s="30"/>
-      <c r="E98" s="23"/>
-      <c r="F98" s="23"/>
-      <c r="G98" s="23"/>
-      <c r="H98" s="23"/>
-      <c r="I98" s="23"/>
-      <c r="J98" s="23"/>
-      <c r="K98" s="23"/>
-      <c r="L98" s="23"/>
-      <c r="M98" s="23"/>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A99" s="28" t="s">
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A99" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="B99" s="23"/>
-      <c r="C99" s="30"/>
-      <c r="D99" s="30"/>
-      <c r="E99" s="23"/>
-      <c r="F99" s="23"/>
-      <c r="G99" s="23"/>
-      <c r="H99" s="23"/>
-      <c r="I99" s="23"/>
-      <c r="J99" s="23"/>
-      <c r="K99" s="23"/>
-      <c r="L99" s="23"/>
-      <c r="M99" s="23"/>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A100" s="28" t="s">
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A100" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="B100" s="23"/>
-      <c r="C100" s="30"/>
-      <c r="D100" s="30"/>
-      <c r="E100" s="23"/>
-      <c r="F100" s="23"/>
-      <c r="G100" s="23"/>
-      <c r="H100" s="23"/>
-      <c r="I100" s="23"/>
-      <c r="J100" s="23"/>
-      <c r="K100" s="23"/>
-      <c r="L100" s="23"/>
-      <c r="M100" s="23"/>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A101" s="28" t="s">
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A101" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="B101" s="23"/>
-      <c r="C101" s="30"/>
-      <c r="D101" s="30"/>
-      <c r="E101" s="23"/>
-      <c r="F101" s="23"/>
-      <c r="G101" s="23"/>
-      <c r="H101" s="23"/>
-      <c r="I101" s="23"/>
-      <c r="J101" s="23"/>
-      <c r="K101" s="23"/>
-      <c r="L101" s="23"/>
-      <c r="M101" s="23"/>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.5">
-      <c r="A102" s="28" t="s">
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A102" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="B102" s="23"/>
-      <c r="C102" s="30"/>
-      <c r="D102" s="30"/>
-      <c r="E102" s="23"/>
-      <c r="F102" s="23"/>
-      <c r="G102" s="23"/>
-      <c r="H102" s="23"/>
-      <c r="I102" s="23"/>
-      <c r="J102" s="23"/>
-      <c r="K102" s="23"/>
-      <c r="L102" s="23"/>
-      <c r="M102" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="M1" r:id="rId1" location="gid=1631495971" display="Sample の記入例" xr:uid="{2A7865C0-5259-4BDE-AA91-872D7C30E5A3}"/>
+    <hyperlink ref="S1" r:id="rId1" location="gid=1631495971" display="Sample の記入例" xr:uid="{DC3A9810-C86A-409D-BAFE-4E65DF9AA85A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -8840,7 +7905,7 @@
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="36.109375" style="9" customWidth="1"/>
-    <col min="2" max="2" width="59.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="21.88671875" style="1" bestFit="1" customWidth="1"/>
@@ -8867,115 +7932,115 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>567</v>
+        <v>558</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>680</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="L1" s="30" t="s">
+        <v>559</v>
+      </c>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.5">
+      <c r="A2" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>580</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="H2" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="K2" s="18" t="s">
+        <v>550</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>410</v>
+      </c>
+      <c r="M2" s="19" t="s">
+        <v>562</v>
+      </c>
+      <c r="N2" s="18" t="s">
         <v>411</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>698</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="O2" s="18" t="s">
         <v>412</v>
       </c>
-      <c r="L1" s="31" t="s">
-        <v>568</v>
-      </c>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A2" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>592</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>217</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>227</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>222</v>
-      </c>
-      <c r="K2" s="17" t="s">
-        <v>558</v>
-      </c>
-      <c r="L2" s="17" t="s">
+      <c r="P2" s="18" t="s">
         <v>413</v>
       </c>
-      <c r="M2" s="18" t="s">
-        <v>571</v>
-      </c>
-      <c r="N2" s="17" t="s">
-        <v>414</v>
-      </c>
-      <c r="O2" s="17" t="s">
-        <v>415</v>
-      </c>
-      <c r="P2" s="17" t="s">
-        <v>416</v>
-      </c>
-      <c r="Q2" s="17" t="s">
-        <v>587</v>
+      <c r="Q2" s="18" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="22" t="s">
         <v>116</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>835</v>
+        <v>866</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>836</v>
+        <v>867</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>837</v>
+        <v>868</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>823</v>
+        <v>845</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>271</v>
@@ -8990,42 +8055,42 @@
         <v>302</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>837</v>
+        <v>868</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>838</v>
+        <v>869</v>
       </c>
       <c r="L3" s="1">
         <v>200</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O3" s="1">
         <v>1</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>848</v>
+        <v>884</v>
       </c>
       <c r="Q3" s="1">
         <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="22" t="s">
         <v>117</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>851</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>839</v>
+        <v>870</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>837</v>
+        <v>868</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>832</v>
+        <v>854</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>271</v>
@@ -9040,1100 +8105,1100 @@
         <v>302</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>837</v>
+        <v>868</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>838</v>
+        <v>869</v>
       </c>
       <c r="L4" s="1">
         <v>200</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O4" s="1">
         <v>1</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>848</v>
+        <v>884</v>
       </c>
       <c r="Q4" s="1">
         <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="22" t="s">
         <v>118</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O5" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="22" t="s">
         <v>119</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O6" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="22" t="s">
         <v>120</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O7" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="22" t="s">
         <v>121</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O8" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="22" t="s">
         <v>122</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O9" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="22" t="s">
         <v>123</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O10" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="22" t="s">
         <v>124</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O11" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="22" t="s">
         <v>125</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O12" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="22" t="s">
         <v>126</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O13" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="22" t="s">
         <v>127</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O14" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="22" t="s">
         <v>128</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O15" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.5">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="22" t="s">
         <v>129</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O16" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="22" t="s">
         <v>130</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O17" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="22" t="s">
         <v>131</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O18" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="22" t="s">
         <v>132</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O19" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="22" t="s">
         <v>133</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O20" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="22" t="s">
         <v>134</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O21" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="22" t="s">
         <v>135</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O22" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="22" t="s">
         <v>136</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O23" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="22" t="s">
         <v>137</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O24" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="22" t="s">
         <v>138</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O25" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="22" t="s">
         <v>139</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O26" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="22" t="s">
         <v>140</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O27" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="22" t="s">
         <v>141</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O28" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="22" t="s">
         <v>142</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O29" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="22" t="s">
         <v>143</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O30" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="22" t="s">
         <v>144</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O31" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="22" t="s">
         <v>145</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O32" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="22" t="s">
         <v>146</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O33" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="22" t="s">
         <v>147</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O34" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A35" s="21" t="s">
+      <c r="A35" s="22" t="s">
         <v>148</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O35" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A36" s="21" t="s">
+      <c r="A36" s="22" t="s">
         <v>149</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O36" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A37" s="21" t="s">
+      <c r="A37" s="22" t="s">
         <v>150</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O37" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A38" s="21" t="s">
+      <c r="A38" s="22" t="s">
         <v>151</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O38" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A39" s="21" t="s">
+      <c r="A39" s="22" t="s">
         <v>152</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O39" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A40" s="21" t="s">
+      <c r="A40" s="22" t="s">
         <v>153</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O40" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A41" s="21" t="s">
+      <c r="A41" s="22" t="s">
         <v>154</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O41" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A42" s="21" t="s">
+      <c r="A42" s="22" t="s">
         <v>155</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O42" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A43" s="21" t="s">
+      <c r="A43" s="22" t="s">
         <v>156</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O43" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A44" s="21" t="s">
+      <c r="A44" s="22" t="s">
         <v>157</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O44" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A45" s="21" t="s">
+      <c r="A45" s="22" t="s">
         <v>158</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O45" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A46" s="21" t="s">
+      <c r="A46" s="22" t="s">
         <v>159</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O46" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A47" s="21" t="s">
+      <c r="A47" s="22" t="s">
         <v>160</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O47" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A48" s="21" t="s">
+      <c r="A48" s="22" t="s">
         <v>161</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O48" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A49" s="21" t="s">
+      <c r="A49" s="22" t="s">
         <v>162</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O49" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A50" s="21" t="s">
+      <c r="A50" s="22" t="s">
         <v>163</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O50" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A51" s="21" t="s">
+      <c r="A51" s="22" t="s">
         <v>164</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O51" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A52" s="21" t="s">
+      <c r="A52" s="22" t="s">
         <v>165</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O52" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A53" s="21" t="s">
+      <c r="A53" s="22" t="s">
         <v>166</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O53" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A54" s="21" t="s">
+      <c r="A54" s="22" t="s">
         <v>167</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O54" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A55" s="21" t="s">
+      <c r="A55" s="22" t="s">
         <v>168</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O55" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A56" s="21" t="s">
+      <c r="A56" s="22" t="s">
         <v>169</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O56" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A57" s="21" t="s">
+      <c r="A57" s="22" t="s">
         <v>170</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O57" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A58" s="21" t="s">
+      <c r="A58" s="22" t="s">
         <v>171</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O58" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A59" s="21" t="s">
+      <c r="A59" s="22" t="s">
         <v>172</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O59" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A60" s="21" t="s">
+      <c r="A60" s="22" t="s">
         <v>173</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O60" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A61" s="21" t="s">
+      <c r="A61" s="22" t="s">
         <v>174</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O61" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A62" s="21" t="s">
+      <c r="A62" s="22" t="s">
         <v>175</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O62" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A63" s="21" t="s">
+      <c r="A63" s="22" t="s">
         <v>176</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O63" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A64" s="21" t="s">
+      <c r="A64" s="22" t="s">
         <v>177</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O64" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A65" s="21" t="s">
+      <c r="A65" s="22" t="s">
         <v>178</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O65" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A66" s="21" t="s">
+      <c r="A66" s="22" t="s">
         <v>179</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O66" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A67" s="21" t="s">
+      <c r="A67" s="22" t="s">
         <v>180</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O67" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A68" s="21" t="s">
+      <c r="A68" s="22" t="s">
         <v>181</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O68" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A69" s="21" t="s">
+      <c r="A69" s="22" t="s">
         <v>182</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O69" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A70" s="21" t="s">
+      <c r="A70" s="22" t="s">
         <v>183</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O70" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A71" s="21" t="s">
+      <c r="A71" s="22" t="s">
         <v>184</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O71" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A72" s="21" t="s">
+      <c r="A72" s="22" t="s">
         <v>185</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O72" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A73" s="21" t="s">
+      <c r="A73" s="22" t="s">
         <v>186</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O73" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A74" s="21" t="s">
+      <c r="A74" s="22" t="s">
         <v>187</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O74" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A75" s="21" t="s">
+      <c r="A75" s="22" t="s">
         <v>188</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O75" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A76" s="21" t="s">
+      <c r="A76" s="22" t="s">
         <v>189</v>
       </c>
       <c r="N76" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O76" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A77" s="21" t="s">
+      <c r="A77" s="22" t="s">
         <v>190</v>
       </c>
       <c r="N77" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O77" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A78" s="21" t="s">
+      <c r="A78" s="22" t="s">
         <v>191</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O78" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A79" s="21" t="s">
+      <c r="A79" s="22" t="s">
         <v>192</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O79" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A80" s="21" t="s">
+      <c r="A80" s="22" t="s">
         <v>193</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O80" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A81" s="21" t="s">
+      <c r="A81" s="22" t="s">
         <v>194</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O81" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A82" s="21" t="s">
+      <c r="A82" s="22" t="s">
         <v>195</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O82" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A83" s="21" t="s">
+      <c r="A83" s="22" t="s">
         <v>196</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O83" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A84" s="21" t="s">
+      <c r="A84" s="22" t="s">
         <v>197</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O84" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A85" s="21" t="s">
+      <c r="A85" s="22" t="s">
         <v>198</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O85" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A86" s="21" t="s">
+      <c r="A86" s="22" t="s">
         <v>199</v>
       </c>
       <c r="N86" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O86" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A87" s="21" t="s">
+      <c r="A87" s="22" t="s">
         <v>200</v>
       </c>
       <c r="N87" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O87" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A88" s="21" t="s">
+      <c r="A88" s="22" t="s">
         <v>201</v>
       </c>
       <c r="N88" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O88" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A89" s="21" t="s">
+      <c r="A89" s="22" t="s">
         <v>202</v>
       </c>
       <c r="N89" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O89" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A90" s="21" t="s">
+      <c r="A90" s="22" t="s">
         <v>203</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O90" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A91" s="21" t="s">
+      <c r="A91" s="22" t="s">
         <v>204</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O91" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A92" s="21" t="s">
+      <c r="A92" s="22" t="s">
         <v>205</v>
       </c>
       <c r="N92" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O92" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A93" s="21" t="s">
+      <c r="A93" s="22" t="s">
         <v>206</v>
       </c>
       <c r="N93" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O93" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A94" s="21" t="s">
+      <c r="A94" s="22" t="s">
         <v>207</v>
       </c>
       <c r="N94" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O94" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A95" s="21" t="s">
+      <c r="A95" s="22" t="s">
         <v>208</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O95" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A96" s="21" t="s">
+      <c r="A96" s="22" t="s">
         <v>209</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O96" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A97" s="21" t="s">
+      <c r="A97" s="22" t="s">
         <v>210</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O97" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A98" s="21" t="s">
+      <c r="A98" s="22" t="s">
         <v>211</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O98" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A99" s="21" t="s">
+      <c r="A99" s="22" t="s">
         <v>212</v>
       </c>
       <c r="N99" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O99" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A100" s="21" t="s">
+      <c r="A100" s="22" t="s">
         <v>213</v>
       </c>
       <c r="N100" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O100" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A101" s="21" t="s">
+      <c r="A101" s="22" t="s">
         <v>214</v>
       </c>
       <c r="N101" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O101" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A102" s="21" t="s">
+      <c r="A102" s="22" t="s">
         <v>215</v>
       </c>
       <c r="N102" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="O102" s="1">
         <v>1</v>
@@ -10225,566 +9290,566 @@
   <sheetData>
     <row r="1" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>750</v>
+        <v>727</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>330</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>331</v>
       </c>
-      <c r="C2" s="17" t="s">
-        <v>559</v>
-      </c>
-      <c r="D2" s="17" t="s">
+      <c r="C2" s="18" t="s">
+        <v>551</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>552</v>
+      </c>
+      <c r="E2" s="19" t="s">
         <v>560</v>
       </c>
-      <c r="E2" s="18" t="s">
-        <v>569</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>570</v>
+      <c r="F2" s="19" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A3" s="21" t="s">
-        <v>445</v>
+      <c r="A3" s="22" t="s">
+        <v>438</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>840</v>
+        <v>871</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>852</v>
+        <v>872</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>336</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>841</v>
+        <v>873</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A4" s="21" t="s">
-        <v>446</v>
+      <c r="A4" s="22" t="s">
+        <v>439</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>117</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>853</v>
+        <v>874</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>336</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>841</v>
+        <v>873</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="22" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A6" s="22" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A7" s="22" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A8" s="22" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A9" s="22" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A10" s="22" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A11" s="22" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A12" s="22" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A6" s="21" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A13" s="22" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A7" s="21" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A14" s="22" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A8" s="21" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A15" s="22" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A9" s="21" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A16" s="22" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A10" s="21" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A17" s="22" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A11" s="21" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A18" s="22" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A12" s="21" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A19" s="22" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A13" s="21" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A20" s="22" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A14" s="21" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A21" s="22" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A15" s="21" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A22" s="22" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
-      <c r="A16" s="21" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A23" s="22" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A17" s="21" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A24" s="22" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A18" s="21" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A25" s="22" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A19" s="21" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A26" s="22" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A20" s="21" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A27" s="22" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A21" s="21" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A28" s="22" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A22" s="21" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A29" s="22" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A23" s="21" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A30" s="22" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A24" s="21" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A31" s="22" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A25" s="21" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A32" s="22" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A26" s="21" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A33" s="22" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A27" s="21" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A34" s="22" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A28" s="21" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A35" s="22" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A29" s="21" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A36" s="22" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A30" s="21" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A37" s="22" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A31" s="21" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A38" s="22" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A32" s="21" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A39" s="22" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A33" s="21" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A40" s="22" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A34" s="21" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A41" s="22" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A35" s="21" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A42" s="22" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A36" s="21" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A43" s="22" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A37" s="21" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A44" s="22" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A38" s="21" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A45" s="22" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A39" s="21" t="s">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A46" s="22" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A40" s="21" t="s">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A47" s="22" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A41" s="21" t="s">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A48" s="22" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A42" s="21" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A49" s="22" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A43" s="21" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A50" s="22" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A44" s="21" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A51" s="22" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A45" s="21" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A52" s="22" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A46" s="21" t="s">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A53" s="22" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A47" s="21" t="s">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A54" s="22" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A48" s="21" t="s">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A55" s="22" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A49" s="21" t="s">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A56" s="22" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A50" s="21" t="s">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A57" s="22" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A51" s="21" t="s">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A58" s="22" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A52" s="21" t="s">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A59" s="22" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A53" s="21" t="s">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A60" s="22" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A54" s="21" t="s">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A61" s="22" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A55" s="21" t="s">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A62" s="22" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A56" s="21" t="s">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A63" s="22" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A57" s="21" t="s">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A64" s="22" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A58" s="21" t="s">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A65" s="22" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A59" s="21" t="s">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A66" s="22" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A60" s="21" t="s">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A67" s="22" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A61" s="21" t="s">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A68" s="22" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A62" s="21" t="s">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A69" s="22" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A63" s="21" t="s">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A70" s="22" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A64" s="21" t="s">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A71" s="22" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A65" s="21" t="s">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A72" s="22" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A66" s="21" t="s">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A73" s="22" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A67" s="21" t="s">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A74" s="22" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A68" s="21" t="s">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A75" s="22" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A69" s="21" t="s">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A76" s="22" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A70" s="21" t="s">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A77" s="22" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A71" s="21" t="s">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A78" s="22" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A72" s="21" t="s">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A79" s="22" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A73" s="21" t="s">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A80" s="22" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A74" s="21" t="s">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A81" s="22" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A75" s="21" t="s">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A82" s="22" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A76" s="21" t="s">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A83" s="22" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A77" s="21" t="s">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A84" s="22" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A78" s="21" t="s">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A85" s="22" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A79" s="21" t="s">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A86" s="22" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A80" s="21" t="s">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A87" s="22" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A81" s="21" t="s">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A88" s="22" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A82" s="21" t="s">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A89" s="22" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A83" s="21" t="s">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A90" s="22" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A84" s="21" t="s">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A91" s="22" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A85" s="21" t="s">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A92" s="22" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A86" s="21" t="s">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A93" s="22" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A87" s="21" t="s">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A94" s="22" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A88" s="21" t="s">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A95" s="22" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A89" s="21" t="s">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A96" s="22" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A90" s="21" t="s">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A97" s="22" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A91" s="21" t="s">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A98" s="22" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A92" s="21" t="s">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A99" s="22" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A93" s="21" t="s">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A100" s="22" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A94" s="21" t="s">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A101" s="22" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A95" s="21" t="s">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.5">
+      <c r="A102" s="22" t="s">
         <v>537</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A96" s="21" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A97" s="21" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A98" s="21" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A99" s="21" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A100" s="21" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A101" s="21" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.5">
-      <c r="A102" s="21" t="s">
-        <v>544</v>
       </c>
     </row>
   </sheetData>
@@ -10813,224 +9878,225 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:U12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.88671875" defaultRowHeight="16.8" customHeight="1" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="18.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="16384" width="18.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>751</v>
+        <v>728</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>648</v>
+        <v>630</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>649</v>
+        <v>631</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>697</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>693</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>694</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>695</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>696</v>
-      </c>
-      <c r="Q1" s="12" t="s">
-        <v>793</v>
+        <v>679</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>675</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>676</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>677</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>678</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>769</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>786</v>
+        <v>762</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>787</v>
+        <v>763</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>788</v>
+        <v>764</v>
       </c>
       <c r="U1" s="10" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="17" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.5">
+      <c r="A2" s="18" t="s">
         <v>330</v>
       </c>
-      <c r="B2" s="17" t="s">
-        <v>546</v>
-      </c>
-      <c r="C2" s="17" t="s">
+      <c r="B2" s="18" t="s">
+        <v>539</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="D2" s="18" t="s">
-        <v>551</v>
-      </c>
-      <c r="E2" s="17" t="s">
+      <c r="D2" s="19" t="s">
+        <v>544</v>
+      </c>
+      <c r="E2" s="18" t="s">
         <v>352</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="18" t="s">
         <v>353</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="18" t="s">
         <v>354</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="18" t="s">
         <v>332</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="18" t="s">
         <v>333</v>
       </c>
-      <c r="J2" s="18" t="s">
-        <v>569</v>
-      </c>
-      <c r="K2" s="18" t="s">
-        <v>570</v>
-      </c>
-      <c r="L2" s="17" t="s">
-        <v>688</v>
-      </c>
-      <c r="M2" s="17" t="s">
-        <v>689</v>
-      </c>
-      <c r="N2" s="17" t="s">
-        <v>690</v>
-      </c>
-      <c r="O2" s="17" t="s">
-        <v>691</v>
-      </c>
-      <c r="P2" s="18" t="s">
-        <v>692</v>
-      </c>
-      <c r="Q2" s="22" t="s">
-        <v>789</v>
-      </c>
-      <c r="R2" s="22" t="s">
-        <v>790</v>
-      </c>
-      <c r="S2" s="22" t="s">
-        <v>791</v>
-      </c>
-      <c r="T2" s="22" t="s">
-        <v>792</v>
-      </c>
-      <c r="U2" s="18" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="21" t="s">
+      <c r="J2" s="19" t="s">
+        <v>560</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>561</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>670</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>671</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>672</v>
+      </c>
+      <c r="O2" s="18" t="s">
+        <v>673</v>
+      </c>
+      <c r="P2" s="19" t="s">
+        <v>674</v>
+      </c>
+      <c r="Q2" s="23" t="s">
+        <v>765</v>
+      </c>
+      <c r="R2" s="23" t="s">
+        <v>766</v>
+      </c>
+      <c r="S2" s="23" t="s">
+        <v>767</v>
+      </c>
+      <c r="T2" s="23" t="s">
+        <v>768</v>
+      </c>
+      <c r="U2" s="19" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.5">
+      <c r="A3" s="22" t="s">
         <v>342</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>842</v>
+        <v>875</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>854</v>
+        <v>876</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>859</v>
+        <v>877</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>855</v>
+        <v>878</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>856</v>
+        <v>885</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>356</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>843</v>
+        <v>879</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>857</v>
+        <v>873</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>796</v>
+        <v>772</v>
       </c>
       <c r="R3" s="1" t="s">
         <v>254</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="21" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.5">
+      <c r="A4" s="22" t="s">
         <v>343</v>
       </c>
-      <c r="F4" s="10"/>
-    </row>
-    <row r="5" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="21" t="s">
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.5">
+      <c r="A5" s="22" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="21" t="s">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.5">
+      <c r="A6" s="22" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="21" t="s">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.5">
+      <c r="A7" s="22" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="21" t="s">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.5">
+      <c r="A8" s="22" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="21" t="s">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.5">
+      <c r="A9" s="22" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="21" t="s">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.5">
+      <c r="A10" s="22" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="21" t="s">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.5">
+      <c r="A11" s="22" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="16.8" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="21" t="s">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.5">
+      <c r="A12" s="22" t="s">
         <v>351</v>
       </c>
     </row>
@@ -11040,7 +10106,7 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0600-000000000000}">
           <x14:formula1>
             <xm:f>Admin!$H$2:$H$4</xm:f>
@@ -11057,37 +10123,31 @@
           <x14:formula1>
             <xm:f>Admin!$J$2:$J$14</xm:f>
           </x14:formula1>
-          <xm:sqref>L6:L12 L3:L4</xm:sqref>
+          <xm:sqref>L3:L12</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0600-000003000000}">
           <x14:formula1>
             <xm:f>Admin!$I$2:$I$15</xm:f>
           </x14:formula1>
-          <xm:sqref>G6:G12 G3:G4</xm:sqref>
+          <xm:sqref>G3:G12</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0600-000004000000}">
           <x14:formula1>
             <xm:f>Admin!$K$2:$K$52</xm:f>
           </x14:formula1>
-          <xm:sqref>I6:I12 I3:I4</xm:sqref>
+          <xm:sqref>I3:I12</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0600-000005000000}">
           <x14:formula1>
             <xm:f>Admin!$O$2:$O$3</xm:f>
           </x14:formula1>
-          <xm:sqref>Q6:Q12 Q3:Q4</xm:sqref>
+          <xm:sqref>Q3:Q12</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0600-000006000000}">
           <x14:formula1>
             <xm:f>Admin!$P$2</xm:f>
           </x14:formula1>
-          <xm:sqref>T6:T12 T3:T4</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0600-000007000000}">
-          <x14:formula1>
-            <xm:f>Admin!$B$2:$B$65</xm:f>
-          </x14:formula1>
-          <xm:sqref>R3</xm:sqref>
+          <xm:sqref>T3:T12</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -11100,7 +10160,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -11111,64 +10171,59 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>597</v>
+        <v>585</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>330</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>551</v>
-      </c>
-      <c r="C2" s="18" t="s">
+      <c r="B2" s="19" t="s">
+        <v>544</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>365</v>
+      </c>
+      <c r="D2" s="19" t="s">
         <v>366</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="E2" s="18" t="s">
+        <v>352</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="G2" s="19" t="s">
         <v>367</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>352</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>353</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>368</v>
-      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="22" t="s">
         <v>364</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>844</v>
+        <v>880</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A4" s="21" t="s">
-        <v>365</v>
+        <v>880</v>
       </c>
     </row>
   </sheetData>
@@ -11208,42 +10263,42 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>745</v>
+        <v>724</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>746</v>
+        <v>725</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A2" s="17" t="s">
-        <v>743</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>744</v>
+      <c r="A2" s="18" t="s">
+        <v>722</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
-        <v>860</v>
+        <v>872</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>845</v>
+        <v>881</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
-        <v>861</v>
+        <v>874</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>846</v>
+        <v>882</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
-        <v>843</v>
+        <v>879</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>847</v>
+        <v>883</v>
       </c>
     </row>
   </sheetData>

--- a/example/JSUB999999_jga_metadata.xlsx
+++ b/example/JSUB999999_jga_metadata.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A45ECE85-A78F-43E6-8688-2AD3F8BB688D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{637788CA-CF00-454D-B649-DF167018EA65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="12" r:id="rId1"/>
-    <sheet name="Submission" sheetId="1" r:id="rId2"/>
-    <sheet name="Study" sheetId="2" r:id="rId3"/>
-    <sheet name="Sample" sheetId="3" r:id="rId4"/>
-    <sheet name="Experiment" sheetId="4" r:id="rId5"/>
-    <sheet name="Data" sheetId="5" r:id="rId6"/>
-    <sheet name="Analysis" sheetId="7" r:id="rId7"/>
-    <sheet name="Dataset" sheetId="9" r:id="rId8"/>
-    <sheet name="File" sheetId="13" r:id="rId9"/>
+    <sheet name="JGA_Submission" sheetId="1" r:id="rId2"/>
+    <sheet name="JGA_Study" sheetId="2" r:id="rId3"/>
+    <sheet name="JGA_Sample" sheetId="3" r:id="rId4"/>
+    <sheet name="JGA_Experiment" sheetId="4" r:id="rId5"/>
+    <sheet name="JGA_Data" sheetId="5" r:id="rId6"/>
+    <sheet name="JGA_Analysis" sheetId="7" r:id="rId7"/>
+    <sheet name="JGA_Dataset" sheetId="9" r:id="rId8"/>
+    <sheet name="JGA_File" sheetId="13" r:id="rId9"/>
     <sheet name="Admin" sheetId="10" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Analysis!$A$2:$P$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">JGA_Analysis!$A$2:$P$12</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="887">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="888">
   <si>
     <t>E-mail</t>
     <phoneticPr fontId="1"/>
@@ -4520,6 +4520,16 @@
   </si>
   <si>
     <t>Variant caller X</t>
+  </si>
+  <si>
+    <t>シート名に DB プレフィックスを付加</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>フカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -5079,7 +5089,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
@@ -5209,7 +5219,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A28" s="7">
-        <v>45457</v>
+        <v>45478</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.5">
@@ -5335,6 +5345,14 @@
       </c>
       <c r="B45" s="7">
         <v>45457</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A46" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="B46" s="7">
+        <v>45478</v>
       </c>
     </row>
   </sheetData>
@@ -9878,9 +9896,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:U12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>

--- a/example/JSUB999999_jga_metadata.xlsx
+++ b/example/JSUB999999_jga_metadata.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{637788CA-CF00-454D-B649-DF167018EA65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F89992-0A34-4EAF-8EF5-3EB0119666C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="888">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="891">
   <si>
     <t>E-mail</t>
     <phoneticPr fontId="1"/>
@@ -4530,6 +4530,16 @@
       <t>フカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Library Source SINGLE CELL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GENOMIC SINGLE CELL</t>
+  </si>
+  <si>
+    <t>TRANSCRIPTOMIC SINGLE CELL</t>
   </si>
 </sst>
 </file>
@@ -5089,7 +5099,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
@@ -5219,7 +5229,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A28" s="7">
-        <v>45478</v>
+        <v>45588</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.5">
@@ -5353,6 +5363,14 @@
       </c>
       <c r="B46" s="7">
         <v>45478</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A47" s="1" t="s">
+        <v>888</v>
+      </c>
+      <c r="B47" s="7">
+        <v>45588</v>
       </c>
     </row>
   </sheetData>
@@ -5504,7 +5522,7 @@
         <v>245</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>272</v>
+        <v>889</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>279</v>
@@ -5551,7 +5569,7 @@
         <v>246</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>280</v>
@@ -5586,7 +5604,7 @@
         <v>247</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>274</v>
+        <v>890</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>281</v>
@@ -5621,7 +5639,7 @@
         <v>248</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>282</v>
@@ -5653,7 +5671,7 @@
         <v>249</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>283</v>
@@ -5685,7 +5703,7 @@
         <v>250</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>284</v>
@@ -5716,6 +5734,9 @@
       <c r="B9" s="1" t="s">
         <v>251</v>
       </c>
+      <c r="C9" s="1" t="s">
+        <v>276</v>
+      </c>
       <c r="D9" s="1" t="s">
         <v>285</v>
       </c>
@@ -5744,6 +5765,9 @@
       </c>
       <c r="B10" s="1" t="s">
         <v>252</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>277</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>286</v>
@@ -9234,7 +9258,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="8">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000000000000}">
           <x14:formula1>
-            <xm:f>Admin!$C$2:$C$8</xm:f>
+            <xm:f>Admin!$C$2:$C$10</xm:f>
           </x14:formula1>
           <xm:sqref>F3:F102</xm:sqref>
         </x14:dataValidation>

--- a/example/JSUB999999_jga_metadata.xlsx
+++ b/example/JSUB999999_jga_metadata.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F89992-0A34-4EAF-8EF5-3EB0119666C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9FC7C8F-5DA4-42D5-8184-75BDA7C105F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="144" yWindow="0" windowWidth="24540" windowHeight="13440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="12" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="891">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="909">
   <si>
     <t>E-mail</t>
     <phoneticPr fontId="1"/>
@@ -3284,18 +3284,6 @@
     <t>Analyze</t>
   </si>
   <si>
-    <t>Illumina MiniSeq</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Ion Torrent S5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Ion Torrent S5 XL</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アレイデータを Analysis に移行、Analysis filetype 追加、Experiment Instrument model 追加</t>
     <rPh sb="18" eb="20">
       <t>イコウ</t>
@@ -3395,14 +3383,6 @@
   </si>
   <si>
     <t>cDNA_oligo_dT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Illumina NovaSeq 6000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Illumina iSeq 100</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -4540,6 +4520,80 @@
   </si>
   <si>
     <t>TRANSCRIPTOMIC SINGLE CELL</t>
+  </si>
+  <si>
+    <t>2025/xx/yy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JGA xsd 1.3.0 に対応</t>
+    <rPh sb="15" eb="17">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Illumina HiSeq X</t>
+  </si>
+  <si>
+    <t>Illumina MiniSeq</t>
+  </si>
+  <si>
+    <t>Illumina NovaSeq 6000</t>
+  </si>
+  <si>
+    <t>Illumina NovaSeq X</t>
+  </si>
+  <si>
+    <t>Illumina iSeq 100</t>
+  </si>
+  <si>
+    <t>DNBSEQ-G400 FAST</t>
+  </si>
+  <si>
+    <t>BGISEQ-50</t>
+  </si>
+  <si>
+    <t>Sequel IIe</t>
+  </si>
+  <si>
+    <t>Onso</t>
+  </si>
+  <si>
+    <t>Revio</t>
+  </si>
+  <si>
+    <t>Ion Torrent S5</t>
+  </si>
+  <si>
+    <t>Ion Torrent S5 XL</t>
+  </si>
+  <si>
+    <t>Ion Torrent Genexus</t>
+  </si>
+  <si>
+    <t>FASTASeq 300</t>
+  </si>
+  <si>
+    <t>GenoCare 1600</t>
+  </si>
+  <si>
+    <t>GenoLab M</t>
+  </si>
+  <si>
+    <t>GS111</t>
+  </si>
+  <si>
+    <t>Element AVITI</t>
+  </si>
+  <si>
+    <t>UG 100</t>
+  </si>
+  <si>
+    <t>Tapestri</t>
+  </si>
+  <si>
+    <t>Sentosa SQ301</t>
   </si>
 </sst>
 </file>
@@ -5099,7 +5153,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
@@ -5112,7 +5166,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A1" s="29" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.5">
@@ -5122,7 +5176,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A3" s="6" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.5">
@@ -5132,17 +5186,17 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A5" s="6" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A6" s="6" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A7" s="14" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.5">
@@ -5150,7 +5204,7 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.5">
@@ -5165,7 +5219,7 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A13" s="3" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.5">
@@ -5173,12 +5227,12 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A16" s="3" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.5">
@@ -5228,8 +5282,8 @@
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A28" s="7">
-        <v>45588</v>
+      <c r="A28" s="7" t="s">
+        <v>886</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.5">
@@ -5287,7 +5341,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A37" s="1" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B37" s="7">
         <v>42935</v>
@@ -5295,7 +5349,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A38" s="1" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="B38" s="7">
         <v>43227</v>
@@ -5303,7 +5357,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A39" s="1" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="B39" s="7">
         <v>44103</v>
@@ -5311,7 +5365,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A40" s="1" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="B40" s="7">
         <v>44622</v>
@@ -5319,7 +5373,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A41" s="1" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="B41" s="7">
         <v>44678</v>
@@ -5327,7 +5381,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A42" s="1" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="B42" s="7">
         <v>44918</v>
@@ -5335,7 +5389,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A43" s="1" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="B43" s="7">
         <v>45321</v>
@@ -5343,7 +5397,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A44" s="1" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="B44" s="7">
         <v>45429</v>
@@ -5351,7 +5405,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A45" s="1" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="B45" s="7">
         <v>45457</v>
@@ -5359,7 +5413,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A46" s="1" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="B46" s="7">
         <v>45478</v>
@@ -5367,10 +5421,18 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A47" s="1" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="B47" s="7">
         <v>45588</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A48" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>886</v>
       </c>
     </row>
   </sheetData>
@@ -5391,9 +5453,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:P65"/>
+  <dimension ref="A1:P82"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B82"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
@@ -5458,10 +5522,10 @@
         <v>622</v>
       </c>
       <c r="O1" s="22" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="P1" s="22" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.5">
@@ -5469,7 +5533,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>244</v>
+        <v>636</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>271</v>
@@ -5490,7 +5554,7 @@
         <v>336</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>329</v>
@@ -5508,7 +5572,7 @@
         <v>596</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="P2" s="1" t="b">
         <v>1</v>
@@ -5519,10 +5583,10 @@
         <v>228</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>245</v>
+        <v>637</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>279</v>
@@ -5546,7 +5610,7 @@
         <v>682</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>567</v>
@@ -5558,7 +5622,7 @@
         <v>597</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.5">
@@ -5566,7 +5630,7 @@
         <v>229</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>272</v>
@@ -5587,7 +5651,7 @@
         <v>683</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>568</v>
@@ -5601,10 +5665,10 @@
         <v>230</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>281</v>
@@ -5636,7 +5700,7 @@
         <v>231</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>273</v>
@@ -5668,7 +5732,7 @@
         <v>232</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>274</v>
@@ -5700,7 +5764,7 @@
         <v>233</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>275</v>
@@ -5732,7 +5796,7 @@
         <v>234</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>251</v>
+        <v>633</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>276</v>
@@ -5744,7 +5808,7 @@
         <v>306</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>687</v>
@@ -5764,7 +5828,7 @@
         <v>235</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>277</v>
@@ -5776,7 +5840,7 @@
         <v>656</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>688</v>
@@ -5796,7 +5860,7 @@
         <v>236</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>287</v>
@@ -5805,7 +5869,7 @@
         <v>307</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>328</v>
@@ -5825,16 +5889,16 @@
         <v>237</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>308</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>689</v>
@@ -5854,16 +5918,16 @@
         <v>238</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>254</v>
+        <v>635</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>309</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>690</v>
@@ -5883,7 +5947,7 @@
         <v>239</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>253</v>
+        <v>888</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>662</v>
@@ -5892,7 +5956,7 @@
         <v>310</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>242</v>
@@ -5912,7 +5976,7 @@
         <v>240</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>634</v>
+        <v>256</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>663</v>
@@ -5921,10 +5985,10 @@
         <v>311</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>556</v>
@@ -5938,7 +6002,7 @@
         <v>241</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>635</v>
+        <v>889</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>664</v>
@@ -5961,7 +6025,7 @@
         <v>242</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>256</v>
+        <v>890</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>288</v>
@@ -5970,7 +6034,7 @@
         <v>313</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="N17" s="12" t="s">
         <v>611</v>
@@ -5978,7 +6042,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B18" s="1" t="s">
-        <v>700</v>
+        <v>891</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>289</v>
@@ -5987,7 +6051,7 @@
         <v>314</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="N18" s="12" t="s">
         <v>612</v>
@@ -5995,7 +6059,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B19" s="1" t="s">
-        <v>257</v>
+        <v>638</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>665</v>
@@ -6004,7 +6068,7 @@
         <v>315</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="N19" s="12" t="s">
         <v>613</v>
@@ -6012,7 +6076,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B20" s="1" t="s">
-        <v>718</v>
+        <v>639</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>290</v>
@@ -6021,7 +6085,7 @@
         <v>316</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="N20" s="12" t="s">
         <v>614</v>
@@ -6029,7 +6093,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B21" s="1" t="s">
-        <v>719</v>
+        <v>736</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>291</v>
@@ -6038,7 +6102,7 @@
         <v>657</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="N21" s="12" t="s">
         <v>615</v>
@@ -6046,7 +6110,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B22" s="1" t="s">
-        <v>636</v>
+        <v>737</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>666</v>
@@ -6063,7 +6127,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B23" s="1" t="s">
-        <v>637</v>
+        <v>892</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>292</v>
@@ -6080,7 +6144,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B24" s="1" t="s">
-        <v>638</v>
+        <v>731</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>293</v>
@@ -6097,7 +6161,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B25" s="1" t="s">
-        <v>639</v>
+        <v>893</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>294</v>
@@ -6114,7 +6178,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B26" s="1" t="s">
-        <v>741</v>
+        <v>732</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>295</v>
@@ -6123,7 +6187,7 @@
         <v>320</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="N26" s="12" t="s">
         <v>620</v>
@@ -6131,7 +6195,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B27" s="1" t="s">
-        <v>742</v>
+        <v>733</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>296</v>
@@ -6140,7 +6204,7 @@
         <v>321</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="N27" s="12" t="s">
         <v>621</v>
@@ -6148,7 +6212,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B28" s="1" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>297</v>
@@ -6157,12 +6221,12 @@
         <v>322</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B29" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>298</v>
@@ -6176,7 +6240,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B30" s="1" t="s">
-        <v>737</v>
+        <v>894</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>299</v>
@@ -6190,7 +6254,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B31" s="1" t="s">
-        <v>738</v>
+        <v>267</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>270</v>
@@ -6204,10 +6268,10 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B32" s="1" t="s">
-        <v>740</v>
+        <v>646</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>387</v>
@@ -6215,7 +6279,7 @@
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B33" s="1" t="s">
-        <v>258</v>
+        <v>647</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>325</v>
@@ -6226,7 +6290,7 @@
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B34" s="1" t="s">
-        <v>259</v>
+        <v>734</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>326</v>
@@ -6237,7 +6301,7 @@
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B35" s="1" t="s">
-        <v>260</v>
+        <v>895</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>661</v>
@@ -6248,7 +6312,7 @@
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B36" s="1" t="s">
-        <v>261</v>
+        <v>896</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>659</v>
@@ -6259,7 +6323,7 @@
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B37" s="1" t="s">
-        <v>262</v>
+        <v>897</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>660</v>
@@ -6270,7 +6334,7 @@
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B38" s="1" t="s">
-        <v>263</v>
+        <v>643</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>277</v>
@@ -6281,7 +6345,7 @@
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B39" s="1" t="s">
-        <v>264</v>
+        <v>644</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>394</v>
@@ -6289,7 +6353,7 @@
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B40" s="1" t="s">
-        <v>265</v>
+        <v>645</v>
       </c>
       <c r="K40" s="1" t="s">
         <v>395</v>
@@ -6297,7 +6361,7 @@
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B41" s="1" t="s">
-        <v>640</v>
+        <v>738</v>
       </c>
       <c r="K41" s="1" t="s">
         <v>396</v>
@@ -6305,7 +6369,7 @@
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B42" s="1" t="s">
-        <v>641</v>
+        <v>739</v>
       </c>
       <c r="K42" s="1" t="s">
         <v>694</v>
@@ -6313,7 +6377,7 @@
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B43" s="1" t="s">
-        <v>642</v>
+        <v>740</v>
       </c>
       <c r="K43" s="1" t="s">
         <v>397</v>
@@ -6321,7 +6385,7 @@
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B44" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="K44" s="1" t="s">
         <v>695</v>
@@ -6329,31 +6393,31 @@
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B45" s="1" t="s">
-        <v>643</v>
+        <v>269</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B46" s="1" t="s">
-        <v>644</v>
+        <v>898</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B47" s="1" t="s">
-        <v>645</v>
+        <v>899</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B48" s="1" t="s">
-        <v>267</v>
+        <v>900</v>
       </c>
       <c r="K48" s="1" t="s">
         <v>696</v>
@@ -6361,7 +6425,7 @@
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B49" s="1" t="s">
-        <v>646</v>
+        <v>244</v>
       </c>
       <c r="K49" s="1" t="s">
         <v>697</v>
@@ -6369,7 +6433,7 @@
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B50" s="1" t="s">
-        <v>647</v>
+        <v>245</v>
       </c>
       <c r="K50" s="1" t="s">
         <v>698</v>
@@ -6377,7 +6441,7 @@
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B51" s="1" t="s">
-        <v>739</v>
+        <v>246</v>
       </c>
       <c r="K51" s="1" t="s">
         <v>699</v>
@@ -6385,7 +6449,7 @@
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B52" s="1" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
       <c r="K52" s="1" t="s">
         <v>299</v>
@@ -6393,67 +6457,152 @@
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B53" s="1" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B54" s="1" t="s">
-        <v>701</v>
+        <v>249</v>
       </c>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B55" s="1" t="s">
-        <v>702</v>
+        <v>648</v>
       </c>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B56" s="1" t="s">
-        <v>743</v>
+        <v>649</v>
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B57" s="1" t="s">
-        <v>744</v>
+        <v>650</v>
       </c>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B58" s="1" t="s">
-        <v>745</v>
+        <v>651</v>
       </c>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B59" s="1" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B60" s="1" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B61" s="1" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B62" s="1" t="s">
-        <v>651</v>
+        <v>901</v>
       </c>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B63" s="1" t="s">
-        <v>652</v>
+        <v>902</v>
       </c>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B64" s="1" t="s">
-        <v>653</v>
+        <v>903</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B65" s="1" t="s">
-        <v>654</v>
+        <v>904</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B66" s="1" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B67" s="1" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B68" s="1" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B69" s="1" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B70" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B71" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B72" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B73" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B74" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B75" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B76" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B77" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B78" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B79" s="1" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B80" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B81" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B82" s="1" t="s">
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -6484,33 +6633,33 @@
   <sheetData>
     <row r="1" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A1" s="26" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A2" s="26" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A3" s="26" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.5"/>
     <row r="5" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A6" s="18" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A7" s="5" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.5">
@@ -6543,19 +6692,19 @@
         <v>406</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.5">
@@ -6563,16 +6712,16 @@
         <v>2</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.5">
@@ -6617,7 +6766,7 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A22" s="1" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.5">
@@ -6677,7 +6826,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A3" s="4" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.5">
@@ -6701,7 +6850,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.5">
@@ -6726,7 +6875,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A13" s="4" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.5">
@@ -6765,13 +6914,13 @@
         <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.5">
@@ -6786,18 +6935,18 @@
     </row>
     <row r="21" spans="1:4" ht="69.599999999999994" x14ac:dyDescent="0.5">
       <c r="A21" s="1" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A22" s="18" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.5">
@@ -6805,10 +6954,10 @@
         <v>1</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.5">
@@ -6836,21 +6985,21 @@
     </row>
     <row r="30" spans="1:4" ht="52.2" x14ac:dyDescent="0.5">
       <c r="A30" s="1" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A31" s="20" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.5">
@@ -6858,10 +7007,10 @@
         <v>1</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.5">
@@ -6935,13 +7084,13 @@
         <v>1</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="E44" s="1">
         <v>22129008</v>
@@ -6975,7 +7124,7 @@
         <v>1</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.5">
@@ -7071,34 +7220,34 @@
         <v>668</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>431</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>798</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>799</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>800</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>801</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>802</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>803</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>804</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>805</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>627</v>
@@ -7116,10 +7265,10 @@
         <v>625</v>
       </c>
       <c r="R1" s="27" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="S1" s="28" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.5">
@@ -7127,58 +7276,58 @@
         <v>7</v>
       </c>
       <c r="B2" s="18" t="s">
+        <v>802</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>803</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>804</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>805</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>806</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>786</v>
+      </c>
+      <c r="H2" s="19" t="s">
         <v>807</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="I2" s="19" t="s">
         <v>808</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="J2" s="19" t="s">
         <v>809</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="K2" s="19" t="s">
         <v>810</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="L2" s="19" t="s">
         <v>811</v>
       </c>
-      <c r="G2" s="19" t="s">
-        <v>791</v>
-      </c>
-      <c r="H2" s="19" t="s">
+      <c r="M2" s="19" t="s">
         <v>812</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="N2" s="19" t="s">
         <v>813</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="O2" s="19" t="s">
         <v>814</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="P2" s="19" t="s">
         <v>815</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="Q2" s="19" t="s">
         <v>816</v>
       </c>
-      <c r="M2" s="19" t="s">
-        <v>817</v>
-      </c>
-      <c r="N2" s="19" t="s">
-        <v>818</v>
-      </c>
-      <c r="O2" s="19" t="s">
-        <v>819</v>
-      </c>
-      <c r="P2" s="19" t="s">
-        <v>820</v>
-      </c>
-      <c r="Q2" s="19" t="s">
-        <v>821</v>
-      </c>
       <c r="R2" s="25" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="S2" s="25" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="T2" s="19"/>
       <c r="U2" s="19"/>
@@ -7197,58 +7346,58 @@
         <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="G3" s="24">
         <v>37</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="L3" s="24" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="M3" s="24" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.5">
@@ -7256,58 +7405,58 @@
         <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>849</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>850</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>852</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>853</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="I4" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="L4" s="24" t="s">
+        <v>855</v>
+      </c>
+      <c r="M4" s="24" t="s">
         <v>856</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>856</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>854</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>855</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>857</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>858</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>859</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>838</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>839</v>
-      </c>
-      <c r="L4" s="24" t="s">
+      <c r="N4" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="S4" s="1" t="s">
         <v>860</v>
-      </c>
-      <c r="M4" s="24" t="s">
-        <v>861</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>848</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>849</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>850</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>851</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>852</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>865</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.5">
@@ -8073,16 +8222,16 @@
         <v>116</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>271</v>
@@ -8097,10 +8246,10 @@
         <v>302</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="L3" s="1">
         <v>200</v>
@@ -8112,7 +8261,7 @@
         <v>1</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="Q3" s="1">
         <v>101</v>
@@ -8126,13 +8275,13 @@
         <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>271</v>
@@ -8147,10 +8296,10 @@
         <v>302</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="L4" s="1">
         <v>200</v>
@@ -8162,7 +8311,7 @@
         <v>1</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="Q4" s="1">
         <v>101</v>
@@ -9294,7 +9443,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000006000000}">
           <x14:formula1>
-            <xm:f>Admin!$B$2:$B$65</xm:f>
+            <xm:f>Admin!$B$2:$B$82</xm:f>
           </x14:formula1>
           <xm:sqref>H3:H103</xm:sqref>
         </x14:dataValidation>
@@ -9338,7 +9487,7 @@
         <v>538</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>414</v>
@@ -9375,16 +9524,16 @@
         <v>438</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>336</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.5">
@@ -9395,13 +9544,13 @@
         <v>117</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>336</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.5">
@@ -9950,7 +10099,7 @@
         <v>414</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>630</v>
@@ -9974,19 +10123,19 @@
         <v>678</v>
       </c>
       <c r="Q1" s="13" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="U1" s="10" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.5">
@@ -10039,19 +10188,19 @@
         <v>674</v>
       </c>
       <c r="Q2" s="23" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="R2" s="23" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="S2" s="23" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="T2" s="23" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="U2" s="19" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.5">
@@ -10059,40 +10208,40 @@
         <v>342</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>356</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>378</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="R3" s="1" t="s">
         <v>254</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.5">
@@ -10260,10 +10409,10 @@
         <v>364</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
   </sheetData>
@@ -10303,42 +10452,42 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" s="18" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
     </row>
   </sheetData>

--- a/example/JSUB999999_jga_metadata.xlsx
+++ b/example/JSUB999999_jga_metadata.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9FC7C8F-5DA4-42D5-8184-75BDA7C105F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD0C5DD7-3D25-4745-B603-00148CFB4F35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="144" yWindow="0" windowWidth="24540" windowHeight="13440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="12" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="909">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="910">
   <si>
     <t>E-mail</t>
     <phoneticPr fontId="1"/>
@@ -4594,6 +4594,10 @@
   </si>
   <si>
     <t>Sentosa SQ301</t>
+  </si>
+  <si>
+    <t>Illumina NovaSeq X Plus</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -5453,11 +5457,9 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:P82"/>
+  <dimension ref="A1:P83"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B82"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
@@ -6059,7 +6061,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B19" s="1" t="s">
-        <v>638</v>
+        <v>909</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>665</v>
@@ -6076,7 +6078,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B20" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>290</v>
@@ -6093,7 +6095,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B21" s="1" t="s">
-        <v>736</v>
+        <v>639</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>291</v>
@@ -6110,7 +6112,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B22" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>666</v>
@@ -6127,7 +6129,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B23" s="1" t="s">
-        <v>892</v>
+        <v>737</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>292</v>
@@ -6144,7 +6146,7 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B24" s="1" t="s">
-        <v>731</v>
+        <v>892</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>293</v>
@@ -6161,7 +6163,7 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B25" s="1" t="s">
-        <v>893</v>
+        <v>731</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>294</v>
@@ -6178,7 +6180,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B26" s="1" t="s">
-        <v>732</v>
+        <v>893</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>295</v>
@@ -6195,7 +6197,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B27" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>296</v>
@@ -6212,7 +6214,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B28" s="1" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>297</v>
@@ -6226,7 +6228,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B29" s="1" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>298</v>
@@ -6240,7 +6242,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B30" s="1" t="s">
-        <v>894</v>
+        <v>735</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>299</v>
@@ -6254,7 +6256,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B31" s="1" t="s">
-        <v>267</v>
+        <v>894</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>270</v>
@@ -6268,7 +6270,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B32" s="1" t="s">
-        <v>646</v>
+        <v>267</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>741</v>
@@ -6279,7 +6281,7 @@
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B33" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>325</v>
@@ -6290,7 +6292,7 @@
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B34" s="1" t="s">
-        <v>734</v>
+        <v>647</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>326</v>
@@ -6301,7 +6303,7 @@
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B35" s="1" t="s">
-        <v>895</v>
+        <v>734</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>661</v>
@@ -6312,7 +6314,7 @@
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B36" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>659</v>
@@ -6323,7 +6325,7 @@
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B37" s="1" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>660</v>
@@ -6334,7 +6336,7 @@
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B38" s="1" t="s">
-        <v>643</v>
+        <v>897</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>277</v>
@@ -6345,7 +6347,7 @@
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B39" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>394</v>
@@ -6353,7 +6355,7 @@
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B40" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="K40" s="1" t="s">
         <v>395</v>
@@ -6361,7 +6363,7 @@
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B41" s="1" t="s">
-        <v>738</v>
+        <v>645</v>
       </c>
       <c r="K41" s="1" t="s">
         <v>396</v>
@@ -6369,7 +6371,7 @@
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B42" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="K42" s="1" t="s">
         <v>694</v>
@@ -6377,7 +6379,7 @@
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B43" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="K43" s="1" t="s">
         <v>397</v>
@@ -6385,7 +6387,7 @@
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B44" s="1" t="s">
-        <v>268</v>
+        <v>740</v>
       </c>
       <c r="K44" s="1" t="s">
         <v>695</v>
@@ -6393,7 +6395,7 @@
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B45" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K45" s="1" t="s">
         <v>753</v>
@@ -6401,7 +6403,7 @@
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B46" s="1" t="s">
-        <v>898</v>
+        <v>269</v>
       </c>
       <c r="K46" s="1" t="s">
         <v>754</v>
@@ -6409,7 +6411,7 @@
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B47" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="K47" s="1" t="s">
         <v>755</v>
@@ -6417,7 +6419,7 @@
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B48" s="1" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="K48" s="1" t="s">
         <v>696</v>
@@ -6425,7 +6427,7 @@
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B49" s="1" t="s">
-        <v>244</v>
+        <v>900</v>
       </c>
       <c r="K49" s="1" t="s">
         <v>697</v>
@@ -6433,7 +6435,7 @@
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B50" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K50" s="1" t="s">
         <v>698</v>
@@ -6441,7 +6443,7 @@
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B51" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K51" s="1" t="s">
         <v>699</v>
@@ -6449,7 +6451,7 @@
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B52" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K52" s="1" t="s">
         <v>299</v>
@@ -6457,151 +6459,156 @@
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B53" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B54" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B55" s="1" t="s">
-        <v>648</v>
+        <v>249</v>
       </c>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B56" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B57" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B58" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B59" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B60" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B61" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B62" s="1" t="s">
-        <v>901</v>
+        <v>654</v>
       </c>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B63" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B64" s="1" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B65" s="1" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B66" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B67" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B68" s="1" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B69" s="1" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B70" s="1" t="s">
-        <v>259</v>
+        <v>908</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B71" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B72" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B73" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B74" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B75" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B76" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B77" s="1" t="s">
-        <v>640</v>
+        <v>265</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B78" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B79" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B80" s="1" t="s">
-        <v>258</v>
+        <v>642</v>
       </c>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B81" s="1" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B82" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.5">
+      <c r="B83" s="1" t="s">
         <v>270</v>
       </c>
     </row>
@@ -9441,17 +9448,17 @@
           </x14:formula1>
           <xm:sqref>R3:R102</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000006000000}">
-          <x14:formula1>
-            <xm:f>Admin!$B$2:$B$82</xm:f>
-          </x14:formula1>
-          <xm:sqref>H3:H103</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000007000000}">
           <x14:formula1>
             <xm:f>Admin!$E$2:$E$38</xm:f>
           </x14:formula1>
           <xm:sqref>I3:I103</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000006000000}">
+          <x14:formula1>
+            <xm:f>Admin!$B$2:$B$83</xm:f>
+          </x14:formula1>
+          <xm:sqref>H4:H103 H3</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/example/JSUB999999_jga_metadata.xlsx
+++ b/example/JSUB999999_jga_metadata.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F89992-0A34-4EAF-8EF5-3EB0119666C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24CFB837-7330-4625-9C78-88628C48B426}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="12" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="891">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="887">
   <si>
     <t>E-mail</t>
     <phoneticPr fontId="1"/>
@@ -1382,10 +1382,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>TEL (required for PI)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t># 選択肢から適切なものを選びます</t>
     <rPh sb="2" eb="5">
       <t>センタクシ</t>
@@ -1511,55 +1507,6 @@
     </rPh>
     <rPh sb="41" eb="43">
       <t>コウカイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t># 登録者の名前、連絡先 (所属する組織から発行されたメールアドレス)、所属する組織、Center name を列挙します。必ず NBDC へのデータ提供申請時の責任者を含めます。</t>
-    <rPh sb="2" eb="5">
-      <t>トウロクシャ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ナマエ</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>レンラクサキ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ショゾク</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ソシキ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ハッコウ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ショゾク</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>ソシキ</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>レッキョ</t>
-    </rPh>
-    <rPh sb="62" eb="63">
-      <t>カナラ</t>
-    </rPh>
-    <rPh sb="75" eb="77">
-      <t>テイキョウ</t>
-    </rPh>
-    <rPh sb="77" eb="79">
-      <t>シンセイ</t>
-    </rPh>
-    <rPh sb="79" eb="80">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="81" eb="84">
-      <t>セキニンシャ</t>
-    </rPh>
-    <rPh sb="85" eb="86">
-      <t>フク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -4315,30 +4262,6 @@
     <t>hum9999</t>
   </si>
   <si>
-    <t>Hanako</t>
-  </si>
-  <si>
-    <t>Mishima</t>
-  </si>
-  <si>
-    <t>example1@example.ac.jp</t>
-  </si>
-  <si>
-    <t>0000-00-0000</t>
-  </si>
-  <si>
-    <t>Bioinformation and DDBJ Center, National Institute of Genetics</t>
-  </si>
-  <si>
-    <t>Taro</t>
-  </si>
-  <si>
-    <t>Fuji</t>
-  </si>
-  <si>
-    <t>example2@example.ac.jp</t>
-  </si>
-  <si>
     <t>Whole exome sequencing and genotyping of rare disease A two patients</t>
   </si>
   <si>
@@ -4540,6 +4463,66 @@
   </si>
   <si>
     <t>TRANSCRIPTOMIC SINGLE CELL</t>
+  </si>
+  <si>
+    <t>Phone 削除</t>
+    <rPh sb="6" eb="8">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t># 登録者の名前、所属組織、所属組織から発行されたメールアドレスを記入します。必ず DBCLS へのデータ提供申請時の責任者を含めます。</t>
+    <rPh sb="2" eb="5">
+      <t>トウロクシャ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ショゾク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ソシキ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>キニュウ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>カナラ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="59" eb="62">
+      <t>セキニンシャ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hanako</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mishima</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>example@example.ac.jp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DNA Databank of Japan</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -5099,9 +5082,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
@@ -5112,7 +5097,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A1" s="29" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.5">
@@ -5122,27 +5107,27 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A3" s="6" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A4" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A5" s="6" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A6" s="6" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A7" s="14" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.5">
@@ -5150,12 +5135,12 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A10" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.5">
@@ -5165,7 +5150,7 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A13" s="3" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.5">
@@ -5173,12 +5158,12 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A16" s="3" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.5">
@@ -5224,22 +5209,22 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A27" s="1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A28" s="7">
-        <v>45588</v>
+        <v>45673</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A30" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A31" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B31" s="7">
         <v>42285</v>
@@ -5247,7 +5232,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A32" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B32" s="7">
         <v>42429</v>
@@ -5255,7 +5240,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A33" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B33" s="7">
         <v>42430</v>
@@ -5263,7 +5248,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A34" s="1" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B34" s="7">
         <v>42486</v>
@@ -5271,7 +5256,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A35" s="1" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B35" s="7">
         <v>42760</v>
@@ -5279,7 +5264,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A36" s="1" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B36" s="7">
         <v>42935</v>
@@ -5287,7 +5272,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A37" s="1" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B37" s="7">
         <v>42935</v>
@@ -5295,7 +5280,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A38" s="1" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B38" s="7">
         <v>43227</v>
@@ -5303,7 +5288,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A39" s="1" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B39" s="7">
         <v>44103</v>
@@ -5311,7 +5296,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A40" s="1" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B40" s="7">
         <v>44622</v>
@@ -5319,7 +5304,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A41" s="1" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B41" s="7">
         <v>44678</v>
@@ -5327,7 +5312,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A42" s="1" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B42" s="7">
         <v>44918</v>
@@ -5335,7 +5320,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A43" s="1" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B43" s="7">
         <v>45321</v>
@@ -5343,7 +5328,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A44" s="1" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="B44" s="7">
         <v>45429</v>
@@ -5351,7 +5336,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A45" s="1" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="B45" s="7">
         <v>45457</v>
@@ -5359,7 +5344,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A46" s="1" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
       <c r="B46" s="7">
         <v>45478</v>
@@ -5367,10 +5352,18 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A47" s="1" t="s">
-        <v>888</v>
+        <v>878</v>
       </c>
       <c r="B47" s="7">
         <v>45588</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A48" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="B48" s="7">
+        <v>45673</v>
       </c>
     </row>
   </sheetData>
@@ -5443,7 +5436,7 @@
         <v>361</v>
       </c>
       <c r="J1" s="22" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="K1" s="22" t="s">
         <v>334</v>
@@ -5455,13 +5448,13 @@
         <v>334</v>
       </c>
       <c r="N1" s="22" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="O1" s="22" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="P1" s="22" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.5">
@@ -5484,13 +5477,13 @@
         <v>362</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>336</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>329</v>
@@ -5502,13 +5495,13 @@
         <v>327</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="N2" s="12" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="P2" s="1" t="b">
         <v>1</v>
@@ -5522,7 +5515,7 @@
         <v>245</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>889</v>
+        <v>879</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>279</v>
@@ -5534,7 +5527,7 @@
         <v>363</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>335</v>
@@ -5543,22 +5536,22 @@
         <v>355</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.5">
@@ -5584,16 +5577,16 @@
         <v>356</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.5">
@@ -5604,7 +5597,7 @@
         <v>247</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>890</v>
+        <v>880</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>281</v>
@@ -5613,22 +5606,22 @@
         <v>303</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>357</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>335</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="N5" s="12" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.5">
@@ -5645,7 +5638,7 @@
         <v>282</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>358</v>
@@ -5660,7 +5653,7 @@
         <v>369</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.5">
@@ -5683,7 +5676,7 @@
         <v>359</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>377</v>
@@ -5692,7 +5685,7 @@
         <v>370</v>
       </c>
       <c r="N7" s="12" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.5">
@@ -5715,7 +5708,7 @@
         <v>360</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>378</v>
@@ -5724,7 +5717,7 @@
         <v>371</v>
       </c>
       <c r="N8" s="12" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.5">
@@ -5744,10 +5737,10 @@
         <v>306</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>339</v>
@@ -5756,7 +5749,7 @@
         <v>372</v>
       </c>
       <c r="N9" s="12" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.5">
@@ -5773,22 +5766,22 @@
         <v>286</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="N10" s="12" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.5">
@@ -5805,19 +5798,19 @@
         <v>307</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>328</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="N11" s="12" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.5">
@@ -5825,28 +5818,28 @@
         <v>237</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>308</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="N12" s="12" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.5">
@@ -5857,16 +5850,16 @@
         <v>254</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>309</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>340</v>
@@ -5875,7 +5868,7 @@
         <v>373</v>
       </c>
       <c r="N13" s="12" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.5">
@@ -5886,13 +5879,13 @@
         <v>253</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>310</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>242</v>
@@ -5904,7 +5897,7 @@
         <v>374</v>
       </c>
       <c r="N14" s="12" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.5">
@@ -5912,25 +5905,25 @@
         <v>240</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>311</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="N15" s="12" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.5">
@@ -5938,10 +5931,10 @@
         <v>241</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>312</v>
@@ -5950,10 +5943,10 @@
         <v>379</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="N16" s="12" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.5">
@@ -5970,15 +5963,15 @@
         <v>313</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="N17" s="12" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B18" s="1" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>289</v>
@@ -5987,10 +5980,10 @@
         <v>314</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="N18" s="12" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.5">
@@ -5998,21 +5991,21 @@
         <v>257</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>315</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="N19" s="12" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B20" s="1" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>290</v>
@@ -6021,49 +6014,49 @@
         <v>316</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="N20" s="12" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B21" s="1" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>291</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="N21" s="12" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B22" s="1" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>380</v>
       </c>
       <c r="N22" s="12" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B23" s="1" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>292</v>
@@ -6075,12 +6068,12 @@
         <v>381</v>
       </c>
       <c r="N23" s="12" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B24" s="1" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>293</v>
@@ -6092,12 +6085,12 @@
         <v>382</v>
       </c>
       <c r="N24" s="12" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B25" s="1" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>294</v>
@@ -6109,12 +6102,12 @@
         <v>383</v>
       </c>
       <c r="N25" s="12" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B26" s="1" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>295</v>
@@ -6123,15 +6116,15 @@
         <v>320</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="N26" s="12" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B27" s="1" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>296</v>
@@ -6140,15 +6133,15 @@
         <v>321</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="N27" s="12" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B28" s="1" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>297</v>
@@ -6157,18 +6150,18 @@
         <v>322</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B29" s="1" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>298</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>384</v>
@@ -6176,7 +6169,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B30" s="1" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>299</v>
@@ -6190,7 +6183,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B31" s="1" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>270</v>
@@ -6204,10 +6197,10 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B32" s="1" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>387</v>
@@ -6240,7 +6233,7 @@
         <v>260</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="K35" s="1" t="s">
         <v>390</v>
@@ -6251,7 +6244,7 @@
         <v>261</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="K36" s="1" t="s">
         <v>391</v>
@@ -6262,7 +6255,7 @@
         <v>262</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="K37" s="1" t="s">
         <v>392</v>
@@ -6297,7 +6290,7 @@
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B41" s="1" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="K41" s="1" t="s">
         <v>396</v>
@@ -6305,15 +6298,15 @@
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B42" s="1" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B43" s="1" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="K43" s="1" t="s">
         <v>397</v>
@@ -6324,31 +6317,31 @@
         <v>266</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B45" s="1" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B46" s="1" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B47" s="1" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.5">
@@ -6356,31 +6349,31 @@
         <v>267</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B49" s="1" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B50" s="1" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B51" s="1" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.5">
@@ -6398,62 +6391,62 @@
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B54" s="1" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B55" s="1" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B56" s="1" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B57" s="1" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B58" s="1" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B59" s="1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B60" s="1" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B61" s="1" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B62" s="1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B63" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B64" s="1" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B65" s="1" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
   </sheetData>
@@ -6469,9 +6462,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.6640625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
@@ -6482,115 +6475,98 @@
     <col min="5" max="16384" width="24.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A1" s="26" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="26" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="26" t="s">
         <v>792</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="26" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="26" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.5"/>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A6" s="18" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A7" s="5" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A10" s="18" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>0</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>407</v>
-      </c>
-      <c r="F10" s="18" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A11" s="21" t="s">
         <v>406</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>823</v>
+        <v>883</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>824</v>
+        <v>884</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>825</v>
+        <v>885</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>826</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A12" s="22">
         <v>2</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>828</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>829</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>830</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A13" s="22">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A14" s="22">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A15" s="22">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A16" s="22">
         <v>6</v>
       </c>
@@ -6617,12 +6593,12 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A22" s="1" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A23" s="18" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.5">
@@ -6667,7 +6643,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.5">
@@ -6677,12 +6653,12 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A3" s="4" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.5">
@@ -6701,7 +6677,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.5">
@@ -6716,7 +6692,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A11" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.5">
@@ -6726,38 +6702,38 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A13" s="4" t="s">
-        <v>833</v>
+        <v>823</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>591</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A16" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="C16" s="18" t="s">
         <v>586</v>
       </c>
-      <c r="B16" s="18" t="s">
-        <v>586</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>588</v>
-      </c>
       <c r="D16" s="18" t="s">
+        <v>585</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>587</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.5">
@@ -6765,13 +6741,13 @@
         <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>834</v>
+        <v>824</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>835</v>
+        <v>825</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>836</v>
+        <v>826</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.5">
@@ -6786,18 +6762,18 @@
     </row>
     <row r="21" spans="1:4" ht="69.599999999999994" x14ac:dyDescent="0.5">
       <c r="A21" s="1" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A22" s="18" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.5">
@@ -6805,10 +6781,10 @@
         <v>1</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>837</v>
+        <v>827</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.5">
@@ -6823,12 +6799,12 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A27" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A28" s="19" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.5">
@@ -6836,21 +6812,21 @@
     </row>
     <row r="30" spans="1:4" ht="52.2" x14ac:dyDescent="0.5">
       <c r="A30" s="1" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A31" s="20" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.5">
@@ -6858,10 +6834,10 @@
         <v>1</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>838</v>
+        <v>828</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>839</v>
+        <v>829</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.5">
@@ -6876,7 +6852,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A36" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.5">
@@ -6887,7 +6863,7 @@
         <v>4</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.5">
@@ -6910,7 +6886,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A42" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.5">
@@ -6935,13 +6911,13 @@
         <v>1</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>840</v>
+        <v>830</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>841</v>
+        <v>831</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>842</v>
+        <v>832</v>
       </c>
       <c r="E44" s="1">
         <v>22129008</v>
@@ -6959,7 +6935,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A48" s="1" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.5">
@@ -6975,7 +6951,7 @@
         <v>1</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>843</v>
+        <v>833</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.5">
@@ -6990,18 +6966,18 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A54" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A55" s="19" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C55" s="19" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.5">
@@ -7065,61 +7041,61 @@
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>797</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>798</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>799</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>800</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>802</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>803</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="R1" s="27" t="s">
         <v>804</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>805</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="R1" s="27" t="s">
-        <v>806</v>
-      </c>
       <c r="S1" s="28" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.5">
@@ -7127,58 +7103,58 @@
         <v>7</v>
       </c>
       <c r="B2" s="18" t="s">
+        <v>805</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>806</v>
+      </c>
+      <c r="D2" s="18" t="s">
         <v>807</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="E2" s="18" t="s">
         <v>808</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="F2" s="18" t="s">
         <v>809</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="G2" s="19" t="s">
+        <v>789</v>
+      </c>
+      <c r="H2" s="19" t="s">
         <v>810</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="I2" s="19" t="s">
         <v>811</v>
       </c>
-      <c r="G2" s="19" t="s">
-        <v>791</v>
-      </c>
-      <c r="H2" s="19" t="s">
+      <c r="J2" s="19" t="s">
         <v>812</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="K2" s="19" t="s">
         <v>813</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="L2" s="19" t="s">
         <v>814</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="M2" s="19" t="s">
         <v>815</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="N2" s="19" t="s">
         <v>816</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="O2" s="19" t="s">
         <v>817</v>
       </c>
-      <c r="N2" s="19" t="s">
+      <c r="P2" s="19" t="s">
         <v>818</v>
       </c>
-      <c r="O2" s="19" t="s">
+      <c r="Q2" s="19" t="s">
         <v>819</v>
       </c>
-      <c r="P2" s="19" t="s">
-        <v>820</v>
-      </c>
-      <c r="Q2" s="19" t="s">
-        <v>821</v>
-      </c>
       <c r="R2" s="25" t="s">
-        <v>862</v>
+        <v>852</v>
       </c>
       <c r="S2" s="25" t="s">
-        <v>863</v>
+        <v>853</v>
       </c>
       <c r="T2" s="19"/>
       <c r="U2" s="19"/>
@@ -7197,58 +7173,58 @@
         <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>844</v>
+        <v>834</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>847</v>
+        <v>837</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>847</v>
+        <v>837</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>845</v>
+        <v>835</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>846</v>
+        <v>836</v>
       </c>
       <c r="G3" s="24">
         <v>37</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>858</v>
+        <v>848</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>858</v>
+        <v>848</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="L3" s="24" t="s">
+        <v>850</v>
+      </c>
+      <c r="M3" s="24" t="s">
+        <v>851</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>838</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>839</v>
       </c>
-      <c r="L3" s="24" t="s">
-        <v>860</v>
-      </c>
-      <c r="M3" s="24" t="s">
-        <v>861</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>848</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>849</v>
-      </c>
       <c r="P3" s="1" t="s">
-        <v>850</v>
+        <v>840</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>851</v>
+        <v>841</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>852</v>
+        <v>842</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>864</v>
+        <v>854</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.5">
@@ -7256,58 +7232,58 @@
         <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>853</v>
+        <v>843</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>856</v>
+        <v>846</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>856</v>
+        <v>846</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>854</v>
+        <v>844</v>
       </c>
       <c r="F4" s="11" t="s">
+        <v>845</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>847</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="L4" s="24" t="s">
+        <v>850</v>
+      </c>
+      <c r="M4" s="24" t="s">
+        <v>851</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="S4" s="1" t="s">
         <v>855</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>857</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>858</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>859</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>838</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>839</v>
-      </c>
-      <c r="L4" s="24" t="s">
-        <v>860</v>
-      </c>
-      <c r="M4" s="24" t="s">
-        <v>861</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>848</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>849</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>850</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>851</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>852</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>865</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.5">
@@ -7974,40 +7950,40 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>678</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>680</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>409</v>
-      </c>
       <c r="L1" s="30" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="M1" s="30"/>
       <c r="N1" s="30"/>
@@ -8026,7 +8002,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>217</v>
@@ -8047,25 +8023,25 @@
         <v>222</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="L2" s="18" t="s">
+        <v>409</v>
+      </c>
+      <c r="M2" s="19" t="s">
+        <v>560</v>
+      </c>
+      <c r="N2" s="18" t="s">
         <v>410</v>
       </c>
-      <c r="M2" s="19" t="s">
-        <v>562</v>
-      </c>
-      <c r="N2" s="18" t="s">
+      <c r="O2" s="18" t="s">
         <v>411</v>
       </c>
-      <c r="O2" s="18" t="s">
+      <c r="P2" s="18" t="s">
         <v>412</v>
       </c>
-      <c r="P2" s="18" t="s">
-        <v>413</v>
-      </c>
       <c r="Q2" s="18" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.5">
@@ -8073,16 +8049,16 @@
         <v>116</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>866</v>
+        <v>856</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>867</v>
+        <v>857</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>868</v>
+        <v>858</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>845</v>
+        <v>835</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>271</v>
@@ -8097,22 +8073,22 @@
         <v>302</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>868</v>
+        <v>858</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>869</v>
+        <v>859</v>
       </c>
       <c r="L3" s="1">
         <v>200</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O3" s="1">
         <v>1</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="Q3" s="1">
         <v>101</v>
@@ -8126,13 +8102,13 @@
         <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>870</v>
+        <v>860</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>868</v>
+        <v>858</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>854</v>
+        <v>844</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>271</v>
@@ -8147,22 +8123,22 @@
         <v>302</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>868</v>
+        <v>858</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>869</v>
+        <v>859</v>
       </c>
       <c r="L4" s="1">
         <v>200</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O4" s="1">
         <v>1</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="Q4" s="1">
         <v>101</v>
@@ -8173,7 +8149,7 @@
         <v>118</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O5" s="1">
         <v>1</v>
@@ -8184,7 +8160,7 @@
         <v>119</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O6" s="1">
         <v>1</v>
@@ -8195,7 +8171,7 @@
         <v>120</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O7" s="1">
         <v>1</v>
@@ -8206,7 +8182,7 @@
         <v>121</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O8" s="1">
         <v>1</v>
@@ -8217,7 +8193,7 @@
         <v>122</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O9" s="1">
         <v>1</v>
@@ -8228,7 +8204,7 @@
         <v>123</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O10" s="1">
         <v>1</v>
@@ -8239,7 +8215,7 @@
         <v>124</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O11" s="1">
         <v>1</v>
@@ -8250,7 +8226,7 @@
         <v>125</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O12" s="1">
         <v>1</v>
@@ -8261,7 +8237,7 @@
         <v>126</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O13" s="1">
         <v>1</v>
@@ -8272,7 +8248,7 @@
         <v>127</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O14" s="1">
         <v>1</v>
@@ -8283,7 +8259,7 @@
         <v>128</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O15" s="1">
         <v>1</v>
@@ -8294,7 +8270,7 @@
         <v>129</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O16" s="1">
         <v>1</v>
@@ -8305,7 +8281,7 @@
         <v>130</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O17" s="1">
         <v>1</v>
@@ -8316,7 +8292,7 @@
         <v>131</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O18" s="1">
         <v>1</v>
@@ -8327,7 +8303,7 @@
         <v>132</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O19" s="1">
         <v>1</v>
@@ -8338,7 +8314,7 @@
         <v>133</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O20" s="1">
         <v>1</v>
@@ -8349,7 +8325,7 @@
         <v>134</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O21" s="1">
         <v>1</v>
@@ -8360,7 +8336,7 @@
         <v>135</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O22" s="1">
         <v>1</v>
@@ -8371,7 +8347,7 @@
         <v>136</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O23" s="1">
         <v>1</v>
@@ -8382,7 +8358,7 @@
         <v>137</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O24" s="1">
         <v>1</v>
@@ -8393,7 +8369,7 @@
         <v>138</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O25" s="1">
         <v>1</v>
@@ -8404,7 +8380,7 @@
         <v>139</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O26" s="1">
         <v>1</v>
@@ -8415,7 +8391,7 @@
         <v>140</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O27" s="1">
         <v>1</v>
@@ -8426,7 +8402,7 @@
         <v>141</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O28" s="1">
         <v>1</v>
@@ -8437,7 +8413,7 @@
         <v>142</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O29" s="1">
         <v>1</v>
@@ -8448,7 +8424,7 @@
         <v>143</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O30" s="1">
         <v>1</v>
@@ -8459,7 +8435,7 @@
         <v>144</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O31" s="1">
         <v>1</v>
@@ -8470,7 +8446,7 @@
         <v>145</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O32" s="1">
         <v>1</v>
@@ -8481,7 +8457,7 @@
         <v>146</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O33" s="1">
         <v>1</v>
@@ -8492,7 +8468,7 @@
         <v>147</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O34" s="1">
         <v>1</v>
@@ -8503,7 +8479,7 @@
         <v>148</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O35" s="1">
         <v>1</v>
@@ -8514,7 +8490,7 @@
         <v>149</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O36" s="1">
         <v>1</v>
@@ -8525,7 +8501,7 @@
         <v>150</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O37" s="1">
         <v>1</v>
@@ -8536,7 +8512,7 @@
         <v>151</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O38" s="1">
         <v>1</v>
@@ -8547,7 +8523,7 @@
         <v>152</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O39" s="1">
         <v>1</v>
@@ -8558,7 +8534,7 @@
         <v>153</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O40" s="1">
         <v>1</v>
@@ -8569,7 +8545,7 @@
         <v>154</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O41" s="1">
         <v>1</v>
@@ -8580,7 +8556,7 @@
         <v>155</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O42" s="1">
         <v>1</v>
@@ -8591,7 +8567,7 @@
         <v>156</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O43" s="1">
         <v>1</v>
@@ -8602,7 +8578,7 @@
         <v>157</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O44" s="1">
         <v>1</v>
@@ -8613,7 +8589,7 @@
         <v>158</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O45" s="1">
         <v>1</v>
@@ -8624,7 +8600,7 @@
         <v>159</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O46" s="1">
         <v>1</v>
@@ -8635,7 +8611,7 @@
         <v>160</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O47" s="1">
         <v>1</v>
@@ -8646,7 +8622,7 @@
         <v>161</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O48" s="1">
         <v>1</v>
@@ -8657,7 +8633,7 @@
         <v>162</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O49" s="1">
         <v>1</v>
@@ -8668,7 +8644,7 @@
         <v>163</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O50" s="1">
         <v>1</v>
@@ -8679,7 +8655,7 @@
         <v>164</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O51" s="1">
         <v>1</v>
@@ -8690,7 +8666,7 @@
         <v>165</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O52" s="1">
         <v>1</v>
@@ -8701,7 +8677,7 @@
         <v>166</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O53" s="1">
         <v>1</v>
@@ -8712,7 +8688,7 @@
         <v>167</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O54" s="1">
         <v>1</v>
@@ -8723,7 +8699,7 @@
         <v>168</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O55" s="1">
         <v>1</v>
@@ -8734,7 +8710,7 @@
         <v>169</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O56" s="1">
         <v>1</v>
@@ -8745,7 +8721,7 @@
         <v>170</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O57" s="1">
         <v>1</v>
@@ -8756,7 +8732,7 @@
         <v>171</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O58" s="1">
         <v>1</v>
@@ -8767,7 +8743,7 @@
         <v>172</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O59" s="1">
         <v>1</v>
@@ -8778,7 +8754,7 @@
         <v>173</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O60" s="1">
         <v>1</v>
@@ -8789,7 +8765,7 @@
         <v>174</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O61" s="1">
         <v>1</v>
@@ -8800,7 +8776,7 @@
         <v>175</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O62" s="1">
         <v>1</v>
@@ -8811,7 +8787,7 @@
         <v>176</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O63" s="1">
         <v>1</v>
@@ -8822,7 +8798,7 @@
         <v>177</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O64" s="1">
         <v>1</v>
@@ -8833,7 +8809,7 @@
         <v>178</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O65" s="1">
         <v>1</v>
@@ -8844,7 +8820,7 @@
         <v>179</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O66" s="1">
         <v>1</v>
@@ -8855,7 +8831,7 @@
         <v>180</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O67" s="1">
         <v>1</v>
@@ -8866,7 +8842,7 @@
         <v>181</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O68" s="1">
         <v>1</v>
@@ -8877,7 +8853,7 @@
         <v>182</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O69" s="1">
         <v>1</v>
@@ -8888,7 +8864,7 @@
         <v>183</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O70" s="1">
         <v>1</v>
@@ -8899,7 +8875,7 @@
         <v>184</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O71" s="1">
         <v>1</v>
@@ -8910,7 +8886,7 @@
         <v>185</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O72" s="1">
         <v>1</v>
@@ -8921,7 +8897,7 @@
         <v>186</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O73" s="1">
         <v>1</v>
@@ -8932,7 +8908,7 @@
         <v>187</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O74" s="1">
         <v>1</v>
@@ -8943,7 +8919,7 @@
         <v>188</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O75" s="1">
         <v>1</v>
@@ -8954,7 +8930,7 @@
         <v>189</v>
       </c>
       <c r="N76" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O76" s="1">
         <v>1</v>
@@ -8965,7 +8941,7 @@
         <v>190</v>
       </c>
       <c r="N77" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O77" s="1">
         <v>1</v>
@@ -8976,7 +8952,7 @@
         <v>191</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O78" s="1">
         <v>1</v>
@@ -8987,7 +8963,7 @@
         <v>192</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O79" s="1">
         <v>1</v>
@@ -8998,7 +8974,7 @@
         <v>193</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O80" s="1">
         <v>1</v>
@@ -9009,7 +8985,7 @@
         <v>194</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O81" s="1">
         <v>1</v>
@@ -9020,7 +8996,7 @@
         <v>195</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O82" s="1">
         <v>1</v>
@@ -9031,7 +9007,7 @@
         <v>196</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O83" s="1">
         <v>1</v>
@@ -9042,7 +9018,7 @@
         <v>197</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O84" s="1">
         <v>1</v>
@@ -9053,7 +9029,7 @@
         <v>198</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O85" s="1">
         <v>1</v>
@@ -9064,7 +9040,7 @@
         <v>199</v>
       </c>
       <c r="N86" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O86" s="1">
         <v>1</v>
@@ -9075,7 +9051,7 @@
         <v>200</v>
       </c>
       <c r="N87" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O87" s="1">
         <v>1</v>
@@ -9086,7 +9062,7 @@
         <v>201</v>
       </c>
       <c r="N88" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O88" s="1">
         <v>1</v>
@@ -9097,7 +9073,7 @@
         <v>202</v>
       </c>
       <c r="N89" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O89" s="1">
         <v>1</v>
@@ -9108,7 +9084,7 @@
         <v>203</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O90" s="1">
         <v>1</v>
@@ -9119,7 +9095,7 @@
         <v>204</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O91" s="1">
         <v>1</v>
@@ -9130,7 +9106,7 @@
         <v>205</v>
       </c>
       <c r="N92" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O92" s="1">
         <v>1</v>
@@ -9141,7 +9117,7 @@
         <v>206</v>
       </c>
       <c r="N93" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O93" s="1">
         <v>1</v>
@@ -9152,7 +9128,7 @@
         <v>207</v>
       </c>
       <c r="N94" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O94" s="1">
         <v>1</v>
@@ -9163,7 +9139,7 @@
         <v>208</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O95" s="1">
         <v>1</v>
@@ -9174,7 +9150,7 @@
         <v>209</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O96" s="1">
         <v>1</v>
@@ -9185,7 +9161,7 @@
         <v>210</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O97" s="1">
         <v>1</v>
@@ -9196,7 +9172,7 @@
         <v>211</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O98" s="1">
         <v>1</v>
@@ -9207,7 +9183,7 @@
         <v>212</v>
       </c>
       <c r="N99" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O99" s="1">
         <v>1</v>
@@ -9218,7 +9194,7 @@
         <v>213</v>
       </c>
       <c r="N100" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O100" s="1">
         <v>1</v>
@@ -9229,7 +9205,7 @@
         <v>214</v>
       </c>
       <c r="N101" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O101" s="1">
         <v>1</v>
@@ -9240,7 +9216,7 @@
         <v>215</v>
       </c>
       <c r="N102" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O102" s="1">
         <v>1</v>
@@ -9332,22 +9308,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.5">
@@ -9358,540 +9334,540 @@
         <v>331</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A3" s="22" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>871</v>
+        <v>861</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>872</v>
+        <v>862</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>336</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>873</v>
+        <v>863</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A4" s="22" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>117</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>874</v>
+        <v>864</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>336</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>873</v>
+        <v>863</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A5" s="22" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A6" s="22" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A7" s="22" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A8" s="22" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A9" s="22" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A10" s="22" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A11" s="22" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A12" s="22" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A13" s="22" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A14" s="22" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A15" s="22" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A16" s="22" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A17" s="22" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A18" s="22" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A19" s="22" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A20" s="22" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A21" s="22" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A22" s="22" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A23" s="22" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A24" s="22" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A25" s="22" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A26" s="22" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A27" s="22" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A28" s="22" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A29" s="22" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A30" s="22" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A31" s="22" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A32" s="22" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A33" s="22" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A34" s="22" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A35" s="22" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A36" s="22" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A37" s="22" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A38" s="22" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A39" s="22" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A40" s="22" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A41" s="22" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A42" s="22" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A43" s="22" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A44" s="22" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A45" s="22" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A46" s="22" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A47" s="22" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A48" s="22" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A49" s="22" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A50" s="22" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A51" s="22" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A52" s="22" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A53" s="22" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A54" s="22" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A55" s="22" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A56" s="22" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A57" s="22" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A58" s="22" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A59" s="22" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A60" s="22" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A61" s="22" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A62" s="22" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A63" s="22" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A64" s="22" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A65" s="22" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A66" s="22" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A67" s="22" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A68" s="22" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A69" s="22" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A70" s="22" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A71" s="22" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A72" s="22" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A73" s="22" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A74" s="22" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A75" s="22" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A76" s="22" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A77" s="22" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A78" s="22" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A79" s="22" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A80" s="22" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A81" s="22" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A82" s="22" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A83" s="22" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A84" s="22" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A85" s="22" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A86" s="22" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A87" s="22" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A88" s="22" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A89" s="22" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A90" s="22" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A91" s="22" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A92" s="22" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A93" s="22" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A94" s="22" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A95" s="22" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A96" s="22" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A97" s="22" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A98" s="22" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A99" s="22" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A100" s="22" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A101" s="22" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A102" s="22" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
   </sheetData>
@@ -9929,64 +9905,64 @@
   <sheetData>
     <row r="1" spans="1:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>542</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>545</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="M1" s="13" t="s">
+        <v>673</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>674</v>
+      </c>
+      <c r="O1" s="13" t="s">
         <v>675</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="P1" s="13" t="s">
         <v>676</v>
       </c>
-      <c r="O1" s="13" t="s">
-        <v>677</v>
-      </c>
-      <c r="P1" s="13" t="s">
-        <v>678</v>
-      </c>
       <c r="Q1" s="13" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>762</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>763</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>764</v>
-      </c>
       <c r="U1" s="10" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.5">
@@ -9994,13 +9970,13 @@
         <v>330</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>216</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>352</v>
@@ -10018,40 +9994,40 @@
         <v>333</v>
       </c>
       <c r="J2" s="19" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="K2" s="19" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="L2" s="18" t="s">
+        <v>668</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>669</v>
+      </c>
+      <c r="N2" s="18" t="s">
         <v>670</v>
       </c>
-      <c r="M2" s="18" t="s">
+      <c r="O2" s="18" t="s">
         <v>671</v>
       </c>
-      <c r="N2" s="18" t="s">
+      <c r="P2" s="19" t="s">
         <v>672</v>
       </c>
-      <c r="O2" s="18" t="s">
-        <v>673</v>
-      </c>
-      <c r="P2" s="19" t="s">
-        <v>674</v>
-      </c>
       <c r="Q2" s="23" t="s">
+        <v>763</v>
+      </c>
+      <c r="R2" s="23" t="s">
+        <v>764</v>
+      </c>
+      <c r="S2" s="23" t="s">
         <v>765</v>
       </c>
-      <c r="R2" s="23" t="s">
+      <c r="T2" s="23" t="s">
         <v>766</v>
       </c>
-      <c r="S2" s="23" t="s">
-        <v>767</v>
-      </c>
-      <c r="T2" s="23" t="s">
-        <v>768</v>
-      </c>
       <c r="U2" s="19" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.5">
@@ -10059,40 +10035,40 @@
         <v>342</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>875</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>876</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>877</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>878</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>885</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>356</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>879</v>
+        <v>869</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>378</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>873</v>
+        <v>863</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="R3" s="1" t="s">
         <v>254</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>886</v>
+        <v>876</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.5">
@@ -10211,25 +10187,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>585</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>416</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.5">
@@ -10237,7 +10213,7 @@
         <v>330</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>365</v>
@@ -10260,10 +10236,10 @@
         <v>364</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>880</v>
+        <v>870</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>880</v>
+        <v>870</v>
       </c>
     </row>
   </sheetData>
@@ -10303,42 +10279,42 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" s="18" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
-        <v>872</v>
+        <v>862</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
-        <v>874</v>
+        <v>864</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>882</v>
+        <v>872</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
-        <v>879</v>
+        <v>869</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>883</v>
+        <v>873</v>
       </c>
     </row>
   </sheetData>

--- a/example/JSUB999999_jga_metadata.xlsx
+++ b/example/JSUB999999_jga_metadata.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD0C5DD7-3D25-4745-B603-00148CFB4F35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8C7669-DD6D-4CAD-A322-F2BB99340D2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="12" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="910">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="907">
   <si>
     <t>E-mail</t>
     <phoneticPr fontId="1"/>
@@ -1379,10 +1379,6 @@
   </si>
   <si>
     <t>1 (Principal Investigator)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TEL (required for PI)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -4304,9 +4300,6 @@
     <t>example1@example.ac.jp</t>
   </si>
   <si>
-    <t>0000-00-0000</t>
-  </si>
-  <si>
     <t>Bioinformation and DDBJ Center, National Institute of Genetics</t>
   </si>
   <si>
@@ -4520,10 +4513,6 @@
   </si>
   <si>
     <t>TRANSCRIPTOMIC SINGLE CELL</t>
-  </si>
-  <si>
-    <t>2025/xx/yy</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>JGA xsd 1.3.0 に対応</t>
@@ -5170,7 +5159,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A1" s="29" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.5">
@@ -5180,27 +5169,27 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A3" s="6" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A4" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A5" s="6" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A6" s="6" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A7" s="14" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.5">
@@ -5208,12 +5197,12 @@
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A10" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.5">
@@ -5223,7 +5212,7 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A13" s="3" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.5">
@@ -5231,12 +5220,12 @@
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A16" s="3" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.5">
@@ -5282,22 +5271,22 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A27" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A28" s="7" t="s">
-        <v>886</v>
+      <c r="A28" s="7">
+        <v>45953</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A30" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A31" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B31" s="7">
         <v>42285</v>
@@ -5305,7 +5294,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A32" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B32" s="7">
         <v>42429</v>
@@ -5313,7 +5302,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A33" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B33" s="7">
         <v>42430</v>
@@ -5321,7 +5310,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A34" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B34" s="7">
         <v>42486</v>
@@ -5329,7 +5318,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A35" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B35" s="7">
         <v>42760</v>
@@ -5337,7 +5326,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A36" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B36" s="7">
         <v>42935</v>
@@ -5345,7 +5334,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A37" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B37" s="7">
         <v>42935</v>
@@ -5353,7 +5342,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A38" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B38" s="7">
         <v>43227</v>
@@ -5361,7 +5350,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A39" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B39" s="7">
         <v>44103</v>
@@ -5369,7 +5358,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A40" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B40" s="7">
         <v>44622</v>
@@ -5377,7 +5366,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A41" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B41" s="7">
         <v>44678</v>
@@ -5385,7 +5374,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A42" s="1" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B42" s="7">
         <v>44918</v>
@@ -5393,7 +5382,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A43" s="1" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B43" s="7">
         <v>45321</v>
@@ -5401,7 +5390,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A44" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B44" s="7">
         <v>45429</v>
@@ -5409,7 +5398,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A45" s="1" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B45" s="7">
         <v>45457</v>
@@ -5417,7 +5406,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A46" s="1" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="B46" s="7">
         <v>45478</v>
@@ -5425,7 +5414,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A47" s="1" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="B47" s="7">
         <v>45588</v>
@@ -5433,10 +5422,10 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A48" s="1" t="s">
-        <v>887</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>886</v>
+        <v>884</v>
+      </c>
+      <c r="B48" s="7">
+        <v>45953</v>
       </c>
     </row>
   </sheetData>
@@ -5509,7 +5498,7 @@
         <v>361</v>
       </c>
       <c r="J1" s="22" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="K1" s="22" t="s">
         <v>334</v>
@@ -5521,13 +5510,13 @@
         <v>334</v>
       </c>
       <c r="N1" s="22" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="O1" s="22" t="s">
+        <v>764</v>
+      </c>
+      <c r="P1" s="22" t="s">
         <v>765</v>
-      </c>
-      <c r="P1" s="22" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.5">
@@ -5535,7 +5524,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>271</v>
@@ -5550,13 +5539,13 @@
         <v>362</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>336</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>329</v>
@@ -5568,13 +5557,13 @@
         <v>327</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="N2" s="12" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="P2" s="1" t="b">
         <v>1</v>
@@ -5585,10 +5574,10 @@
         <v>228</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>279</v>
@@ -5600,7 +5589,7 @@
         <v>363</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>335</v>
@@ -5609,22 +5598,22 @@
         <v>355</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.5">
@@ -5650,16 +5639,16 @@
         <v>356</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.5">
@@ -5670,7 +5659,7 @@
         <v>251</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>281</v>
@@ -5679,22 +5668,22 @@
         <v>303</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>357</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>335</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="N5" s="12" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.5">
@@ -5711,7 +5700,7 @@
         <v>282</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>358</v>
@@ -5726,7 +5715,7 @@
         <v>369</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.5">
@@ -5749,7 +5738,7 @@
         <v>359</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>377</v>
@@ -5758,7 +5747,7 @@
         <v>370</v>
       </c>
       <c r="N7" s="12" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.5">
@@ -5781,7 +5770,7 @@
         <v>360</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>378</v>
@@ -5790,7 +5779,7 @@
         <v>371</v>
       </c>
       <c r="N8" s="12" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.5">
@@ -5798,7 +5787,7 @@
         <v>234</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>276</v>
@@ -5810,10 +5799,10 @@
         <v>306</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>339</v>
@@ -5822,7 +5811,7 @@
         <v>372</v>
       </c>
       <c r="N9" s="12" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.5">
@@ -5839,22 +5828,22 @@
         <v>286</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="N10" s="12" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.5">
@@ -5871,19 +5860,19 @@
         <v>307</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>328</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="N11" s="12" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.5">
@@ -5891,28 +5880,28 @@
         <v>237</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>308</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="N12" s="12" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.5">
@@ -5920,19 +5909,19 @@
         <v>238</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>309</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>340</v>
@@ -5941,7 +5930,7 @@
         <v>373</v>
       </c>
       <c r="N13" s="12" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.5">
@@ -5949,16 +5938,16 @@
         <v>239</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>310</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>242</v>
@@ -5970,7 +5959,7 @@
         <v>374</v>
       </c>
       <c r="N14" s="12" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.5">
@@ -5981,22 +5970,22 @@
         <v>256</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>311</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="N15" s="12" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.5">
@@ -6004,10 +5993,10 @@
         <v>241</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>312</v>
@@ -6016,10 +6005,10 @@
         <v>379</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="N16" s="12" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.5">
@@ -6027,7 +6016,7 @@
         <v>242</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>288</v>
@@ -6036,15 +6025,15 @@
         <v>313</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="N17" s="12" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B18" s="1" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>289</v>
@@ -6053,32 +6042,32 @@
         <v>314</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="N18" s="12" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B19" s="1" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>315</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="N19" s="12" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B20" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>290</v>
@@ -6087,49 +6076,49 @@
         <v>316</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="N20" s="12" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B21" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>291</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="N21" s="12" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B22" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>380</v>
       </c>
       <c r="N22" s="12" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B23" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>292</v>
@@ -6141,12 +6130,12 @@
         <v>381</v>
       </c>
       <c r="N23" s="12" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B24" s="1" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>293</v>
@@ -6158,12 +6147,12 @@
         <v>382</v>
       </c>
       <c r="N24" s="12" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B25" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>294</v>
@@ -6175,12 +6164,12 @@
         <v>383</v>
       </c>
       <c r="N25" s="12" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B26" s="1" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>295</v>
@@ -6189,15 +6178,15 @@
         <v>320</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="N26" s="12" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B27" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>296</v>
@@ -6206,15 +6195,15 @@
         <v>321</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="N27" s="12" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B28" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>297</v>
@@ -6223,18 +6212,18 @@
         <v>322</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B29" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>298</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>384</v>
@@ -6242,7 +6231,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B30" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>299</v>
@@ -6256,7 +6245,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.5">
       <c r="B31" s="1" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>270</v>
@@ -6273,7 +6262,7 @@
         <v>267</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>387</v>
@@ -6281,7 +6270,7 @@
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B33" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>325</v>
@@ -6292,7 +6281,7 @@
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B34" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>326</v>
@@ -6303,10 +6292,10 @@
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B35" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="K35" s="1" t="s">
         <v>390</v>
@@ -6314,10 +6303,10 @@
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B36" s="1" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="K36" s="1" t="s">
         <v>391</v>
@@ -6325,10 +6314,10 @@
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B37" s="1" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="K37" s="1" t="s">
         <v>392</v>
@@ -6336,7 +6325,7 @@
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B38" s="1" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>277</v>
@@ -6347,7 +6336,7 @@
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B39" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>394</v>
@@ -6355,7 +6344,7 @@
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B40" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="K40" s="1" t="s">
         <v>395</v>
@@ -6363,7 +6352,7 @@
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B41" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="K41" s="1" t="s">
         <v>396</v>
@@ -6371,15 +6360,15 @@
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B42" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B43" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="K43" s="1" t="s">
         <v>397</v>
@@ -6387,10 +6376,10 @@
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B44" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.5">
@@ -6398,7 +6387,7 @@
         <v>268</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.5">
@@ -6406,31 +6395,31 @@
         <v>269</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B47" s="1" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B48" s="1" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="49" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B49" s="1" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.5">
@@ -6438,7 +6427,7 @@
         <v>244</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.5">
@@ -6446,7 +6435,7 @@
         <v>245</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.5">
@@ -6474,77 +6463,77 @@
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B56" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B57" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="58" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B58" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B59" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B60" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B61" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B62" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B63" s="1" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.5">
       <c r="B64" s="1" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B65" s="1" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B66" s="1" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B67" s="1" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B68" s="1" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B69" s="1" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B70" s="1" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.5">
@@ -6584,17 +6573,17 @@
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B78" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B79" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.5">
       <c r="B80" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.5">
@@ -6625,9 +6614,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.6640625" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.5"/>
   <cols>
@@ -6638,115 +6629,109 @@
     <col min="5" max="16384" width="24.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A1" s="26" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="26" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="26" t="s">
+    <row r="3" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="26" t="s">
         <v>788</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="26" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.5"/>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.5"/>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A6" s="18" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A7" s="5" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A10" s="18" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>0</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>407</v>
-      </c>
-      <c r="F10" s="18" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A11" s="21" t="s">
         <v>406</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>819</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>820</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>821</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A12" s="22">
         <v>2</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>823</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>824</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>825</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="E12" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A13" s="22">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A14" s="22">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A15" s="22">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A16" s="22">
         <v>6</v>
       </c>
@@ -6773,12 +6758,12 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A22" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A23" s="18" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.5">
@@ -6823,7 +6808,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.5">
@@ -6833,12 +6818,12 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A3" s="4" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.5">
@@ -6857,7 +6842,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.5">
@@ -6872,7 +6857,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A11" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.5">
@@ -6882,38 +6867,38 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A13" s="4" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A15" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>592</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A16" s="18" t="s">
+        <v>585</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>585</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>587</v>
+      </c>
+      <c r="D16" s="18" t="s">
         <v>586</v>
       </c>
-      <c r="B16" s="18" t="s">
-        <v>586</v>
-      </c>
-      <c r="C16" s="18" t="s">
+      <c r="E16" s="2" t="s">
         <v>588</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>587</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.5">
@@ -6921,13 +6906,13 @@
         <v>1</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>828</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>829</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>830</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>831</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.5">
@@ -6942,18 +6927,18 @@
     </row>
     <row r="21" spans="1:4" ht="69.599999999999994" x14ac:dyDescent="0.5">
       <c r="A21" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A22" s="18" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.5">
@@ -6961,10 +6946,10 @@
         <v>1</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.5">
@@ -6979,12 +6964,12 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A27" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A28" s="19" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.5">
@@ -6992,21 +6977,21 @@
     </row>
     <row r="30" spans="1:4" ht="52.2" x14ac:dyDescent="0.5">
       <c r="A30" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A31" s="20" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.5">
@@ -7014,10 +6999,10 @@
         <v>1</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.5">
@@ -7032,7 +7017,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A36" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.5">
@@ -7043,7 +7028,7 @@
         <v>4</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.5">
@@ -7066,7 +7051,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A42" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.5">
@@ -7091,13 +7076,13 @@
         <v>1</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>835</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>836</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>837</v>
       </c>
       <c r="E44" s="1">
         <v>22129008</v>
@@ -7115,7 +7100,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A48" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.5">
@@ -7131,7 +7116,7 @@
         <v>1</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.5">
@@ -7146,18 +7131,18 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A54" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.5">
       <c r="A55" s="19" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B55" s="19" t="s">
+        <v>576</v>
+      </c>
+      <c r="C55" s="19" t="s">
         <v>577</v>
-      </c>
-      <c r="C55" s="19" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.5">
@@ -7221,61 +7206,61 @@
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>792</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>793</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>794</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>795</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>796</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>797</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>798</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>799</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="R1" s="27" t="s">
         <v>800</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>627</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>623</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>624</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>625</v>
-      </c>
-      <c r="R1" s="27" t="s">
-        <v>801</v>
-      </c>
       <c r="S1" s="28" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.5">
@@ -7283,58 +7268,58 @@
         <v>7</v>
       </c>
       <c r="B2" s="18" t="s">
+        <v>801</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>802</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="D2" s="18" t="s">
         <v>803</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="E2" s="18" t="s">
         <v>804</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="F2" s="18" t="s">
         <v>805</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="G2" s="19" t="s">
+        <v>785</v>
+      </c>
+      <c r="H2" s="19" t="s">
         <v>806</v>
       </c>
-      <c r="G2" s="19" t="s">
-        <v>786</v>
-      </c>
-      <c r="H2" s="19" t="s">
+      <c r="I2" s="19" t="s">
         <v>807</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="J2" s="19" t="s">
         <v>808</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="K2" s="19" t="s">
         <v>809</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="L2" s="19" t="s">
         <v>810</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="M2" s="19" t="s">
         <v>811</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="N2" s="19" t="s">
         <v>812</v>
       </c>
-      <c r="N2" s="19" t="s">
+      <c r="O2" s="19" t="s">
         <v>813</v>
       </c>
-      <c r="O2" s="19" t="s">
+      <c r="P2" s="19" t="s">
         <v>814</v>
       </c>
-      <c r="P2" s="19" t="s">
+      <c r="Q2" s="19" t="s">
         <v>815</v>
       </c>
-      <c r="Q2" s="19" t="s">
-        <v>816</v>
-      </c>
       <c r="R2" s="25" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="S2" s="25" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="T2" s="19"/>
       <c r="U2" s="19"/>
@@ -7353,58 +7338,58 @@
         <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>838</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>839</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>842</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>842</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>840</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>841</v>
       </c>
       <c r="G3" s="24">
         <v>37</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="L3" s="24" t="s">
         <v>853</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>853</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>833</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>834</v>
-      </c>
-      <c r="L3" s="24" t="s">
-        <v>855</v>
-      </c>
       <c r="M3" s="24" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="N3" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="P3" s="1" t="s">
         <v>843</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>844</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>845</v>
       </c>
-      <c r="Q3" s="1" t="s">
-        <v>846</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>847</v>
-      </c>
       <c r="S3" s="1" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.5">
@@ -7412,58 +7397,58 @@
         <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>847</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>848</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="G4" s="24" t="s">
+        <v>850</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>851</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>851</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>849</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>850</v>
-      </c>
-      <c r="G4" s="24" t="s">
+      <c r="I4" s="1" t="s">
         <v>852</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="J4" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="L4" s="24" t="s">
         <v>853</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="M4" s="24" t="s">
         <v>854</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>833</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>834</v>
-      </c>
-      <c r="L4" s="24" t="s">
-        <v>855</v>
-      </c>
-      <c r="M4" s="24" t="s">
-        <v>856</v>
-      </c>
       <c r="N4" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="P4" s="1" t="s">
         <v>843</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>844</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="R4" s="1" t="s">
         <v>845</v>
       </c>
-      <c r="Q4" s="1" t="s">
-        <v>846</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>847</v>
-      </c>
       <c r="S4" s="1" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.5">
@@ -8130,40 +8115,40 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>679</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="L1" s="30" t="s">
         <v>558</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>680</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="L1" s="30" t="s">
-        <v>559</v>
       </c>
       <c r="M1" s="30"/>
       <c r="N1" s="30"/>
@@ -8182,7 +8167,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>217</v>
@@ -8203,25 +8188,25 @@
         <v>222</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="L2" s="18" t="s">
+        <v>409</v>
+      </c>
+      <c r="M2" s="19" t="s">
+        <v>561</v>
+      </c>
+      <c r="N2" s="18" t="s">
         <v>410</v>
       </c>
-      <c r="M2" s="19" t="s">
-        <v>562</v>
-      </c>
-      <c r="N2" s="18" t="s">
+      <c r="O2" s="18" t="s">
         <v>411</v>
       </c>
-      <c r="O2" s="18" t="s">
+      <c r="P2" s="18" t="s">
         <v>412</v>
       </c>
-      <c r="P2" s="18" t="s">
-        <v>413</v>
-      </c>
       <c r="Q2" s="18" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.5">
@@ -8229,16 +8214,16 @@
         <v>116</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>861</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>862</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>863</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>271</v>
@@ -8253,22 +8238,22 @@
         <v>302</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="L3" s="1">
         <v>200</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O3" s="1">
         <v>1</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="Q3" s="1">
         <v>101</v>
@@ -8282,13 +8267,13 @@
         <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>271</v>
@@ -8303,22 +8288,22 @@
         <v>302</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="L4" s="1">
         <v>200</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O4" s="1">
         <v>1</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="Q4" s="1">
         <v>101</v>
@@ -8329,7 +8314,7 @@
         <v>118</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O5" s="1">
         <v>1</v>
@@ -8340,7 +8325,7 @@
         <v>119</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O6" s="1">
         <v>1</v>
@@ -8351,7 +8336,7 @@
         <v>120</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O7" s="1">
         <v>1</v>
@@ -8362,7 +8347,7 @@
         <v>121</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O8" s="1">
         <v>1</v>
@@ -8373,7 +8358,7 @@
         <v>122</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O9" s="1">
         <v>1</v>
@@ -8384,7 +8369,7 @@
         <v>123</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O10" s="1">
         <v>1</v>
@@ -8395,7 +8380,7 @@
         <v>124</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O11" s="1">
         <v>1</v>
@@ -8406,7 +8391,7 @@
         <v>125</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O12" s="1">
         <v>1</v>
@@ -8417,7 +8402,7 @@
         <v>126</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O13" s="1">
         <v>1</v>
@@ -8428,7 +8413,7 @@
         <v>127</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O14" s="1">
         <v>1</v>
@@ -8439,7 +8424,7 @@
         <v>128</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O15" s="1">
         <v>1</v>
@@ -8450,7 +8435,7 @@
         <v>129</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O16" s="1">
         <v>1</v>
@@ -8461,7 +8446,7 @@
         <v>130</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O17" s="1">
         <v>1</v>
@@ -8472,7 +8457,7 @@
         <v>131</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O18" s="1">
         <v>1</v>
@@ -8483,7 +8468,7 @@
         <v>132</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O19" s="1">
         <v>1</v>
@@ -8494,7 +8479,7 @@
         <v>133</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O20" s="1">
         <v>1</v>
@@ -8505,7 +8490,7 @@
         <v>134</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O21" s="1">
         <v>1</v>
@@ -8516,7 +8501,7 @@
         <v>135</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O22" s="1">
         <v>1</v>
@@ -8527,7 +8512,7 @@
         <v>136</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O23" s="1">
         <v>1</v>
@@ -8538,7 +8523,7 @@
         <v>137</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O24" s="1">
         <v>1</v>
@@ -8549,7 +8534,7 @@
         <v>138</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O25" s="1">
         <v>1</v>
@@ -8560,7 +8545,7 @@
         <v>139</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O26" s="1">
         <v>1</v>
@@ -8571,7 +8556,7 @@
         <v>140</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O27" s="1">
         <v>1</v>
@@ -8582,7 +8567,7 @@
         <v>141</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O28" s="1">
         <v>1</v>
@@ -8593,7 +8578,7 @@
         <v>142</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O29" s="1">
         <v>1</v>
@@ -8604,7 +8589,7 @@
         <v>143</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O30" s="1">
         <v>1</v>
@@ -8615,7 +8600,7 @@
         <v>144</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O31" s="1">
         <v>1</v>
@@ -8626,7 +8611,7 @@
         <v>145</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O32" s="1">
         <v>1</v>
@@ -8637,7 +8622,7 @@
         <v>146</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O33" s="1">
         <v>1</v>
@@ -8648,7 +8633,7 @@
         <v>147</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O34" s="1">
         <v>1</v>
@@ -8659,7 +8644,7 @@
         <v>148</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O35" s="1">
         <v>1</v>
@@ -8670,7 +8655,7 @@
         <v>149</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O36" s="1">
         <v>1</v>
@@ -8681,7 +8666,7 @@
         <v>150</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O37" s="1">
         <v>1</v>
@@ -8692,7 +8677,7 @@
         <v>151</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O38" s="1">
         <v>1</v>
@@ -8703,7 +8688,7 @@
         <v>152</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O39" s="1">
         <v>1</v>
@@ -8714,7 +8699,7 @@
         <v>153</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O40" s="1">
         <v>1</v>
@@ -8725,7 +8710,7 @@
         <v>154</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O41" s="1">
         <v>1</v>
@@ -8736,7 +8721,7 @@
         <v>155</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O42" s="1">
         <v>1</v>
@@ -8747,7 +8732,7 @@
         <v>156</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O43" s="1">
         <v>1</v>
@@ -8758,7 +8743,7 @@
         <v>157</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O44" s="1">
         <v>1</v>
@@ -8769,7 +8754,7 @@
         <v>158</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O45" s="1">
         <v>1</v>
@@ -8780,7 +8765,7 @@
         <v>159</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O46" s="1">
         <v>1</v>
@@ -8791,7 +8776,7 @@
         <v>160</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O47" s="1">
         <v>1</v>
@@ -8802,7 +8787,7 @@
         <v>161</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O48" s="1">
         <v>1</v>
@@ -8813,7 +8798,7 @@
         <v>162</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O49" s="1">
         <v>1</v>
@@ -8824,7 +8809,7 @@
         <v>163</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O50" s="1">
         <v>1</v>
@@ -8835,7 +8820,7 @@
         <v>164</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O51" s="1">
         <v>1</v>
@@ -8846,7 +8831,7 @@
         <v>165</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O52" s="1">
         <v>1</v>
@@ -8857,7 +8842,7 @@
         <v>166</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O53" s="1">
         <v>1</v>
@@ -8868,7 +8853,7 @@
         <v>167</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O54" s="1">
         <v>1</v>
@@ -8879,7 +8864,7 @@
         <v>168</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O55" s="1">
         <v>1</v>
@@ -8890,7 +8875,7 @@
         <v>169</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O56" s="1">
         <v>1</v>
@@ -8901,7 +8886,7 @@
         <v>170</v>
       </c>
       <c r="N57" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O57" s="1">
         <v>1</v>
@@ -8912,7 +8897,7 @@
         <v>171</v>
       </c>
       <c r="N58" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O58" s="1">
         <v>1</v>
@@ -8923,7 +8908,7 @@
         <v>172</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O59" s="1">
         <v>1</v>
@@ -8934,7 +8919,7 @@
         <v>173</v>
       </c>
       <c r="N60" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O60" s="1">
         <v>1</v>
@@ -8945,7 +8930,7 @@
         <v>174</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O61" s="1">
         <v>1</v>
@@ -8956,7 +8941,7 @@
         <v>175</v>
       </c>
       <c r="N62" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O62" s="1">
         <v>1</v>
@@ -8967,7 +8952,7 @@
         <v>176</v>
       </c>
       <c r="N63" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O63" s="1">
         <v>1</v>
@@ -8978,7 +8963,7 @@
         <v>177</v>
       </c>
       <c r="N64" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O64" s="1">
         <v>1</v>
@@ -8989,7 +8974,7 @@
         <v>178</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O65" s="1">
         <v>1</v>
@@ -9000,7 +8985,7 @@
         <v>179</v>
       </c>
       <c r="N66" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O66" s="1">
         <v>1</v>
@@ -9011,7 +8996,7 @@
         <v>180</v>
       </c>
       <c r="N67" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O67" s="1">
         <v>1</v>
@@ -9022,7 +9007,7 @@
         <v>181</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O68" s="1">
         <v>1</v>
@@ -9033,7 +9018,7 @@
         <v>182</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O69" s="1">
         <v>1</v>
@@ -9044,7 +9029,7 @@
         <v>183</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O70" s="1">
         <v>1</v>
@@ -9055,7 +9040,7 @@
         <v>184</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O71" s="1">
         <v>1</v>
@@ -9066,7 +9051,7 @@
         <v>185</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O72" s="1">
         <v>1</v>
@@ -9077,7 +9062,7 @@
         <v>186</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O73" s="1">
         <v>1</v>
@@ -9088,7 +9073,7 @@
         <v>187</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O74" s="1">
         <v>1</v>
@@ -9099,7 +9084,7 @@
         <v>188</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O75" s="1">
         <v>1</v>
@@ -9110,7 +9095,7 @@
         <v>189</v>
       </c>
       <c r="N76" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O76" s="1">
         <v>1</v>
@@ -9121,7 +9106,7 @@
         <v>190</v>
       </c>
       <c r="N77" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O77" s="1">
         <v>1</v>
@@ -9132,7 +9117,7 @@
         <v>191</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O78" s="1">
         <v>1</v>
@@ -9143,7 +9128,7 @@
         <v>192</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O79" s="1">
         <v>1</v>
@@ -9154,7 +9139,7 @@
         <v>193</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O80" s="1">
         <v>1</v>
@@ -9165,7 +9150,7 @@
         <v>194</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O81" s="1">
         <v>1</v>
@@ -9176,7 +9161,7 @@
         <v>195</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O82" s="1">
         <v>1</v>
@@ -9187,7 +9172,7 @@
         <v>196</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O83" s="1">
         <v>1</v>
@@ -9198,7 +9183,7 @@
         <v>197</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O84" s="1">
         <v>1</v>
@@ -9209,7 +9194,7 @@
         <v>198</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O85" s="1">
         <v>1</v>
@@ -9220,7 +9205,7 @@
         <v>199</v>
       </c>
       <c r="N86" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O86" s="1">
         <v>1</v>
@@ -9231,7 +9216,7 @@
         <v>200</v>
       </c>
       <c r="N87" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O87" s="1">
         <v>1</v>
@@ -9242,7 +9227,7 @@
         <v>201</v>
       </c>
       <c r="N88" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O88" s="1">
         <v>1</v>
@@ -9253,7 +9238,7 @@
         <v>202</v>
       </c>
       <c r="N89" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O89" s="1">
         <v>1</v>
@@ -9264,7 +9249,7 @@
         <v>203</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O90" s="1">
         <v>1</v>
@@ -9275,7 +9260,7 @@
         <v>204</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O91" s="1">
         <v>1</v>
@@ -9286,7 +9271,7 @@
         <v>205</v>
       </c>
       <c r="N92" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O92" s="1">
         <v>1</v>
@@ -9297,7 +9282,7 @@
         <v>206</v>
       </c>
       <c r="N93" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O93" s="1">
         <v>1</v>
@@ -9308,7 +9293,7 @@
         <v>207</v>
       </c>
       <c r="N94" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O94" s="1">
         <v>1</v>
@@ -9319,7 +9304,7 @@
         <v>208</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O95" s="1">
         <v>1</v>
@@ -9330,7 +9315,7 @@
         <v>209</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O96" s="1">
         <v>1</v>
@@ -9341,7 +9326,7 @@
         <v>210</v>
       </c>
       <c r="N97" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O97" s="1">
         <v>1</v>
@@ -9352,7 +9337,7 @@
         <v>211</v>
       </c>
       <c r="N98" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O98" s="1">
         <v>1</v>
@@ -9363,7 +9348,7 @@
         <v>212</v>
       </c>
       <c r="N99" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O99" s="1">
         <v>1</v>
@@ -9374,7 +9359,7 @@
         <v>213</v>
       </c>
       <c r="N100" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O100" s="1">
         <v>1</v>
@@ -9385,7 +9370,7 @@
         <v>214</v>
       </c>
       <c r="N101" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O101" s="1">
         <v>1</v>
@@ -9396,7 +9381,7 @@
         <v>215</v>
       </c>
       <c r="N102" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="O102" s="1">
         <v>1</v>
@@ -9488,22 +9473,22 @@
   <sheetData>
     <row r="1" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>563</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.5">
@@ -9514,540 +9499,540 @@
         <v>331</v>
       </c>
       <c r="C2" s="18" t="s">
+        <v>550</v>
+      </c>
+      <c r="D2" s="18" t="s">
         <v>551</v>
       </c>
-      <c r="D2" s="18" t="s">
-        <v>552</v>
-      </c>
       <c r="E2" s="19" t="s">
+        <v>559</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>560</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A3" s="22" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>336</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A4" s="22" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>117</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>336</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A5" s="22" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A6" s="22" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A7" s="22" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A8" s="22" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A9" s="22" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A10" s="22" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A11" s="22" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A12" s="22" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A13" s="22" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A14" s="22" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A15" s="22" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A16" s="22" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A17" s="22" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A18" s="22" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A19" s="22" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A20" s="22" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A21" s="22" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A22" s="22" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A23" s="22" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A24" s="22" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A25" s="22" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A26" s="22" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A27" s="22" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A28" s="22" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A29" s="22" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A30" s="22" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A31" s="22" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A32" s="22" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A33" s="22" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A34" s="22" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A35" s="22" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A36" s="22" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A37" s="22" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A38" s="22" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A39" s="22" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A40" s="22" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A41" s="22" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A42" s="22" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A43" s="22" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A44" s="22" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A45" s="22" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A46" s="22" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A47" s="22" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A48" s="22" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A49" s="22" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A50" s="22" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A51" s="22" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A52" s="22" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A53" s="22" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A54" s="22" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A55" s="22" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A56" s="22" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A57" s="22" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A58" s="22" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A59" s="22" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A60" s="22" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A61" s="22" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A62" s="22" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A63" s="22" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A64" s="22" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A65" s="22" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A66" s="22" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A67" s="22" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A68" s="22" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A69" s="22" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A70" s="22" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A71" s="22" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A72" s="22" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A73" s="22" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A74" s="22" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A75" s="22" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A76" s="22" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A77" s="22" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A78" s="22" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A79" s="22" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A80" s="22" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A81" s="22" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A82" s="22" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A83" s="22" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A84" s="22" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A85" s="22" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A86" s="22" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A87" s="22" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A88" s="22" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A89" s="22" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A90" s="22" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A91" s="22" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A92" s="22" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A93" s="22" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A94" s="22" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A95" s="22" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A96" s="22" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A97" s="22" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A98" s="22" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A99" s="22" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A100" s="22" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A101" s="22" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A102" s="22" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
   </sheetData>
@@ -10085,64 +10070,64 @@
   <sheetData>
     <row r="1" spans="1:21" ht="15.6" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>540</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>543</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>546</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>631</v>
-      </c>
       <c r="L1" s="6" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="M1" s="13" t="s">
+        <v>674</v>
+      </c>
+      <c r="N1" s="13" t="s">
         <v>675</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="O1" s="13" t="s">
         <v>676</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="P1" s="13" t="s">
         <v>677</v>
       </c>
-      <c r="P1" s="13" t="s">
-        <v>678</v>
-      </c>
       <c r="Q1" s="13" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>757</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>759</v>
-      </c>
       <c r="U1" s="10" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.5">
@@ -10150,13 +10135,13 @@
         <v>330</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>216</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>352</v>
@@ -10174,40 +10159,40 @@
         <v>333</v>
       </c>
       <c r="J2" s="19" t="s">
+        <v>559</v>
+      </c>
+      <c r="K2" s="19" t="s">
         <v>560</v>
       </c>
-      <c r="K2" s="19" t="s">
-        <v>561</v>
-      </c>
       <c r="L2" s="18" t="s">
+        <v>669</v>
+      </c>
+      <c r="M2" s="18" t="s">
         <v>670</v>
       </c>
-      <c r="M2" s="18" t="s">
+      <c r="N2" s="18" t="s">
         <v>671</v>
       </c>
-      <c r="N2" s="18" t="s">
+      <c r="O2" s="18" t="s">
         <v>672</v>
       </c>
-      <c r="O2" s="18" t="s">
+      <c r="P2" s="19" t="s">
         <v>673</v>
       </c>
-      <c r="P2" s="19" t="s">
-        <v>674</v>
-      </c>
       <c r="Q2" s="23" t="s">
+        <v>759</v>
+      </c>
+      <c r="R2" s="23" t="s">
         <v>760</v>
       </c>
-      <c r="R2" s="23" t="s">
+      <c r="S2" s="23" t="s">
         <v>761</v>
       </c>
-      <c r="S2" s="23" t="s">
+      <c r="T2" s="23" t="s">
         <v>762</v>
       </c>
-      <c r="T2" s="23" t="s">
-        <v>763</v>
-      </c>
       <c r="U2" s="19" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.5">
@@ -10215,40 +10200,40 @@
         <v>342</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>871</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>872</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>873</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>356</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>378</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="R3" s="1" t="s">
         <v>254</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.5">
@@ -10367,25 +10352,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>585</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>416</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.5">
@@ -10393,7 +10378,7 @@
         <v>330</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>365</v>
@@ -10416,10 +10401,10 @@
         <v>364</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
   </sheetData>
@@ -10459,42 +10444,42 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>719</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" s="18" t="s">
+        <v>716</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>717</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>718</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
   </sheetData>
